--- a/data/data_availability.xlsx
+++ b/data/data_availability.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="586">
   <si>
     <t>Fiscal</t>
   </si>
@@ -1676,6 +1676,122 @@
   </si>
   <si>
     <t>operaciones_gobierno_general_all_years_all_alc_cepalstat.xlsx</t>
+  </si>
+  <si>
+    <t>ingresos  sector publico no financiero</t>
+  </si>
+  <si>
+    <t>ingresos tributarios  sector publico no financiero</t>
+  </si>
+  <si>
+    <t>ingresos no tributarios  sector publico no financiero</t>
+  </si>
+  <si>
+    <t>gastos  sector publico no financiero</t>
+  </si>
+  <si>
+    <t>gastos de capital sector publico no financiero</t>
+  </si>
+  <si>
+    <t>gasto adquision activo fijo  sector publico no financiero</t>
+  </si>
+  <si>
+    <t>gasto transferencias de capital  sector publico no financiero</t>
+  </si>
+  <si>
+    <t>gasto intereses sector publico no financiero</t>
+  </si>
+  <si>
+    <t>resultado final sector publico no financiero</t>
+  </si>
+  <si>
+    <t>1990-2015</t>
+  </si>
+  <si>
+    <t>operaciones_spnf_central_all_years_alc_cepalstat.xlsx</t>
+  </si>
+  <si>
+    <t>financiamiento total</t>
+  </si>
+  <si>
+    <t>financiamiento externo</t>
+  </si>
+  <si>
+    <t>financiamiento interno</t>
+  </si>
+  <si>
+    <t>financiamiento otro</t>
+  </si>
+  <si>
+    <t>1990-2012</t>
+  </si>
+  <si>
+    <t>1990-2012: COL, CRI, SLV, GTM, HTI, HND, PRY, PAR, VEN
+1991-2012: NIC
+1990-1998: URY
+1995-2012: DOM</t>
+  </si>
+  <si>
+    <t>1990-2012: CHL, COL, CRI, SLV, GTM, HTI, HND, PRY, PAR, VEN
+1991-2012: NIC
+1995-2012: DOM</t>
+  </si>
+  <si>
+    <t>1990-2012: BOL, CHL, CRI, NIC, PER
+2001-2008: URY</t>
+  </si>
+  <si>
+    <t>financiamiento total gobierno general</t>
+  </si>
+  <si>
+    <t>financiamiento interno gobierno general</t>
+  </si>
+  <si>
+    <t>financiamiento externo gobierno general</t>
+  </si>
+  <si>
+    <t>financiamiento otro gobierno general</t>
+  </si>
+  <si>
+    <t>1990-2012: BOL, CRI, NIC, PER
+2001-2008: URY</t>
+  </si>
+  <si>
+    <t>financiamiento total sector publico no financiero</t>
+  </si>
+  <si>
+    <t>financiamiento interno sector publico no financiero</t>
+  </si>
+  <si>
+    <t>financiamiento externo sector publico no financiero</t>
+  </si>
+  <si>
+    <t>financiamiento otro sector publico no financiero</t>
+  </si>
+  <si>
+    <t>1990-2012: BOL, SLV, MEX, PER
+1990-2011: VEN
+1990-2010: CRI, PRY
+1991-2012: NIC
+1995-2012: ECU
+1990-2007: COL</t>
+  </si>
+  <si>
+    <t>1990-2012: BOL, SLV, MEX, PER
+1990-2011: VEN
+1990-2010: CRI, PRY
+1991-2012: NIC
+1995-2012: ECU
+1998-2004: COL</t>
+  </si>
+  <si>
+    <t>financiamiento_spnf_central_all_years_all_alc_cepalstat.xlsx</t>
+  </si>
+  <si>
+    <t>financiamiento_gobierno_general_all_years_all_alc_cepalstat.xlsx</t>
+  </si>
+  <si>
+    <t>financiamiento_gobierno_central_all_years_all_alc_cepalstat.xlsx</t>
   </si>
 </sst>
 </file>
@@ -2128,10 +2244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R271"/>
+  <dimension ref="A1:R286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2139,8 +2255,8 @@
     <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.5703125" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
@@ -2290,21 +2406,21 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="30.75" thickBot="1">
+    <row r="9" spans="1:18" ht="75.75" thickBot="1">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>564</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>354</v>
+      <c r="D9" t="s">
+        <v>568</v>
       </c>
       <c r="E9" t="s">
         <v>355</v>
       </c>
-      <c r="F9" t="s">
-        <v>362</v>
+      <c r="F9" s="2" t="s">
+        <v>570</v>
       </c>
       <c r="G9" t="s">
         <v>356</v>
@@ -2316,43 +2432,27 @@
         <v>359</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>360</v>
+        <v>585</v>
       </c>
       <c r="K9" t="s">
         <v>361</v>
       </c>
-      <c r="N9" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="O9" s="13">
-        <v>44</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="30.75" thickBot="1">
+      <c r="N9" s="12"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" thickBot="1">
       <c r="B10" t="s">
-        <v>348</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>354</v>
+        <v>566</v>
+      </c>
+      <c r="D10" t="s">
+        <v>568</v>
       </c>
       <c r="E10" t="s">
         <v>355</v>
       </c>
-      <c r="F10" t="s">
-        <v>362</v>
-      </c>
       <c r="G10" t="s">
         <v>356</v>
       </c>
@@ -2363,42 +2463,29 @@
         <v>359</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>360</v>
+        <v>585</v>
       </c>
       <c r="K10" t="s">
         <v>361</v>
       </c>
-      <c r="N10" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="O10" s="13">
-        <v>52</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q10" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="51.75" thickBot="1">
+      <c r="N10" s="12"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+    </row>
+    <row r="11" spans="1:18" ht="90.75" thickBot="1">
       <c r="B11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>354</v>
+        <v>565</v>
+      </c>
+      <c r="D11" t="s">
+        <v>568</v>
       </c>
       <c r="E11" t="s">
         <v>355</v>
       </c>
-      <c r="F11" t="s">
-        <v>362</v>
+      <c r="F11" s="2" t="s">
+        <v>569</v>
       </c>
       <c r="G11" t="s">
         <v>356</v>
@@ -2410,41 +2497,27 @@
         <v>359</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>360</v>
+        <v>585</v>
       </c>
       <c r="K11" t="s">
         <v>361</v>
       </c>
-      <c r="N11" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="O11" s="13">
-        <v>535</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>433</v>
-      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
     </row>
-    <row r="12" spans="1:18" ht="39" thickBot="1">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1">
       <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>354</v>
+        <v>567</v>
+      </c>
+      <c r="D12" t="s">
+        <v>568</v>
       </c>
       <c r="E12" t="s">
         <v>355</v>
       </c>
-      <c r="F12" t="s">
-        <v>362</v>
-      </c>
       <c r="G12" t="s">
         <v>356</v>
       </c>
@@ -2455,30 +2528,20 @@
         <v>359</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>360</v>
+        <v>585</v>
       </c>
       <c r="K12" t="s">
         <v>361</v>
       </c>
-      <c r="N12" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="O12" s="13">
-        <v>92</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q12" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="R12" s="13" t="s">
-        <v>437</v>
-      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
     </row>
     <row r="13" spans="1:18" ht="30.75" thickBot="1">
       <c r="B13" t="s">
-        <v>350</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2508,24 +2571,24 @@
         <v>361</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="O13" s="13">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="30.75" thickBot="1">
       <c r="B14" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2555,24 +2618,24 @@
         <v>361</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="O14" s="13">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="30.75" thickBot="1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="51.75" thickBot="1">
       <c r="B15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2602,22 +2665,22 @@
         <v>361</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="O15" s="13">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="R15" s="13"/>
     </row>
-    <row r="16" spans="1:18" ht="30.75" thickBot="1">
+    <row r="16" spans="1:18" ht="39" thickBot="1">
       <c r="B16" t="s">
-        <v>353</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2647,24 +2710,24 @@
         <v>361</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="O16" s="13">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="Q16" s="13" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" ht="39" thickBot="1">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="30.75" thickBot="1">
       <c r="B17" t="s">
-        <v>27</v>
+        <v>350</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2694,24 +2757,24 @@
         <v>361</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="O17" s="13">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="30.75" thickBot="1">
       <c r="B18" t="s">
-        <v>28</v>
+        <v>352</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2741,319 +2804,331 @@
         <v>361</v>
       </c>
       <c r="N18" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="O18" s="13">
+        <v>192</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="30.75" thickBot="1">
+      <c r="B19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E19" t="s">
+        <v>355</v>
+      </c>
+      <c r="F19" t="s">
+        <v>362</v>
+      </c>
+      <c r="G19" t="s">
+        <v>356</v>
+      </c>
+      <c r="H19" t="s">
+        <v>358</v>
+      </c>
+      <c r="I19" t="s">
+        <v>359</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="K19" t="s">
+        <v>361</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="O19" s="13">
+        <v>531</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="R19" s="13"/>
+    </row>
+    <row r="20" spans="2:18" ht="30.75" thickBot="1">
+      <c r="B20" t="s">
+        <v>353</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E20" t="s">
+        <v>355</v>
+      </c>
+      <c r="F20" t="s">
+        <v>362</v>
+      </c>
+      <c r="G20" t="s">
+        <v>356</v>
+      </c>
+      <c r="H20" t="s">
+        <v>358</v>
+      </c>
+      <c r="I20" t="s">
+        <v>359</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="K20" t="s">
+        <v>361</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="O20" s="13">
+        <v>212</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="39" thickBot="1">
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E21" t="s">
+        <v>355</v>
+      </c>
+      <c r="F21" t="s">
+        <v>362</v>
+      </c>
+      <c r="G21" t="s">
+        <v>356</v>
+      </c>
+      <c r="H21" t="s">
+        <v>358</v>
+      </c>
+      <c r="I21" t="s">
+        <v>359</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="K21" t="s">
+        <v>361</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="O21" s="13">
+        <v>214</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="30.75" thickBot="1">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E22" t="s">
+        <v>355</v>
+      </c>
+      <c r="F22" t="s">
+        <v>362</v>
+      </c>
+      <c r="G22" t="s">
+        <v>356</v>
+      </c>
+      <c r="H22" t="s">
+        <v>358</v>
+      </c>
+      <c r="I22" t="s">
+        <v>359</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="K22" t="s">
+        <v>361</v>
+      </c>
+      <c r="N22" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O22" s="13">
         <v>308</v>
       </c>
-      <c r="P18" s="13" t="s">
+      <c r="P22" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="Q18" s="13" t="s">
+      <c r="Q22" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="R18" s="13" t="s">
+      <c r="R22" s="13" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="26.25" thickBot="1">
-      <c r="N19" s="12" t="s">
+    <row r="23" spans="2:18" ht="26.25" thickBot="1">
+      <c r="N23" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O23" s="13">
         <v>312</v>
       </c>
-      <c r="P19" s="13" t="s">
+      <c r="P23" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="Q19" s="13" t="s">
+      <c r="Q23" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="R19" s="13" t="s">
+      <c r="R23" s="13" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B20" t="s">
+    <row r="24" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B24" t="s">
         <v>14</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="O20" s="13">
-        <v>332</v>
-      </c>
-      <c r="P20" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q20" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="R20" s="13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="O21" s="13">
-        <v>388</v>
-      </c>
-      <c r="P21" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q21" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="R21" s="13" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="26.25" thickBot="1">
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="N22" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="O22" s="13">
-        <v>474</v>
-      </c>
-      <c r="P22" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q22" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="R22" s="13" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" ht="26.25" thickBot="1">
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="O23" s="13">
-        <v>500</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q23" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="R23" s="13" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" ht="26.25" thickBot="1">
-      <c r="B24" t="s">
-        <v>18</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
-        <v>369</v>
-      </c>
-      <c r="E24" t="s">
-        <v>355</v>
-      </c>
-      <c r="F24" t="s">
-        <v>551</v>
-      </c>
-      <c r="G24" t="s">
-        <v>356</v>
-      </c>
-      <c r="H24" t="s">
-        <v>358</v>
-      </c>
-      <c r="I24" t="s">
-        <v>359</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="K24" t="s">
-        <v>361</v>
-      </c>
       <c r="N24" s="12" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="O24" s="13">
-        <v>630</v>
+        <v>332</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="Q24" s="13" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="R24" s="13" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" ht="39" thickBot="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="15.75" thickBot="1">
       <c r="B25" t="s">
-        <v>363</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
-        <v>369</v>
-      </c>
-      <c r="E25" t="s">
-        <v>355</v>
-      </c>
-      <c r="F25" t="s">
-        <v>551</v>
-      </c>
-      <c r="G25" t="s">
-        <v>356</v>
-      </c>
-      <c r="H25" t="s">
-        <v>358</v>
-      </c>
-      <c r="I25" t="s">
-        <v>359</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="K25" t="s">
-        <v>361</v>
-      </c>
       <c r="N25" s="12" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="O25" s="13">
-        <v>652</v>
+        <v>388</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="Q25" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="R25" s="13"/>
+        <v>468</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="26" spans="2:18" ht="26.25" thickBot="1">
       <c r="B26" t="s">
-        <v>364</v>
+        <v>16</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
-        <v>369</v>
-      </c>
-      <c r="E26" t="s">
-        <v>355</v>
-      </c>
-      <c r="F26" t="s">
-        <v>551</v>
-      </c>
-      <c r="G26" t="s">
-        <v>356</v>
-      </c>
-      <c r="H26" t="s">
-        <v>358</v>
-      </c>
-      <c r="I26" t="s">
-        <v>359</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="K26" t="s">
-        <v>361</v>
-      </c>
       <c r="N26" s="12" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="O26" s="13">
-        <v>659</v>
+        <v>474</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="Q26" s="13" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="R26" s="13" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="26.25" thickBot="1">
       <c r="B27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
-        <v>369</v>
-      </c>
-      <c r="E27" t="s">
-        <v>355</v>
-      </c>
-      <c r="F27" t="s">
-        <v>551</v>
-      </c>
-      <c r="G27" t="s">
-        <v>356</v>
-      </c>
-      <c r="H27" t="s">
-        <v>358</v>
-      </c>
-      <c r="I27" t="s">
-        <v>359</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="K27" t="s">
-        <v>361</v>
-      </c>
       <c r="N27" s="12" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="O27" s="13">
-        <v>662</v>
+        <v>500</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="R27" s="13" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" ht="26.25" thickBot="1">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="45.75" thickBot="1">
       <c r="B28" t="s">
-        <v>365</v>
+        <v>572</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>369</v>
+        <v>568</v>
       </c>
       <c r="E28" t="s">
         <v>355</v>
       </c>
-      <c r="F28" t="s">
-        <v>551</v>
+      <c r="F28" s="2" t="s">
+        <v>571</v>
       </c>
       <c r="G28" t="s">
         <v>356</v>
@@ -3065,43 +3140,27 @@
         <v>359</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="K28" t="s">
-        <v>361</v>
-      </c>
-      <c r="N28" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="O28" s="13">
-        <v>663</v>
-      </c>
-      <c r="P28" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q28" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="R28" s="13" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" ht="64.5" thickBot="1">
+        <v>584</v>
+      </c>
+      <c r="N28" s="12"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+    </row>
+    <row r="29" spans="2:18" ht="15.75" thickBot="1">
       <c r="B29" t="s">
-        <v>366</v>
+        <v>573</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>369</v>
+        <v>568</v>
       </c>
       <c r="E29" t="s">
         <v>355</v>
       </c>
-      <c r="F29" t="s">
-        <v>551</v>
-      </c>
       <c r="G29" t="s">
         <v>356</v>
       </c>
@@ -3112,42 +3171,29 @@
         <v>359</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="K29" t="s">
-        <v>361</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="O29" s="13">
-        <v>670</v>
-      </c>
-      <c r="P29" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q29" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="R29" s="13" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" ht="26.25" thickBot="1">
+        <v>584</v>
+      </c>
+      <c r="N29" s="12"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+    </row>
+    <row r="30" spans="2:18" ht="45.75" thickBot="1">
       <c r="B30" t="s">
-        <v>367</v>
+        <v>574</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>369</v>
+        <v>568</v>
       </c>
       <c r="E30" t="s">
         <v>355</v>
       </c>
-      <c r="F30" t="s">
-        <v>551</v>
+      <c r="F30" s="2" t="s">
+        <v>576</v>
       </c>
       <c r="G30" t="s">
         <v>356</v>
@@ -3159,41 +3205,27 @@
         <v>359</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="K30" t="s">
-        <v>361</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="O30" s="13">
-        <v>534</v>
-      </c>
-      <c r="P30" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q30" s="13" t="s">
-        <v>501</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="N30" s="12"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
     </row>
-    <row r="31" spans="2:18" ht="39" thickBot="1">
+    <row r="31" spans="2:18" ht="15.75" thickBot="1">
       <c r="B31" t="s">
-        <v>368</v>
+        <v>575</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>369</v>
+        <v>568</v>
       </c>
       <c r="E31" t="s">
         <v>355</v>
       </c>
-      <c r="F31" t="s">
-        <v>551</v>
-      </c>
       <c r="G31" t="s">
         <v>356</v>
       </c>
@@ -3204,30 +3236,17 @@
         <v>359</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="K31" t="s">
-        <v>361</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="O31" s="13">
-        <v>780</v>
-      </c>
-      <c r="P31" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q31" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="R31" s="13" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" ht="39" thickBot="1">
+        <v>584</v>
+      </c>
+      <c r="N31" s="12"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+    </row>
+    <row r="32" spans="2:18" ht="26.25" thickBot="1">
       <c r="B32" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3257,24 +3276,24 @@
         <v>361</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="O32" s="13">
-        <v>796</v>
+        <v>630</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>507</v>
+        <v>478</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>508</v>
+        <v>479</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" ht="51.75" thickBot="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" ht="39" thickBot="1">
       <c r="B33" t="s">
-        <v>26</v>
+        <v>363</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3304,187 +3323,427 @@
         <v>361</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>510</v>
+        <v>481</v>
       </c>
       <c r="O33" s="13">
-        <v>850</v>
+        <v>652</v>
       </c>
       <c r="P33" s="13" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="Q33" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="R33" s="13" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" ht="25.5">
-      <c r="N34" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="O34" s="11">
-        <v>13</v>
-      </c>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-    </row>
-    <row r="35" spans="2:18" ht="15.75" thickBot="1">
+        <v>483</v>
+      </c>
+      <c r="R33" s="13"/>
+    </row>
+    <row r="34" spans="2:18" ht="26.25" thickBot="1">
+      <c r="B34" t="s">
+        <v>364</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>369</v>
+      </c>
+      <c r="E34" t="s">
+        <v>355</v>
+      </c>
+      <c r="F34" t="s">
+        <v>551</v>
+      </c>
+      <c r="G34" t="s">
+        <v>356</v>
+      </c>
+      <c r="H34" t="s">
+        <v>358</v>
+      </c>
+      <c r="I34" t="s">
+        <v>359</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="K34" t="s">
+        <v>361</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="O34" s="13">
+        <v>659</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="R34" s="13" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" ht="26.25" thickBot="1">
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>369</v>
+      </c>
+      <c r="E35" t="s">
+        <v>355</v>
+      </c>
+      <c r="F35" t="s">
+        <v>551</v>
+      </c>
+      <c r="G35" t="s">
+        <v>356</v>
+      </c>
+      <c r="H35" t="s">
+        <v>358</v>
+      </c>
+      <c r="I35" t="s">
+        <v>359</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="K35" t="s">
+        <v>361</v>
+      </c>
       <c r="N35" s="12" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="O35" s="13">
-        <v>84</v>
+        <v>662</v>
       </c>
       <c r="P35" s="13" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="Q35" s="13" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
       <c r="R35" s="13" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
     </row>
     <row r="36" spans="2:18" ht="26.25" thickBot="1">
       <c r="B36" t="s">
-        <v>20</v>
+        <v>365</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>369</v>
+      </c>
+      <c r="E36" t="s">
+        <v>355</v>
+      </c>
+      <c r="F36" t="s">
+        <v>551</v>
+      </c>
+      <c r="G36" t="s">
+        <v>356</v>
+      </c>
+      <c r="H36" t="s">
+        <v>358</v>
+      </c>
+      <c r="I36" t="s">
+        <v>359</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="K36" t="s">
+        <v>361</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="O36" s="13">
-        <v>188</v>
+        <v>663</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" ht="26.25" thickBot="1">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" ht="64.5" thickBot="1">
       <c r="B37" t="s">
-        <v>21</v>
+        <v>366</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>369</v>
+      </c>
+      <c r="E37" t="s">
+        <v>355</v>
+      </c>
+      <c r="F37" t="s">
+        <v>551</v>
+      </c>
+      <c r="G37" t="s">
+        <v>356</v>
+      </c>
+      <c r="H37" t="s">
+        <v>358</v>
+      </c>
+      <c r="I37" t="s">
+        <v>359</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="K37" t="s">
+        <v>361</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="O37" s="13">
-        <v>222</v>
+        <v>670</v>
       </c>
       <c r="P37" s="13" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
       <c r="Q37" s="13" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="R37" s="13" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="2:18" ht="26.25" thickBot="1">
       <c r="B38" t="s">
-        <v>22</v>
+        <v>367</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>369</v>
+      </c>
+      <c r="E38" t="s">
+        <v>355</v>
+      </c>
+      <c r="F38" t="s">
+        <v>551</v>
+      </c>
+      <c r="G38" t="s">
+        <v>356</v>
+      </c>
+      <c r="H38" t="s">
+        <v>358</v>
+      </c>
+      <c r="I38" t="s">
+        <v>359</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="K38" t="s">
+        <v>361</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="O38" s="13">
-        <v>320</v>
+        <v>534</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="Q38" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="R38" s="13" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" ht="15.75" thickBot="1">
+        <v>501</v>
+      </c>
+      <c r="R38" s="13"/>
+    </row>
+    <row r="39" spans="2:18" ht="39" thickBot="1">
       <c r="B39" t="s">
-        <v>23</v>
+        <v>368</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>369</v>
+      </c>
+      <c r="E39" t="s">
+        <v>355</v>
+      </c>
+      <c r="F39" t="s">
+        <v>551</v>
+      </c>
+      <c r="G39" t="s">
+        <v>356</v>
+      </c>
+      <c r="H39" t="s">
+        <v>358</v>
+      </c>
+      <c r="I39" t="s">
+        <v>359</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="K39" t="s">
+        <v>361</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>529</v>
+        <v>502</v>
       </c>
       <c r="O39" s="13">
-        <v>340</v>
+        <v>780</v>
       </c>
       <c r="P39" s="13" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
       <c r="Q39" s="13" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="R39" s="13" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" ht="15.75" thickBot="1">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" ht="39" thickBot="1">
       <c r="B40" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="N40" s="12"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-    </row>
-    <row r="41" spans="2:18" ht="15.75" thickBot="1">
+      <c r="D40" t="s">
+        <v>369</v>
+      </c>
+      <c r="E40" t="s">
+        <v>355</v>
+      </c>
+      <c r="F40" t="s">
+        <v>551</v>
+      </c>
+      <c r="G40" t="s">
+        <v>356</v>
+      </c>
+      <c r="H40" t="s">
+        <v>358</v>
+      </c>
+      <c r="I40" t="s">
+        <v>359</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="K40" t="s">
+        <v>361</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="O40" s="13">
+        <v>796</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q40" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="R40" s="13" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" ht="51.75" thickBot="1">
       <c r="B41" t="s">
-        <v>363</v>
+        <v>26</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="N41" s="12"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-    </row>
-    <row r="42" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B42" t="s">
-        <v>364</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="N42" s="12"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
+      <c r="D41" t="s">
+        <v>369</v>
+      </c>
+      <c r="E41" t="s">
+        <v>355</v>
+      </c>
+      <c r="F41" t="s">
+        <v>551</v>
+      </c>
+      <c r="G41" t="s">
+        <v>356</v>
+      </c>
+      <c r="H41" t="s">
+        <v>358</v>
+      </c>
+      <c r="I41" t="s">
+        <v>359</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="K41" t="s">
+        <v>361</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="O41" s="13">
+        <v>850</v>
+      </c>
+      <c r="P41" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q41" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" ht="25.5">
+      <c r="N42" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="O42" s="11">
+        <v>13</v>
+      </c>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
     </row>
     <row r="43" spans="2:18" ht="15.75" thickBot="1">
       <c r="B43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="N43" s="12"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="O43" s="13">
+        <v>84</v>
+      </c>
+      <c r="P43" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q43" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="R43" s="13" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="44" spans="2:18" ht="15.75" thickBot="1">
       <c r="B44" t="s">
-        <v>365</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="N44" s="12"/>
       <c r="O44" s="13"/>
@@ -3494,739 +3753,1175 @@
     </row>
     <row r="45" spans="2:18" ht="15.75" thickBot="1">
       <c r="B45" t="s">
-        <v>366</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="N45" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="O45" s="13">
-        <v>484</v>
-      </c>
-      <c r="P45" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q45" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="R45" s="13" t="s">
-        <v>534</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N45" s="12"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
     </row>
     <row r="46" spans="2:18" ht="15.75" thickBot="1">
       <c r="B46" t="s">
-        <v>367</v>
-      </c>
-      <c r="C46">
+        <v>23</v>
+      </c>
+      <c r="N46" s="12"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+    </row>
+    <row r="47" spans="2:18" ht="105.75" thickBot="1">
+      <c r="B47" t="s">
+        <v>577</v>
+      </c>
+      <c r="D47" t="s">
+        <v>568</v>
+      </c>
+      <c r="E47" t="s">
+        <v>355</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="G47" t="s">
+        <v>356</v>
+      </c>
+      <c r="H47" t="s">
+        <v>358</v>
+      </c>
+      <c r="I47" t="s">
+        <v>359</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="O47" s="13">
+        <v>188</v>
+      </c>
+      <c r="P47" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q47" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="R47" s="13" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" ht="26.25" thickBot="1">
+      <c r="B48" t="s">
+        <v>578</v>
+      </c>
+      <c r="D48" t="s">
+        <v>568</v>
+      </c>
+      <c r="E48" t="s">
+        <v>355</v>
+      </c>
+      <c r="G48" t="s">
+        <v>356</v>
+      </c>
+      <c r="H48" t="s">
+        <v>358</v>
+      </c>
+      <c r="I48" t="s">
+        <v>359</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="O48" s="13">
+        <v>222</v>
+      </c>
+      <c r="P48" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q48" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="R48" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" ht="105.75" thickBot="1">
+      <c r="B49" t="s">
+        <v>579</v>
+      </c>
+      <c r="D49" t="s">
+        <v>568</v>
+      </c>
+      <c r="E49" t="s">
+        <v>355</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="G49" t="s">
+        <v>356</v>
+      </c>
+      <c r="H49" t="s">
+        <v>358</v>
+      </c>
+      <c r="I49" t="s">
+        <v>359</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="O49" s="13">
+        <v>320</v>
+      </c>
+      <c r="P49" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q49" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="R49" s="13" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B50" t="s">
+        <v>580</v>
+      </c>
+      <c r="D50" t="s">
+        <v>568</v>
+      </c>
+      <c r="E50" t="s">
+        <v>355</v>
+      </c>
+      <c r="G50" t="s">
+        <v>356</v>
+      </c>
+      <c r="H50" t="s">
+        <v>358</v>
+      </c>
+      <c r="I50" t="s">
+        <v>359</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="N50" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="O50" s="13">
+        <v>340</v>
+      </c>
+      <c r="P50" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q50" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="R50" s="13" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B51" t="s">
+        <v>553</v>
+      </c>
+      <c r="C51">
         <v>1</v>
       </c>
-      <c r="N46" s="12" t="s">
+      <c r="D51" t="s">
+        <v>562</v>
+      </c>
+      <c r="E51" t="s">
+        <v>355</v>
+      </c>
+      <c r="F51" t="s">
+        <v>535</v>
+      </c>
+      <c r="G51" t="s">
+        <v>356</v>
+      </c>
+      <c r="H51" t="s">
+        <v>358</v>
+      </c>
+      <c r="I51" t="s">
+        <v>359</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="K51" t="s">
+        <v>361</v>
+      </c>
+      <c r="N51" s="12"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+    </row>
+    <row r="52" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B52" t="s">
+        <v>554</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>562</v>
+      </c>
+      <c r="E52" t="s">
+        <v>355</v>
+      </c>
+      <c r="F52" t="s">
+        <v>535</v>
+      </c>
+      <c r="G52" t="s">
+        <v>356</v>
+      </c>
+      <c r="H52" t="s">
+        <v>358</v>
+      </c>
+      <c r="I52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="K52" t="s">
+        <v>361</v>
+      </c>
+      <c r="N52" s="12"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+    </row>
+    <row r="53" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B53" t="s">
+        <v>555</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>562</v>
+      </c>
+      <c r="E53" t="s">
+        <v>355</v>
+      </c>
+      <c r="F53" t="s">
+        <v>535</v>
+      </c>
+      <c r="G53" t="s">
+        <v>356</v>
+      </c>
+      <c r="H53" t="s">
+        <v>358</v>
+      </c>
+      <c r="I53" t="s">
+        <v>359</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="K53" t="s">
+        <v>361</v>
+      </c>
+      <c r="N53" s="12"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+    </row>
+    <row r="54" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B54" t="s">
+        <v>556</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>562</v>
+      </c>
+      <c r="E54" t="s">
+        <v>355</v>
+      </c>
+      <c r="F54" t="s">
+        <v>535</v>
+      </c>
+      <c r="G54" t="s">
+        <v>356</v>
+      </c>
+      <c r="H54" t="s">
+        <v>358</v>
+      </c>
+      <c r="I54" t="s">
+        <v>359</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="K54" t="s">
+        <v>361</v>
+      </c>
+      <c r="N54" s="12"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+    </row>
+    <row r="55" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B55" t="s">
+        <v>557</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>562</v>
+      </c>
+      <c r="E55" t="s">
+        <v>355</v>
+      </c>
+      <c r="F55" t="s">
+        <v>535</v>
+      </c>
+      <c r="G55" t="s">
+        <v>356</v>
+      </c>
+      <c r="H55" t="s">
+        <v>358</v>
+      </c>
+      <c r="I55" t="s">
+        <v>359</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="K55" t="s">
+        <v>361</v>
+      </c>
+      <c r="N55" s="12"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+    </row>
+    <row r="56" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B56" t="s">
+        <v>558</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>562</v>
+      </c>
+      <c r="E56" t="s">
+        <v>355</v>
+      </c>
+      <c r="F56" t="s">
+        <v>535</v>
+      </c>
+      <c r="G56" t="s">
+        <v>356</v>
+      </c>
+      <c r="H56" t="s">
+        <v>358</v>
+      </c>
+      <c r="I56" t="s">
+        <v>359</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="K56" t="s">
+        <v>361</v>
+      </c>
+      <c r="N56" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="O56" s="13">
+        <v>484</v>
+      </c>
+      <c r="P56" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q56" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="R56" s="13" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B57" t="s">
+        <v>559</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>562</v>
+      </c>
+      <c r="E57" t="s">
+        <v>355</v>
+      </c>
+      <c r="F57" t="s">
+        <v>535</v>
+      </c>
+      <c r="G57" t="s">
+        <v>356</v>
+      </c>
+      <c r="H57" t="s">
+        <v>358</v>
+      </c>
+      <c r="I57" t="s">
+        <v>359</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="K57" t="s">
+        <v>361</v>
+      </c>
+      <c r="N57" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="O46" s="13">
+      <c r="O57" s="13">
         <v>558</v>
       </c>
-      <c r="P46" s="13" t="s">
+      <c r="P57" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="Q46" s="13" t="s">
+      <c r="Q57" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="R46" s="13" t="s">
+      <c r="R57" s="13" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="47" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B47" t="s">
-        <v>368</v>
-      </c>
-      <c r="C47">
+    <row r="58" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B58" t="s">
+        <v>560</v>
+      </c>
+      <c r="C58">
         <v>1</v>
       </c>
-      <c r="N47" s="12" t="s">
+      <c r="D58" t="s">
+        <v>562</v>
+      </c>
+      <c r="E58" t="s">
+        <v>355</v>
+      </c>
+      <c r="F58" t="s">
+        <v>535</v>
+      </c>
+      <c r="G58" t="s">
+        <v>356</v>
+      </c>
+      <c r="H58" t="s">
+        <v>358</v>
+      </c>
+      <c r="I58" t="s">
+        <v>359</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="K58" t="s">
+        <v>361</v>
+      </c>
+      <c r="N58" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="O47" s="13">
+      <c r="O58" s="13">
         <v>591</v>
       </c>
-      <c r="P47" s="13" t="s">
+      <c r="P58" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="Q47" s="13" t="s">
+      <c r="Q58" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="R47" s="13" t="s">
+      <c r="R58" s="13" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="48" spans="2:18" ht="25.5">
-      <c r="B48" t="s">
+    <row r="59" spans="2:18" ht="25.5">
+      <c r="B59" t="s">
         <v>25</v>
       </c>
-      <c r="C48">
+      <c r="C59">
         <v>1</v>
       </c>
-      <c r="N48" s="10" t="s">
+      <c r="D59" t="s">
+        <v>562</v>
+      </c>
+      <c r="E59" t="s">
+        <v>355</v>
+      </c>
+      <c r="F59" t="s">
+        <v>535</v>
+      </c>
+      <c r="G59" t="s">
+        <v>356</v>
+      </c>
+      <c r="H59" t="s">
+        <v>358</v>
+      </c>
+      <c r="I59" t="s">
+        <v>359</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="K59" t="s">
+        <v>361</v>
+      </c>
+      <c r="N59" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="O48" s="11">
+      <c r="O59" s="11">
         <v>5</v>
       </c>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-    </row>
-    <row r="49" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49">
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+    </row>
+    <row r="60" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B60" t="s">
+        <v>561</v>
+      </c>
+      <c r="C60">
         <v>1</v>
       </c>
-      <c r="N49" s="12" t="s">
+      <c r="D60" t="s">
+        <v>562</v>
+      </c>
+      <c r="E60" t="s">
+        <v>355</v>
+      </c>
+      <c r="F60" t="s">
+        <v>535</v>
+      </c>
+      <c r="G60" t="s">
+        <v>356</v>
+      </c>
+      <c r="H60" t="s">
+        <v>358</v>
+      </c>
+      <c r="I60" t="s">
+        <v>359</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="K60" t="s">
+        <v>361</v>
+      </c>
+      <c r="N60" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="O49" s="13">
+      <c r="O60" s="13">
         <v>32</v>
       </c>
-      <c r="P49" s="13" t="s">
+      <c r="P60" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="Q49" s="13" t="s">
+      <c r="Q60" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="R49" s="13" t="s">
+      <c r="R60" s="13" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="51.75" thickBot="1">
-      <c r="N50" s="12" t="s">
+    <row r="61" spans="2:18" ht="51.75" thickBot="1">
+      <c r="N61" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="O50" s="13">
+      <c r="O61" s="13">
         <v>68</v>
       </c>
-      <c r="P50" s="13" t="s">
+      <c r="P61" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="Q50" s="13" t="s">
+      <c r="Q61" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="R50" s="13" t="s">
+      <c r="R61" s="13" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B51" t="s">
+    <row r="62" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B62" t="s">
         <v>340</v>
       </c>
-      <c r="N51" s="12" t="s">
+      <c r="N62" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="O51" s="13">
+      <c r="O62" s="13">
         <v>76</v>
       </c>
-      <c r="P51" s="13" t="s">
+      <c r="P62" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="Q51" s="13" t="s">
+      <c r="Q62" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="R51" s="13" t="s">
+      <c r="R62" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B52" t="s">
+    <row r="63" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B63" t="s">
         <v>341</v>
       </c>
-      <c r="N52" s="12" t="s">
+      <c r="N63" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="O52" s="13">
+      <c r="O63" s="13">
         <v>152</v>
       </c>
-      <c r="P52" s="13" t="s">
+      <c r="P63" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="Q52" s="13" t="s">
+      <c r="Q63" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="R52" s="13" t="s">
+      <c r="R63" s="13" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B53" t="s">
+    <row r="64" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B64" t="s">
         <v>342</v>
       </c>
-      <c r="N53" s="12" t="s">
+      <c r="N64" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="O53" s="13">
+      <c r="O64" s="13">
         <v>170</v>
       </c>
-      <c r="P53" s="13" t="s">
+      <c r="P64" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="Q53" s="13" t="s">
+      <c r="Q64" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="R53" s="13" t="s">
+      <c r="R64" s="13" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B54" t="s">
+    <row r="65" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B65" t="s">
         <v>343</v>
       </c>
-      <c r="N54" s="12" t="s">
+      <c r="N65" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="O54" s="13">
+      <c r="O65" s="13">
         <v>218</v>
       </c>
-      <c r="P54" s="13" t="s">
+      <c r="P65" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="Q54" s="13" t="s">
+      <c r="Q65" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="R54" s="13" t="s">
+      <c r="R65" s="13" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="51.75" thickBot="1">
-      <c r="B55" t="s">
+    <row r="66" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B66" t="s">
+        <v>564</v>
+      </c>
+      <c r="N66" s="12"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+    </row>
+    <row r="67" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B67" t="s">
+        <v>566</v>
+      </c>
+      <c r="N67" s="12"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+    </row>
+    <row r="68" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B68" t="s">
+        <v>565</v>
+      </c>
+      <c r="N68" s="12"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+    </row>
+    <row r="69" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B69" t="s">
+        <v>567</v>
+      </c>
+      <c r="N69" s="12"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+    </row>
+    <row r="70" spans="1:18" ht="51.75" thickBot="1">
+      <c r="B70" t="s">
         <v>344</v>
       </c>
-      <c r="N55" s="12" t="s">
+      <c r="N70" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="O55" s="13">
+      <c r="O70" s="13">
         <v>238</v>
       </c>
-      <c r="P55" s="13" t="s">
+      <c r="P70" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="Q55" s="13" t="s">
+      <c r="Q70" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="R55" s="13" t="s">
+      <c r="R70" s="13" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="26.25" thickBot="1">
-      <c r="B56" t="s">
+    <row r="71" spans="1:18" ht="26.25" thickBot="1">
+      <c r="B71" t="s">
         <v>24</v>
       </c>
-      <c r="N56" s="12" t="s">
+      <c r="N71" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="O56" s="13">
+      <c r="O71" s="13">
         <v>254</v>
       </c>
-      <c r="P56" s="13" t="s">
+      <c r="P71" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="Q56" s="13" t="s">
+      <c r="Q71" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="R56" s="13" t="s">
+      <c r="R71" s="13" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B57" t="s">
+    <row r="72" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B72" t="s">
         <v>345</v>
       </c>
-      <c r="N57" s="12" t="s">
+      <c r="N72" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="O57" s="13">
+      <c r="O72" s="13">
         <v>328</v>
       </c>
-      <c r="P57" s="13" t="s">
+      <c r="P72" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="Q57" s="13" t="s">
+      <c r="Q72" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="R57" s="13" t="s">
+      <c r="R72" s="13" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B58" t="s">
+    <row r="73" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B73" t="s">
         <v>346</v>
       </c>
-      <c r="N58" s="12" t="s">
+      <c r="N73" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="O58" s="13">
+      <c r="O73" s="13">
         <v>600</v>
       </c>
-      <c r="P58" s="13" t="s">
+      <c r="P73" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="Q58" s="13" t="s">
+      <c r="Q73" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="R58" s="13" t="s">
+      <c r="R73" s="13" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B59" t="s">
+    <row r="74" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B74" t="s">
         <v>347</v>
       </c>
-      <c r="N59" s="12" t="s">
+      <c r="N74" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="O59" s="13">
+      <c r="O74" s="13">
         <v>604</v>
       </c>
-      <c r="P59" s="13" t="s">
+      <c r="P74" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="Q59" s="13" t="s">
+      <c r="Q74" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="R59" s="13" t="s">
+      <c r="R74" s="13" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="15.75" thickBot="1">
-      <c r="N60" s="12" t="s">
+    <row r="75" spans="1:18" ht="15.75" thickBot="1">
+      <c r="N75" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="O60" s="13">
+      <c r="O75" s="13">
         <v>740</v>
       </c>
-      <c r="P60" s="13" t="s">
+      <c r="P75" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="Q60" s="13" t="s">
+      <c r="Q75" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="R60" s="13" t="s">
+      <c r="R75" s="13" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A61" t="s">
+    <row r="76" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A76" t="s">
         <v>31</v>
       </c>
-      <c r="N61" s="12" t="s">
+      <c r="N76" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="O61" s="13">
+      <c r="O76" s="13">
         <v>858</v>
       </c>
-      <c r="P61" s="13" t="s">
+      <c r="P76" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="Q61" s="13" t="s">
+      <c r="Q76" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="R61" s="13" t="s">
+      <c r="R76" s="13" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="64.5" thickBot="1">
-      <c r="B62" t="s">
+    <row r="77" spans="1:18" ht="64.5" thickBot="1">
+      <c r="B77" t="s">
         <v>34</v>
       </c>
-      <c r="N62" s="12" t="s">
+      <c r="N77" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="O62" s="13">
+      <c r="O77" s="13">
         <v>862</v>
       </c>
-      <c r="P62" s="13" t="s">
+      <c r="P77" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="Q62" s="13" t="s">
+      <c r="Q77" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="R62" s="13" t="s">
+      <c r="R77" s="13" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
-      <c r="B63" t="s">
+    <row r="78" spans="1:18">
+      <c r="B78" t="s">
         <v>35</v>
       </c>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="1:18">
-      <c r="B64" t="s">
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="B79" t="s">
         <v>32</v>
       </c>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="B65" t="s">
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="B80" t="s">
         <v>33</v>
-      </c>
-      <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="B66" t="s">
-        <v>36</v>
-      </c>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="B67" t="s">
-        <v>37</v>
-      </c>
-      <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="B68" t="s">
-        <v>38</v>
-      </c>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="B69" t="s">
-        <v>58</v>
-      </c>
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="B70" t="s">
-        <v>59</v>
-      </c>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="B71" t="s">
-        <v>39</v>
-      </c>
-      <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="B72" t="s">
-        <v>40</v>
-      </c>
-      <c r="N72" s="1"/>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="B73" t="s">
-        <v>41</v>
-      </c>
-      <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="B74" t="s">
-        <v>42</v>
-      </c>
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="N75" s="1"/>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" t="s">
-        <v>43</v>
-      </c>
-      <c r="N76" s="1"/>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="B77" t="s">
-        <v>44</v>
-      </c>
-      <c r="N77" s="1"/>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="B78" t="s">
-        <v>45</v>
-      </c>
-      <c r="N78" s="1"/>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="B79" t="s">
-        <v>46</v>
-      </c>
-      <c r="N79" s="1"/>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="B80" t="s">
-        <v>47</v>
       </c>
       <c r="N80" s="1"/>
     </row>
     <row r="81" spans="1:14">
       <c r="B81" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N81" s="1"/>
     </row>
     <row r="82" spans="1:14">
       <c r="B82" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N82" s="1"/>
     </row>
     <row r="83" spans="1:14">
       <c r="B83" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N83" s="1"/>
     </row>
     <row r="84" spans="1:14">
       <c r="B84" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N84" s="1"/>
     </row>
     <row r="85" spans="1:14">
       <c r="B85" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="N85" s="1"/>
     </row>
     <row r="86" spans="1:14">
       <c r="B86" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="N86" s="1"/>
     </row>
     <row r="87" spans="1:14">
       <c r="B87" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="N87" s="1"/>
     </row>
     <row r="88" spans="1:14">
       <c r="B88" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="N88" s="1"/>
     </row>
     <row r="89" spans="1:14">
       <c r="B89" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="N89" s="1"/>
     </row>
     <row r="90" spans="1:14">
-      <c r="B90" t="s">
-        <v>65</v>
-      </c>
       <c r="N90" s="1"/>
     </row>
     <row r="91" spans="1:14">
-      <c r="B91" t="s">
-        <v>66</v>
+      <c r="A91" t="s">
+        <v>43</v>
       </c>
       <c r="N91" s="1"/>
     </row>
     <row r="92" spans="1:14">
       <c r="B92" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="N92" s="1"/>
     </row>
     <row r="93" spans="1:14">
+      <c r="B93" t="s">
+        <v>45</v>
+      </c>
       <c r="N93" s="1"/>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" t="s">
-        <v>56</v>
+      <c r="B94" t="s">
+        <v>46</v>
       </c>
       <c r="N94" s="1"/>
     </row>
     <row r="95" spans="1:14">
       <c r="B95" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="N95" s="1"/>
     </row>
     <row r="96" spans="1:14">
       <c r="B96" t="s">
+        <v>48</v>
+      </c>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="B97" t="s">
+        <v>49</v>
+      </c>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="B98" t="s">
+        <v>50</v>
+      </c>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="B99" t="s">
+        <v>51</v>
+      </c>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="B100" t="s">
+        <v>52</v>
+      </c>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="B101" t="s">
+        <v>53</v>
+      </c>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="B102" t="s">
+        <v>54</v>
+      </c>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="B103" t="s">
+        <v>55</v>
+      </c>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="B104" t="s">
+        <v>64</v>
+      </c>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="B105" t="s">
+        <v>65</v>
+      </c>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="B106" t="s">
+        <v>66</v>
+      </c>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="B107" t="s">
+        <v>67</v>
+      </c>
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" t="s">
+        <v>56</v>
+      </c>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="B110" t="s">
+        <v>62</v>
+      </c>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="B111" t="s">
         <v>57</v>
       </c>
-      <c r="N96" s="1"/>
-    </row>
-    <row r="97" spans="2:14">
-      <c r="B97" t="s">
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="B112" t="s">
         <v>60</v>
       </c>
-      <c r="N97" s="1"/>
-    </row>
-    <row r="98" spans="2:14">
-      <c r="B98" t="s">
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="B113" t="s">
         <v>61</v>
-      </c>
-      <c r="N98" s="1"/>
-    </row>
-    <row r="99" spans="2:14">
-      <c r="B99" t="s">
-        <v>63</v>
-      </c>
-      <c r="N99" s="1"/>
-    </row>
-    <row r="100" spans="2:14">
-      <c r="B100" t="s">
-        <v>68</v>
-      </c>
-      <c r="N100" s="1"/>
-    </row>
-    <row r="101" spans="2:14">
-      <c r="B101" t="s">
-        <v>69</v>
-      </c>
-      <c r="N101" s="1"/>
-    </row>
-    <row r="102" spans="2:14">
-      <c r="B102" t="s">
-        <v>70</v>
-      </c>
-      <c r="N102" s="1"/>
-    </row>
-    <row r="103" spans="2:14">
-      <c r="B103" t="s">
-        <v>71</v>
-      </c>
-      <c r="N103" s="1"/>
-    </row>
-    <row r="104" spans="2:14">
-      <c r="B104" t="s">
-        <v>72</v>
-      </c>
-      <c r="N104" s="1"/>
-    </row>
-    <row r="105" spans="2:14">
-      <c r="B105" t="s">
-        <v>73</v>
-      </c>
-      <c r="N105" s="1"/>
-    </row>
-    <row r="106" spans="2:14">
-      <c r="B106" t="s">
-        <v>74</v>
-      </c>
-      <c r="N106" s="1"/>
-    </row>
-    <row r="107" spans="2:14">
-      <c r="B107" t="s">
-        <v>75</v>
-      </c>
-      <c r="N107" s="1"/>
-    </row>
-    <row r="108" spans="2:14">
-      <c r="B108" t="s">
-        <v>76</v>
-      </c>
-      <c r="N108" s="1"/>
-    </row>
-    <row r="109" spans="2:14">
-      <c r="B109" t="s">
-        <v>77</v>
-      </c>
-      <c r="N109" s="1"/>
-    </row>
-    <row r="110" spans="2:14">
-      <c r="B110" t="s">
-        <v>78</v>
-      </c>
-      <c r="N110" s="1"/>
-    </row>
-    <row r="111" spans="2:14">
-      <c r="B111" t="s">
-        <v>79</v>
-      </c>
-      <c r="N111" s="1"/>
-    </row>
-    <row r="112" spans="2:14">
-      <c r="N112" s="1"/>
-    </row>
-    <row r="113" spans="1:14">
-      <c r="A113" t="s">
-        <v>80</v>
       </c>
       <c r="N113" s="1"/>
     </row>
     <row r="114" spans="1:14">
       <c r="B114" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="N114" s="1"/>
     </row>
     <row r="115" spans="1:14">
       <c r="B115" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="N115" s="1"/>
     </row>
     <row r="116" spans="1:14">
       <c r="B116" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="N116" s="1"/>
     </row>
     <row r="117" spans="1:14">
       <c r="B117" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="N117" s="1"/>
     </row>
     <row r="118" spans="1:14">
       <c r="B118" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="N118" s="1"/>
     </row>
     <row r="119" spans="1:14">
       <c r="B119" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="N119" s="1"/>
     </row>
     <row r="120" spans="1:14">
       <c r="B120" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="N120" s="1"/>
     </row>
     <row r="121" spans="1:14">
       <c r="B121" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="N121" s="1"/>
     </row>
     <row r="122" spans="1:14">
       <c r="B122" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="N122" s="1"/>
     </row>
     <row r="123" spans="1:14">
       <c r="B123" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="N123" s="1"/>
     </row>
     <row r="124" spans="1:14">
       <c r="B124" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="N124" s="1"/>
     </row>
     <row r="125" spans="1:14">
       <c r="B125" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N125" s="1"/>
     </row>
     <row r="126" spans="1:14">
       <c r="B126" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="N126" s="1"/>
     </row>
@@ -4234,54 +4929,96 @@
       <c r="N127" s="1"/>
     </row>
     <row r="128" spans="1:14">
+      <c r="A128" t="s">
+        <v>80</v>
+      </c>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="14:14">
+    <row r="129" spans="2:14">
+      <c r="B129" t="s">
+        <v>53</v>
+      </c>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="14:14">
+    <row r="130" spans="2:14">
+      <c r="B130" t="s">
+        <v>81</v>
+      </c>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="14:14">
+    <row r="131" spans="2:14">
+      <c r="B131" t="s">
+        <v>82</v>
+      </c>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="14:14">
+    <row r="132" spans="2:14">
+      <c r="B132" t="s">
+        <v>83</v>
+      </c>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="14:14">
+    <row r="133" spans="2:14">
+      <c r="B133" t="s">
+        <v>84</v>
+      </c>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="14:14">
+    <row r="134" spans="2:14">
+      <c r="B134" t="s">
+        <v>85</v>
+      </c>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="14:14">
+    <row r="135" spans="2:14">
+      <c r="B135" t="s">
+        <v>86</v>
+      </c>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="14:14">
+    <row r="136" spans="2:14">
+      <c r="B136" t="s">
+        <v>87</v>
+      </c>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="14:14">
+    <row r="137" spans="2:14">
+      <c r="B137" t="s">
+        <v>88</v>
+      </c>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="14:14">
+    <row r="138" spans="2:14">
+      <c r="B138" t="s">
+        <v>89</v>
+      </c>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="14:14">
+    <row r="139" spans="2:14">
+      <c r="B139" t="s">
+        <v>90</v>
+      </c>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="14:14">
+    <row r="140" spans="2:14">
+      <c r="B140" t="s">
+        <v>91</v>
+      </c>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="14:14">
+    <row r="141" spans="2:14">
+      <c r="B141" t="s">
+        <v>92</v>
+      </c>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="14:14">
+    <row r="142" spans="2:14">
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="14:14">
+    <row r="143" spans="2:14">
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="14:14">
+    <row r="144" spans="2:14">
       <c r="N144" s="1"/>
     </row>
     <row r="145" spans="14:14">
@@ -4665,24 +5402,87 @@
     <row r="271" spans="14:14">
       <c r="N271" s="1"/>
     </row>
+    <row r="272" spans="14:14">
+      <c r="N272" s="1"/>
+    </row>
+    <row r="273" spans="14:14">
+      <c r="N273" s="1"/>
+    </row>
+    <row r="274" spans="14:14">
+      <c r="N274" s="1"/>
+    </row>
+    <row r="275" spans="14:14">
+      <c r="N275" s="1"/>
+    </row>
+    <row r="276" spans="14:14">
+      <c r="N276" s="1"/>
+    </row>
+    <row r="277" spans="14:14">
+      <c r="N277" s="1"/>
+    </row>
+    <row r="278" spans="14:14">
+      <c r="N278" s="1"/>
+    </row>
+    <row r="279" spans="14:14">
+      <c r="N279" s="1"/>
+    </row>
+    <row r="280" spans="14:14">
+      <c r="N280" s="1"/>
+    </row>
+    <row r="281" spans="14:14">
+      <c r="N281" s="1"/>
+    </row>
+    <row r="282" spans="14:14">
+      <c r="N282" s="1"/>
+    </row>
+    <row r="283" spans="14:14">
+      <c r="N283" s="1"/>
+    </row>
+    <row r="284" spans="14:14">
+      <c r="N284" s="1"/>
+    </row>
+    <row r="285" spans="14:14">
+      <c r="N285" s="1"/>
+    </row>
+    <row r="286" spans="14:14">
+      <c r="N286" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J9" r:id="rId1"/>
-    <hyperlink ref="J10:J17" r:id="rId2" display="operaciones_gobierno_central_all_years_all_countries_cepalstat.xlsx"/>
-    <hyperlink ref="J18" r:id="rId3"/>
-    <hyperlink ref="J24" r:id="rId4"/>
-    <hyperlink ref="J25" r:id="rId5"/>
-    <hyperlink ref="J26" r:id="rId6"/>
-    <hyperlink ref="J27" r:id="rId7"/>
-    <hyperlink ref="J28" r:id="rId8"/>
-    <hyperlink ref="J29" r:id="rId9"/>
-    <hyperlink ref="J30" r:id="rId10"/>
-    <hyperlink ref="J31" r:id="rId11"/>
-    <hyperlink ref="J32" r:id="rId12"/>
-    <hyperlink ref="J33" r:id="rId13"/>
+    <hyperlink ref="J13" r:id="rId1"/>
+    <hyperlink ref="J14:J21" r:id="rId2" display="operaciones_gobierno_central_all_years_all_countries_cepalstat.xlsx"/>
+    <hyperlink ref="J22" r:id="rId3"/>
+    <hyperlink ref="J32" r:id="rId4"/>
+    <hyperlink ref="J33" r:id="rId5"/>
+    <hyperlink ref="J34" r:id="rId6"/>
+    <hyperlink ref="J35" r:id="rId7"/>
+    <hyperlink ref="J36" r:id="rId8"/>
+    <hyperlink ref="J37" r:id="rId9"/>
+    <hyperlink ref="J38" r:id="rId10"/>
+    <hyperlink ref="J39" r:id="rId11"/>
+    <hyperlink ref="J40" r:id="rId12"/>
+    <hyperlink ref="J41" r:id="rId13"/>
+    <hyperlink ref="J51" r:id="rId14"/>
+    <hyperlink ref="J52" r:id="rId15"/>
+    <hyperlink ref="J53" r:id="rId16"/>
+    <hyperlink ref="J54" r:id="rId17"/>
+    <hyperlink ref="J55" r:id="rId18"/>
+    <hyperlink ref="J56" r:id="rId19"/>
+    <hyperlink ref="J57" r:id="rId20"/>
+    <hyperlink ref="J58" r:id="rId21"/>
+    <hyperlink ref="J59" r:id="rId22"/>
+    <hyperlink ref="J60" r:id="rId23"/>
+    <hyperlink ref="J47" r:id="rId24"/>
+    <hyperlink ref="J48:J50" r:id="rId25" display="financiamiento_spnf_central_all_years_all_alc_cepalstat.xlsx"/>
+    <hyperlink ref="J28" r:id="rId26"/>
+    <hyperlink ref="J29" r:id="rId27"/>
+    <hyperlink ref="J30" r:id="rId28"/>
+    <hyperlink ref="J31" r:id="rId29"/>
+    <hyperlink ref="J9" r:id="rId30"/>
+    <hyperlink ref="J10:J12" r:id="rId31" display="financiamiento_gobierno_central_all_years_all_alc_cepalstat.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
 

--- a/data/data_availability.xlsx
+++ b/data/data_availability.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="437">
   <si>
     <t>Fiscal</t>
   </si>
@@ -198,12 +198,6 @@
     <t>tipo de cambio real efectivo (multilateral)</t>
   </si>
   <si>
-    <t>credito privado dividido por PIB</t>
-  </si>
-  <si>
-    <t>activos bancarios dividido por PIB</t>
-  </si>
-  <si>
     <t>Concentracion bancaria</t>
   </si>
   <si>
@@ -232,9 +226,6 @@
   </si>
   <si>
     <t>activos externos de corto plazo</t>
-  </si>
-  <si>
-    <t>non performing loans</t>
   </si>
   <si>
     <t>NPL hipotecarios</t>
@@ -1129,549 +1120,6 @@
     <t>1990-2015 y 1998-2015</t>
   </si>
   <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>ARG</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t>BOL</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>BR</t>
-  </si>
-  <si>
-    <t>BRA</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>CHL</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>COL</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
-    <t>FK</t>
-  </si>
-  <si>
-    <t>FLK</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>GF</t>
-  </si>
-  <si>
-    <t>GUF</t>
-  </si>
-  <si>
-    <t>GY</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>GUY</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>PY</t>
-  </si>
-  <si>
-    <t>PRY</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>PER</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
-    <t>SUR</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>UY</t>
-  </si>
-  <si>
-    <t>URY</t>
-  </si>
-  <si>
-    <t>VE</t>
-  </si>
-  <si>
-    <t>VEN</t>
-  </si>
-  <si>
-    <t>Americas</t>
-  </si>
-  <si>
-    <t>Latin America and the Caribbean</t>
-  </si>
-  <si>
-    <t>Caribbean</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>AIA</t>
-  </si>
-  <si>
-    <t>AV</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>ATG</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>AW</t>
-  </si>
-  <si>
-    <t>ABW</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>BS</t>
-  </si>
-  <si>
-    <t>BHS</t>
-  </si>
-  <si>
-    <t>BF</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>BRB</t>
-  </si>
-  <si>
-    <t>Bonaire, Saint Eustatius and Saba</t>
-  </si>
-  <si>
-    <t>BQ</t>
-  </si>
-  <si>
-    <t>BES</t>
-  </si>
-  <si>
-    <t>British Virgin Islands</t>
-  </si>
-  <si>
-    <t>VG</t>
-  </si>
-  <si>
-    <t>VGB</t>
-  </si>
-  <si>
-    <t>VI</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>CYM</t>
-  </si>
-  <si>
-    <t>CJ</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>CU</t>
-  </si>
-  <si>
-    <t>CUB</t>
-  </si>
-  <si>
-    <t>Curaçao</t>
-  </si>
-  <si>
-    <t>CW</t>
-  </si>
-  <si>
-    <t>CUW</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>DM</t>
-  </si>
-  <si>
-    <t>DMA</t>
-  </si>
-  <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>DOM</t>
-  </si>
-  <si>
-    <t>DR</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>GD</t>
-  </si>
-  <si>
-    <t>GRD</t>
-  </si>
-  <si>
-    <t>GJ</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>GP</t>
-  </si>
-  <si>
-    <t>GLP</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>HT</t>
-  </si>
-  <si>
-    <t>HTI</t>
-  </si>
-  <si>
-    <t>HA</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>JM</t>
-  </si>
-  <si>
-    <t>JAM</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>MQ</t>
-  </si>
-  <si>
-    <t>MTQ</t>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>MSR</t>
-  </si>
-  <si>
-    <t>MH</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>PRI</t>
-  </si>
-  <si>
-    <t>RQ</t>
-  </si>
-  <si>
-    <t>Saint-Barthélemy</t>
-  </si>
-  <si>
-    <t>BL</t>
-  </si>
-  <si>
-    <t>BLM</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>KN</t>
-  </si>
-  <si>
-    <t>KNA</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>LC</t>
-  </si>
-  <si>
-    <t>LCA</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>MAF</t>
-  </si>
-  <si>
-    <t>RN</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>VC</t>
-  </si>
-  <si>
-    <t>VCT</t>
-  </si>
-  <si>
-    <t>Sint Maarten</t>
-  </si>
-  <si>
-    <t>SX</t>
-  </si>
-  <si>
-    <t>SXM</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>TTO</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>TCA</t>
-  </si>
-  <si>
-    <t>TK</t>
-  </si>
-  <si>
-    <t>United States Virgin Islands</t>
-  </si>
-  <si>
-    <t>VIR</t>
-  </si>
-  <si>
-    <t>VQ</t>
-  </si>
-  <si>
-    <t>Central America</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>BZ</t>
-  </si>
-  <si>
-    <t>BLZ</t>
-  </si>
-  <si>
-    <t>BH</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>CRI</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>SV</t>
-  </si>
-  <si>
-    <t>SLV</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>GTM</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>HN</t>
-  </si>
-  <si>
-    <t>HND</t>
-  </si>
-  <si>
-    <t>HO</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>MX</t>
-  </si>
-  <si>
-    <t>MEX</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>NI</t>
-  </si>
-  <si>
-    <t>NIC</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>PAN</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>South America</t>
-  </si>
-  <si>
-    <t>Bolivia (Plurinational State of)</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>Falkland Islands (Malvinas)</t>
-  </si>
-  <si>
-    <t>FG</t>
-  </si>
-  <si>
-    <t>NS</t>
-  </si>
-  <si>
-    <t>Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
     <t>BOL (1990-2015), BRA (1998-2012), CHL (1990-2015), CRI (1990-2012), PER (1990-2015)</t>
   </si>
   <si>
@@ -1706,9 +1154,6 @@
   </si>
   <si>
     <t>1990-2015</t>
-  </si>
-  <si>
-    <t>operaciones_spnf_central_all_years_alc_cepalstat.xlsx</t>
   </si>
   <si>
     <t>financiamiento total</t>
@@ -1793,12 +1238,161 @@
   <si>
     <t>financiamiento_gobierno_central_all_years_all_alc_cepalstat.xlsx</t>
   </si>
+  <si>
+    <t>1990-2013: all but MEX and URY
+1990-2015: MEX, URY</t>
+  </si>
+  <si>
+    <t>DDE</t>
+  </si>
+  <si>
+    <t>mhanni</t>
+  </si>
+  <si>
+    <t>operaciones_spnf_1990_2015_DDE.xlsx</t>
+  </si>
+  <si>
+    <t>1990-2016</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>1990-2016: BRB, LZ, MEX
+1996-2016: CHL, COL, PRY
+2000-2016: BRA, HTI, JAM
+2001-2016: ATG, DMA, SLV, GRD, GUY, PER, KNA, LCA, VCT 
+2003-2016: ARG, BOL, TTO 
+2004-2016: DOM 
+2005-2016: GTM 
+2006-2016: CRI, HND VEN 
+2007-2016: NIC, 
+2008-2013:URY</t>
+  </si>
+  <si>
+    <t>acontreras</t>
+  </si>
+  <si>
+    <t>non performing loans (cartera vencida)</t>
+  </si>
+  <si>
+    <t>1993-2016</t>
+  </si>
+  <si>
+    <t>M (default), Q and A</t>
+  </si>
+  <si>
+    <t>1993-2016: PER
+1996-2016: COL, CRI
+1997-2016: BOL
+1998-2016: JAM (Q)
+1999-2016: CHL, URY, HND
+2000-2016: ECU (Q), PRY (Q), VEN (Q), BRA
+2001:2016: MEX, SLV (Q), DOM, HTI (Q), PAN (Q)
+2002: ARG (A)
+2005: BRB (A), GUY (Q), VEN (M), TTO (A)
+2007: BLZ  (A)
+2008: SUR (A)
+2010: ARG (M)</t>
+  </si>
+  <si>
+    <t>M and Q</t>
+  </si>
+  <si>
+    <t>2004-2016 M: ARG, BRB,  BLZ, BRA, CHL, COL, CRI, ECU, SLV, HND, MEX, NIC, PAN, PER, VEN
+2004-2016 Q: ATG, BOL, DMA, GRD, PRY, KNA, VCT, LCA, TTO
+2006:  SUR (M), URY (M), DOM (Q), JAM (Q) 
+2007: GTM (M)</t>
+  </si>
+  <si>
+    <t>credito interno</t>
+  </si>
+  <si>
+    <t>prestamos bancarios por sectores</t>
+  </si>
+  <si>
+    <t>desde 2006 all countries but cuba, Monthly</t>
+  </si>
+  <si>
+    <t>xslx</t>
+  </si>
+  <si>
+    <t>Datos_monetarios_de_Alejandra.xlsx</t>
+  </si>
+  <si>
+    <t>2004-2016</t>
+  </si>
+  <si>
+    <t>2004: BRA, CHL, COL, PER
+2008: MEX</t>
+  </si>
+  <si>
+    <t>deuda externa gobierno central (por residencia)</t>
+  </si>
+  <si>
+    <t>deuda interna gobierno central (por residencia)</t>
+  </si>
+  <si>
+    <t>1998-2016: ARG, BOL, BRA, CHL, COL, CRI, ECU, SLV, GTM, HTI, MEX, PAN, PRY, DOM, URY, VEN
+2002: HND, NIC, PER</t>
+  </si>
+  <si>
+    <t>DeudaPublica-dump-170117.xlsx</t>
+  </si>
+  <si>
+    <t>deuda interna sector publico no financiero (por residencia)</t>
+  </si>
+  <si>
+    <t>deuda externa sector publico no financiero (por residencia)</t>
+  </si>
+  <si>
+    <t>1998-2016: ARG, BOL, BRA, CHL, COL, CRI, ECU,  GTM, HTI, MEX, PAN,  PRY, PER, DOM, URY, VEN
+199: SLV
+2002: HND, NIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deuda total sector publico </t>
+  </si>
+  <si>
+    <t>deuda interna sector publico</t>
+  </si>
+  <si>
+    <t>deuda externa sector publico</t>
+  </si>
+  <si>
+    <t>1998-2016: ARG, BOL, BRA, COL, CRI, ECU,  GTM, HTI, MEX, PAN,  PRY, PER, DOM, URY, VEN
+199: SLV
+2002: HND, NIC</t>
+  </si>
+  <si>
+    <t>1998-2016: ARG, BOL, BRA,  COL, CRI, ECU,  GTM, HTI, MEX, PAN,  PRY, PER, DOM, URY, VEN
+199: SLV
+2002: HND, NIC</t>
+  </si>
+  <si>
+    <t>1998-2016: ARG, BOL, BRA, COL, , ECU,  GTM, HTI, MEX, PAN,  PRY, PER, DOM, VEN
+1999: SLV, URY
+2000: CRI, PER
+2002: HND, NIC</t>
+  </si>
+  <si>
+    <t>1998-2016: ARG, BOL, BRA, CHL, COL, ECU,  GTM, HTI, MEX, PAN,  PRY, PER, DOM,  VEN
+1999: SLV, URY
+2000: CRI, PER
+2002: HND, NIC</t>
+  </si>
+  <si>
+    <t>1998-2016: ARG, BOL, BRA,  COL,  ECU,  GTM, HTI, MEX, PAN,  PRY, PER, DOM, VEN
+1999: SLV, URY
+2000: CRI, PER
+2002: HND, NIC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1839,6 +1433,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1872,7 +1473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1904,6 +1505,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1912,7 +1539,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1949,6 +1576,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2244,10 +1880,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R286"/>
+  <dimension ref="A1:R294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2256,7 +1893,8 @@
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.5703125" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
@@ -2297,145 +1935,148 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K3" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="O3" s="7">
-        <v>19</v>
-      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:18" ht="51">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="O4" s="9">
-        <v>419</v>
-      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" ht="45">
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="O5" s="11">
-        <v>29</v>
-      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I5" t="s">
+        <v>356</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1">
+    <row r="6" spans="1:18" ht="45">
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="O6" s="13">
-        <v>660</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="39" thickBot="1">
+        <v>423</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>405</v>
+      </c>
+      <c r="E6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G6" t="s">
+        <v>353</v>
+      </c>
+      <c r="H6" t="s">
+        <v>403</v>
+      </c>
+      <c r="I6" t="s">
+        <v>356</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:18" ht="45">
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="O7" s="13">
-        <v>28</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="R7" s="13" t="s">
-        <v>419</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I7" t="s">
+        <v>356</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="O8" s="13">
-        <v>533</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="75.75" thickBot="1">
+        <v>9</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1">
       <c r="B9" t="s">
-        <v>564</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>568</v>
-      </c>
-      <c r="E9" t="s">
-        <v>355</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="G9" t="s">
-        <v>356</v>
-      </c>
-      <c r="H9" t="s">
-        <v>358</v>
-      </c>
-      <c r="I9" t="s">
-        <v>359</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="K9" t="s">
-        <v>361</v>
+        <v>10</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="13"/>
@@ -2445,28 +2086,7 @@
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1">
       <c r="B10" t="s">
-        <v>566</v>
-      </c>
-      <c r="D10" t="s">
-        <v>568</v>
-      </c>
-      <c r="E10" t="s">
-        <v>355</v>
-      </c>
-      <c r="G10" t="s">
-        <v>356</v>
-      </c>
-      <c r="H10" t="s">
-        <v>358</v>
-      </c>
-      <c r="I10" t="s">
-        <v>359</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="K10" t="s">
-        <v>361</v>
+        <v>11</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="13"/>
@@ -2474,33 +2094,36 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
     </row>
-    <row r="11" spans="1:18" ht="90.75" thickBot="1">
+    <row r="11" spans="1:18" ht="60.75" thickBot="1">
       <c r="B11" t="s">
-        <v>565</v>
+        <v>379</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>568</v>
+        <v>383</v>
       </c>
       <c r="E11" t="s">
+        <v>352</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G11" t="s">
+        <v>353</v>
+      </c>
+      <c r="H11" t="s">
         <v>355</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>356</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K11" t="s">
         <v>358</v>
-      </c>
-      <c r="I11" t="s">
-        <v>359</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="K11" t="s">
-        <v>361</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="13"/>
@@ -2510,28 +2133,28 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
       <c r="B12" t="s">
-        <v>567</v>
+        <v>381</v>
       </c>
       <c r="D12" t="s">
-        <v>568</v>
+        <v>383</v>
       </c>
       <c r="E12" t="s">
+        <v>352</v>
+      </c>
+      <c r="G12" t="s">
+        <v>353</v>
+      </c>
+      <c r="H12" t="s">
         <v>355</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>356</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K12" t="s">
         <v>358</v>
-      </c>
-      <c r="I12" t="s">
-        <v>359</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="K12" t="s">
-        <v>361</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="13"/>
@@ -2539,608 +2162,480 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="1:18" ht="30.75" thickBot="1">
+    <row r="13" spans="1:18" ht="75.75" thickBot="1">
       <c r="B13" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" t="s">
+        <v>383</v>
+      </c>
+      <c r="E13" t="s">
+        <v>352</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G13" t="s">
+        <v>353</v>
+      </c>
+      <c r="H13" t="s">
+        <v>355</v>
+      </c>
+      <c r="I13" t="s">
+        <v>356</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K13" t="s">
+        <v>358</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B14" t="s">
+        <v>382</v>
+      </c>
+      <c r="D14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G14" t="s">
+        <v>353</v>
+      </c>
+      <c r="H14" t="s">
+        <v>355</v>
+      </c>
+      <c r="I14" t="s">
+        <v>356</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K14" t="s">
+        <v>358</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+    </row>
+    <row r="15" spans="1:18" ht="30.75" thickBot="1">
+      <c r="B15" t="s">
         <v>12</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E13" t="s">
-        <v>355</v>
-      </c>
-      <c r="F13" t="s">
-        <v>362</v>
-      </c>
-      <c r="G13" t="s">
-        <v>356</v>
-      </c>
-      <c r="H13" t="s">
-        <v>358</v>
-      </c>
-      <c r="I13" t="s">
-        <v>359</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="K13" t="s">
-        <v>361</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="O13" s="13">
-        <v>44</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q13" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="R13" s="13" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="30.75" thickBot="1">
-      <c r="B14" t="s">
-        <v>348</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E14" t="s">
-        <v>355</v>
-      </c>
-      <c r="F14" t="s">
-        <v>362</v>
-      </c>
-      <c r="G14" t="s">
-        <v>356</v>
-      </c>
-      <c r="H14" t="s">
-        <v>358</v>
-      </c>
-      <c r="I14" t="s">
-        <v>359</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="K14" t="s">
-        <v>361</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="O14" s="13">
-        <v>52</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="51.75" thickBot="1">
-      <c r="B15" t="s">
-        <v>349</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E15" t="s">
+        <v>352</v>
+      </c>
+      <c r="F15" t="s">
+        <v>359</v>
+      </c>
+      <c r="G15" t="s">
+        <v>353</v>
+      </c>
+      <c r="H15" t="s">
         <v>355</v>
       </c>
-      <c r="F15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>356</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K15" t="s">
         <v>358</v>
       </c>
-      <c r="I15" t="s">
-        <v>359</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="K15" t="s">
-        <v>361</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="O15" s="13">
-        <v>535</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>433</v>
-      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
     </row>
-    <row r="16" spans="1:18" ht="39" thickBot="1">
+    <row r="16" spans="1:18" ht="30.75" thickBot="1">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>345</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E16" t="s">
+        <v>352</v>
+      </c>
+      <c r="F16" t="s">
+        <v>359</v>
+      </c>
+      <c r="G16" t="s">
+        <v>353</v>
+      </c>
+      <c r="H16" t="s">
         <v>355</v>
       </c>
-      <c r="F16" t="s">
-        <v>362</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>356</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K16" t="s">
         <v>358</v>
       </c>
-      <c r="I16" t="s">
-        <v>359</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="K16" t="s">
-        <v>361</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="O16" s="13">
-        <v>92</v>
-      </c>
-      <c r="P16" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>437</v>
-      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
     </row>
     <row r="17" spans="2:18" ht="30.75" thickBot="1">
       <c r="B17" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E17" t="s">
+        <v>352</v>
+      </c>
+      <c r="F17" t="s">
+        <v>359</v>
+      </c>
+      <c r="G17" t="s">
+        <v>353</v>
+      </c>
+      <c r="H17" t="s">
         <v>355</v>
       </c>
-      <c r="F17" t="s">
-        <v>362</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>356</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K17" t="s">
         <v>358</v>
       </c>
-      <c r="I17" t="s">
-        <v>359</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="K17" t="s">
-        <v>361</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="O17" s="13">
-        <v>136</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>441</v>
-      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
     </row>
     <row r="18" spans="2:18" ht="30.75" thickBot="1">
       <c r="B18" t="s">
-        <v>352</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E18" t="s">
+        <v>352</v>
+      </c>
+      <c r="F18" t="s">
+        <v>359</v>
+      </c>
+      <c r="G18" t="s">
+        <v>353</v>
+      </c>
+      <c r="H18" t="s">
         <v>355</v>
       </c>
-      <c r="F18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>356</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K18" t="s">
         <v>358</v>
       </c>
-      <c r="I18" t="s">
-        <v>359</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="K18" t="s">
-        <v>361</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="O18" s="13">
-        <v>192</v>
-      </c>
-      <c r="P18" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q18" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="R18" s="13" t="s">
-        <v>443</v>
-      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
     </row>
     <row r="19" spans="2:18" ht="30.75" thickBot="1">
       <c r="B19" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E19" t="s">
+        <v>352</v>
+      </c>
+      <c r="F19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G19" t="s">
+        <v>353</v>
+      </c>
+      <c r="H19" t="s">
         <v>355</v>
       </c>
-      <c r="F19" t="s">
-        <v>362</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>356</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K19" t="s">
         <v>358</v>
       </c>
-      <c r="I19" t="s">
-        <v>359</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="K19" t="s">
-        <v>361</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="O19" s="13">
-        <v>531</v>
-      </c>
-      <c r="P19" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q19" s="13" t="s">
-        <v>447</v>
-      </c>
+      <c r="N19" s="12"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
     </row>
     <row r="20" spans="2:18" ht="30.75" thickBot="1">
       <c r="B20" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E20" t="s">
+        <v>352</v>
+      </c>
+      <c r="F20" t="s">
+        <v>359</v>
+      </c>
+      <c r="G20" t="s">
+        <v>353</v>
+      </c>
+      <c r="H20" t="s">
         <v>355</v>
       </c>
-      <c r="F20" t="s">
-        <v>362</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>356</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K20" t="s">
         <v>358</v>
       </c>
-      <c r="I20" t="s">
-        <v>359</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="K20" t="s">
-        <v>361</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="O20" s="13">
-        <v>212</v>
-      </c>
-      <c r="P20" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q20" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="R20" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="39" thickBot="1">
+      <c r="N20" s="12"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+    </row>
+    <row r="21" spans="2:18" ht="30.75" thickBot="1">
       <c r="B21" t="s">
-        <v>27</v>
+        <v>348</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E21" t="s">
+        <v>352</v>
+      </c>
+      <c r="F21" t="s">
+        <v>359</v>
+      </c>
+      <c r="G21" t="s">
+        <v>353</v>
+      </c>
+      <c r="H21" t="s">
         <v>355</v>
       </c>
-      <c r="F21" t="s">
-        <v>362</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>356</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K21" t="s">
         <v>358</v>
       </c>
-      <c r="I21" t="s">
-        <v>359</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="K21" t="s">
-        <v>361</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="O21" s="13">
-        <v>214</v>
-      </c>
-      <c r="P21" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q21" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="R21" s="13" t="s">
-        <v>454</v>
-      </c>
+      <c r="N21" s="12"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
     </row>
     <row r="22" spans="2:18" ht="30.75" thickBot="1">
       <c r="B22" t="s">
-        <v>28</v>
+        <v>350</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E22" t="s">
+        <v>352</v>
+      </c>
+      <c r="F22" t="s">
+        <v>359</v>
+      </c>
+      <c r="G22" t="s">
+        <v>353</v>
+      </c>
+      <c r="H22" t="s">
         <v>355</v>
       </c>
-      <c r="F22" t="s">
-        <v>362</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>356</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K22" t="s">
         <v>358</v>
       </c>
-      <c r="I22" t="s">
+      <c r="N22" s="12"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+    </row>
+    <row r="23" spans="2:18" ht="30.75" thickBot="1">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E23" t="s">
+        <v>352</v>
+      </c>
+      <c r="F23" t="s">
         <v>359</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="K22" t="s">
-        <v>361</v>
-      </c>
-      <c r="N22" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="O22" s="13">
-        <v>308</v>
-      </c>
-      <c r="P22" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q22" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="R22" s="13" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" ht="26.25" thickBot="1">
-      <c r="N23" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="O23" s="13">
-        <v>312</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q23" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="R23" s="13" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" ht="15.75" thickBot="1">
+      <c r="G23" t="s">
+        <v>353</v>
+      </c>
+      <c r="H23" t="s">
+        <v>355</v>
+      </c>
+      <c r="I23" t="s">
+        <v>356</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K23" t="s">
+        <v>358</v>
+      </c>
+      <c r="N23" s="12"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+    </row>
+    <row r="24" spans="2:18" ht="30.75" thickBot="1">
       <c r="B24" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="N24" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="O24" s="13">
-        <v>332</v>
-      </c>
-      <c r="P24" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q24" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="R24" s="13" t="s">
-        <v>465</v>
-      </c>
+      <c r="D24" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E24" t="s">
+        <v>352</v>
+      </c>
+      <c r="F24" t="s">
+        <v>359</v>
+      </c>
+      <c r="G24" t="s">
+        <v>353</v>
+      </c>
+      <c r="H24" t="s">
+        <v>355</v>
+      </c>
+      <c r="I24" t="s">
+        <v>356</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K24" t="s">
+        <v>358</v>
+      </c>
+      <c r="N24" s="12"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="O25" s="13">
-        <v>388</v>
-      </c>
-      <c r="P25" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q25" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="R25" s="13" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" ht="26.25" thickBot="1">
+      <c r="N25" s="12"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+    </row>
+    <row r="26" spans="2:18" ht="15.75" thickBot="1">
       <c r="B26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="N26" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="O26" s="13">
-        <v>474</v>
-      </c>
-      <c r="P26" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q26" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="R26" s="13" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" ht="26.25" thickBot="1">
+      <c r="N26" s="12"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+    </row>
+    <row r="27" spans="2:18" ht="15.75" thickBot="1">
       <c r="B27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="N27" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="O27" s="13">
-        <v>500</v>
-      </c>
-      <c r="P27" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q27" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="R27" s="13" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" ht="45.75" thickBot="1">
+      <c r="N27" s="12"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+    </row>
+    <row r="28" spans="2:18" ht="15.75" thickBot="1">
       <c r="B28" t="s">
-        <v>572</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>568</v>
-      </c>
-      <c r="E28" t="s">
-        <v>355</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="G28" t="s">
-        <v>356</v>
-      </c>
-      <c r="H28" t="s">
-        <v>358</v>
-      </c>
-      <c r="I28" t="s">
-        <v>359</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>584</v>
       </c>
       <c r="N28" s="12"/>
       <c r="O28" s="13"/>
@@ -3150,28 +2645,10 @@
     </row>
     <row r="29" spans="2:18" ht="15.75" thickBot="1">
       <c r="B29" t="s">
-        <v>573</v>
+        <v>17</v>
       </c>
       <c r="C29">
         <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>568</v>
-      </c>
-      <c r="E29" t="s">
-        <v>355</v>
-      </c>
-      <c r="G29" t="s">
-        <v>356</v>
-      </c>
-      <c r="H29" t="s">
-        <v>358</v>
-      </c>
-      <c r="I29" t="s">
-        <v>359</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>584</v>
       </c>
       <c r="N29" s="12"/>
       <c r="O29" s="13"/>
@@ -3179,33 +2656,33 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
     </row>
-    <row r="30" spans="2:18" ht="45.75" thickBot="1">
+    <row r="30" spans="2:18" ht="30.75" thickBot="1">
       <c r="B30" t="s">
-        <v>574</v>
+        <v>387</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>568</v>
+        <v>383</v>
       </c>
       <c r="E30" t="s">
+        <v>352</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G30" t="s">
+        <v>353</v>
+      </c>
+      <c r="H30" t="s">
         <v>355</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
         <v>356</v>
       </c>
-      <c r="H30" t="s">
-        <v>358</v>
-      </c>
-      <c r="I30" t="s">
-        <v>359</v>
-      </c>
       <c r="J30" s="3" t="s">
-        <v>584</v>
+        <v>399</v>
       </c>
       <c r="N30" s="12"/>
       <c r="O30" s="13"/>
@@ -3215,28 +2692,28 @@
     </row>
     <row r="31" spans="2:18" ht="15.75" thickBot="1">
       <c r="B31" t="s">
-        <v>575</v>
+        <v>388</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>568</v>
+        <v>383</v>
       </c>
       <c r="E31" t="s">
+        <v>352</v>
+      </c>
+      <c r="G31" t="s">
+        <v>353</v>
+      </c>
+      <c r="H31" t="s">
         <v>355</v>
       </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
         <v>356</v>
       </c>
-      <c r="H31" t="s">
-        <v>358</v>
-      </c>
-      <c r="I31" t="s">
-        <v>359</v>
-      </c>
       <c r="J31" s="3" t="s">
-        <v>584</v>
+        <v>399</v>
       </c>
       <c r="N31" s="12"/>
       <c r="O31" s="13"/>
@@ -3244,516 +2721,475 @@
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
     </row>
-    <row r="32" spans="2:18" ht="26.25" thickBot="1">
+    <row r="32" spans="2:18" ht="30.75" thickBot="1">
       <c r="B32" t="s">
-        <v>18</v>
+        <v>389</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="E32" t="s">
+        <v>352</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G32" t="s">
+        <v>353</v>
+      </c>
+      <c r="H32" t="s">
         <v>355</v>
       </c>
-      <c r="F32" t="s">
-        <v>551</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>356</v>
       </c>
-      <c r="H32" t="s">
-        <v>358</v>
-      </c>
-      <c r="I32" t="s">
-        <v>359</v>
-      </c>
       <c r="J32" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="K32" t="s">
-        <v>361</v>
-      </c>
-      <c r="N32" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="O32" s="13">
-        <v>630</v>
-      </c>
-      <c r="P32" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q32" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="R32" s="13" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" ht="39" thickBot="1">
+        <v>399</v>
+      </c>
+      <c r="N32" s="12"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+    </row>
+    <row r="33" spans="2:18" ht="15.75" thickBot="1">
       <c r="B33" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="E33" t="s">
+        <v>352</v>
+      </c>
+      <c r="G33" t="s">
+        <v>353</v>
+      </c>
+      <c r="H33" t="s">
         <v>355</v>
       </c>
-      <c r="F33" t="s">
-        <v>551</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="I33" t="s">
         <v>356</v>
       </c>
-      <c r="H33" t="s">
-        <v>358</v>
-      </c>
-      <c r="I33" t="s">
-        <v>359</v>
-      </c>
       <c r="J33" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="K33" t="s">
-        <v>361</v>
-      </c>
-      <c r="N33" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="O33" s="13">
-        <v>652</v>
-      </c>
-      <c r="P33" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q33" s="13" t="s">
-        <v>483</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N33" s="12"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
     </row>
-    <row r="34" spans="2:18" ht="26.25" thickBot="1">
+    <row r="34" spans="2:18" ht="15.75" thickBot="1">
       <c r="B34" t="s">
-        <v>364</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E34" t="s">
+        <v>352</v>
+      </c>
+      <c r="F34" t="s">
+        <v>367</v>
+      </c>
+      <c r="G34" t="s">
+        <v>353</v>
+      </c>
+      <c r="H34" t="s">
         <v>355</v>
       </c>
-      <c r="F34" t="s">
-        <v>551</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
         <v>356</v>
       </c>
-      <c r="H34" t="s">
+      <c r="J34" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="K34" t="s">
         <v>358</v>
       </c>
-      <c r="I34" t="s">
-        <v>359</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="K34" t="s">
-        <v>361</v>
-      </c>
-      <c r="N34" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="O34" s="13">
-        <v>659</v>
-      </c>
-      <c r="P34" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q34" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="R34" s="13" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" ht="26.25" thickBot="1">
+      <c r="N34" s="12"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+    </row>
+    <row r="35" spans="2:18" ht="15.75" thickBot="1">
       <c r="B35" t="s">
-        <v>19</v>
+        <v>360</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E35" t="s">
+        <v>352</v>
+      </c>
+      <c r="F35" t="s">
+        <v>367</v>
+      </c>
+      <c r="G35" t="s">
+        <v>353</v>
+      </c>
+      <c r="H35" t="s">
         <v>355</v>
       </c>
-      <c r="F35" t="s">
-        <v>551</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
         <v>356</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J35" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="K35" t="s">
         <v>358</v>
       </c>
-      <c r="I35" t="s">
-        <v>359</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="N35" s="12"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+    </row>
+    <row r="36" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B36" t="s">
         <v>361</v>
-      </c>
-      <c r="N35" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="O35" s="13">
-        <v>662</v>
-      </c>
-      <c r="P35" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q35" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="R35" s="13" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" ht="26.25" thickBot="1">
-      <c r="B36" t="s">
-        <v>365</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E36" t="s">
+        <v>352</v>
+      </c>
+      <c r="F36" t="s">
+        <v>367</v>
+      </c>
+      <c r="G36" t="s">
+        <v>353</v>
+      </c>
+      <c r="H36" t="s">
         <v>355</v>
       </c>
-      <c r="F36" t="s">
-        <v>551</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
         <v>356</v>
       </c>
-      <c r="H36" t="s">
+      <c r="J36" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="K36" t="s">
         <v>358</v>
       </c>
-      <c r="I36" t="s">
-        <v>359</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="K36" t="s">
-        <v>361</v>
-      </c>
-      <c r="N36" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="O36" s="13">
-        <v>663</v>
-      </c>
-      <c r="P36" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q36" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="R36" s="13" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" ht="64.5" thickBot="1">
+      <c r="N36" s="12"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+    </row>
+    <row r="37" spans="2:18" ht="15.75" thickBot="1">
       <c r="B37" t="s">
-        <v>366</v>
+        <v>19</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E37" t="s">
+        <v>352</v>
+      </c>
+      <c r="F37" t="s">
+        <v>367</v>
+      </c>
+      <c r="G37" t="s">
+        <v>353</v>
+      </c>
+      <c r="H37" t="s">
         <v>355</v>
       </c>
-      <c r="F37" t="s">
-        <v>551</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
         <v>356</v>
       </c>
-      <c r="H37" t="s">
+      <c r="J37" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="K37" t="s">
         <v>358</v>
       </c>
-      <c r="I37" t="s">
-        <v>359</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="K37" t="s">
-        <v>361</v>
-      </c>
-      <c r="N37" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="O37" s="13">
-        <v>670</v>
-      </c>
-      <c r="P37" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q37" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="R37" s="13" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" ht="26.25" thickBot="1">
+      <c r="N37" s="12"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+    </row>
+    <row r="38" spans="2:18" ht="15.75" thickBot="1">
       <c r="B38" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E38" t="s">
+        <v>352</v>
+      </c>
+      <c r="F38" t="s">
+        <v>367</v>
+      </c>
+      <c r="G38" t="s">
+        <v>353</v>
+      </c>
+      <c r="H38" t="s">
         <v>355</v>
       </c>
-      <c r="F38" t="s">
-        <v>551</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="I38" t="s">
         <v>356</v>
       </c>
-      <c r="H38" t="s">
+      <c r="J38" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="K38" t="s">
         <v>358</v>
       </c>
-      <c r="I38" t="s">
-        <v>359</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="K38" t="s">
-        <v>361</v>
-      </c>
-      <c r="N38" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="O38" s="13">
-        <v>534</v>
-      </c>
-      <c r="P38" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q38" s="13" t="s">
-        <v>501</v>
-      </c>
+      <c r="N38" s="12"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
     </row>
-    <row r="39" spans="2:18" ht="39" thickBot="1">
+    <row r="39" spans="2:18" ht="15.75" thickBot="1">
       <c r="B39" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E39" t="s">
+        <v>352</v>
+      </c>
+      <c r="F39" t="s">
+        <v>367</v>
+      </c>
+      <c r="G39" t="s">
+        <v>353</v>
+      </c>
+      <c r="H39" t="s">
         <v>355</v>
       </c>
-      <c r="F39" t="s">
-        <v>551</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="I39" t="s">
         <v>356</v>
       </c>
-      <c r="H39" t="s">
+      <c r="J39" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="K39" t="s">
         <v>358</v>
       </c>
-      <c r="I39" t="s">
-        <v>359</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="K39" t="s">
-        <v>361</v>
-      </c>
-      <c r="N39" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="O39" s="13">
-        <v>780</v>
-      </c>
-      <c r="P39" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q39" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="R39" s="13" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" ht="39" thickBot="1">
+      <c r="N39" s="12"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+    </row>
+    <row r="40" spans="2:18" ht="15.75" thickBot="1">
       <c r="B40" t="s">
-        <v>25</v>
+        <v>364</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E40" t="s">
+        <v>352</v>
+      </c>
+      <c r="F40" t="s">
+        <v>367</v>
+      </c>
+      <c r="G40" t="s">
+        <v>353</v>
+      </c>
+      <c r="H40" t="s">
         <v>355</v>
       </c>
-      <c r="F40" t="s">
-        <v>551</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="I40" t="s">
         <v>356</v>
       </c>
-      <c r="H40" t="s">
+      <c r="J40" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="K40" t="s">
         <v>358</v>
       </c>
-      <c r="I40" t="s">
-        <v>359</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="K40" t="s">
-        <v>361</v>
-      </c>
-      <c r="N40" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="O40" s="13">
-        <v>796</v>
-      </c>
-      <c r="P40" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q40" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="R40" s="13" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" ht="51.75" thickBot="1">
+      <c r="N40" s="12"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+    </row>
+    <row r="41" spans="2:18" ht="15.75" thickBot="1">
       <c r="B41" t="s">
-        <v>26</v>
+        <v>365</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E41" t="s">
+        <v>352</v>
+      </c>
+      <c r="F41" t="s">
+        <v>367</v>
+      </c>
+      <c r="G41" t="s">
+        <v>353</v>
+      </c>
+      <c r="H41" t="s">
         <v>355</v>
       </c>
-      <c r="F41" t="s">
-        <v>551</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
         <v>356</v>
       </c>
-      <c r="H41" t="s">
+      <c r="J41" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="K41" t="s">
         <v>358</v>
       </c>
-      <c r="I41" t="s">
-        <v>359</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="K41" t="s">
-        <v>361</v>
-      </c>
-      <c r="N41" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="O41" s="13">
-        <v>850</v>
-      </c>
-      <c r="P41" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q41" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="R41" s="13" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" ht="25.5">
-      <c r="N42" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="O42" s="11">
-        <v>13</v>
-      </c>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+    </row>
+    <row r="42" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>366</v>
+      </c>
+      <c r="E42" t="s">
+        <v>352</v>
+      </c>
+      <c r="F42" t="s">
+        <v>367</v>
+      </c>
+      <c r="G42" t="s">
+        <v>353</v>
+      </c>
+      <c r="H42" t="s">
+        <v>355</v>
+      </c>
+      <c r="I42" t="s">
+        <v>356</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="K42" t="s">
+        <v>358</v>
+      </c>
+      <c r="N42" s="12"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
     </row>
     <row r="43" spans="2:18" ht="15.75" thickBot="1">
       <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>366</v>
+      </c>
+      <c r="E43" t="s">
+        <v>352</v>
+      </c>
+      <c r="F43" t="s">
+        <v>367</v>
+      </c>
+      <c r="G43" t="s">
+        <v>353</v>
+      </c>
+      <c r="H43" t="s">
+        <v>355</v>
+      </c>
+      <c r="I43" t="s">
+        <v>356</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="K43" t="s">
+        <v>358</v>
+      </c>
+      <c r="N43" s="12"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+    </row>
+    <row r="44" spans="2:18">
+      <c r="N44" s="10"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+    </row>
+    <row r="45" spans="2:18" ht="60.75" thickBot="1">
+      <c r="B45" t="s">
         <v>20</v>
       </c>
-      <c r="N43" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="O43" s="13">
-        <v>84</v>
-      </c>
-      <c r="P43" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q43" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="R43" s="13" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N44" s="12"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-    </row>
-    <row r="45" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B45" t="s">
-        <v>22</v>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>405</v>
+      </c>
+      <c r="E45" t="s">
+        <v>352</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="G45" t="s">
+        <v>353</v>
+      </c>
+      <c r="H45" t="s">
+        <v>403</v>
+      </c>
+      <c r="I45" t="s">
+        <v>356</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>425</v>
       </c>
       <c r="N45" s="12"/>
       <c r="O45" s="13"/>
@@ -3761,9 +3197,33 @@
       <c r="Q45" s="13"/>
       <c r="R45" s="13"/>
     </row>
-    <row r="46" spans="2:18" ht="15.75" thickBot="1">
+    <row r="46" spans="2:18" ht="60.75" thickBot="1">
       <c r="B46" t="s">
-        <v>23</v>
+        <v>426</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>405</v>
+      </c>
+      <c r="E46" t="s">
+        <v>352</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G46" t="s">
+        <v>353</v>
+      </c>
+      <c r="H46" t="s">
+        <v>403</v>
+      </c>
+      <c r="I46" t="s">
+        <v>356</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>425</v>
       </c>
       <c r="N46" s="12"/>
       <c r="O46" s="13"/>
@@ -3771,194 +3231,94 @@
       <c r="Q46" s="13"/>
       <c r="R46" s="13"/>
     </row>
-    <row r="47" spans="2:18" ht="105.75" thickBot="1">
+    <row r="47" spans="2:18" ht="60.75" thickBot="1">
       <c r="B47" t="s">
-        <v>577</v>
+        <v>427</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>568</v>
+        <v>405</v>
       </c>
       <c r="E47" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>581</v>
+        <v>433</v>
       </c>
       <c r="G47" t="s">
+        <v>353</v>
+      </c>
+      <c r="H47" t="s">
+        <v>403</v>
+      </c>
+      <c r="I47" t="s">
         <v>356</v>
       </c>
-      <c r="H47" t="s">
-        <v>358</v>
-      </c>
-      <c r="I47" t="s">
-        <v>359</v>
-      </c>
       <c r="J47" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="N47" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="O47" s="13">
-        <v>188</v>
-      </c>
-      <c r="P47" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q47" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="R47" s="13" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" ht="26.25" thickBot="1">
+        <v>425</v>
+      </c>
+      <c r="N47" s="12"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+    </row>
+    <row r="48" spans="2:18" ht="15.75" thickBot="1">
       <c r="B48" t="s">
-        <v>578</v>
-      </c>
-      <c r="D48" t="s">
-        <v>568</v>
-      </c>
-      <c r="E48" t="s">
-        <v>355</v>
-      </c>
-      <c r="G48" t="s">
-        <v>356</v>
-      </c>
-      <c r="H48" t="s">
-        <v>358</v>
-      </c>
-      <c r="I48" t="s">
-        <v>359</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="N48" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="O48" s="13">
-        <v>222</v>
-      </c>
-      <c r="P48" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q48" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="R48" s="13" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" ht="105.75" thickBot="1">
+        <v>21</v>
+      </c>
+      <c r="N48" s="12"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+    </row>
+    <row r="49" spans="2:18" ht="15.75" thickBot="1">
       <c r="B49" t="s">
-        <v>579</v>
-      </c>
-      <c r="D49" t="s">
-        <v>568</v>
-      </c>
-      <c r="E49" t="s">
-        <v>355</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="G49" t="s">
-        <v>356</v>
-      </c>
-      <c r="H49" t="s">
-        <v>358</v>
-      </c>
-      <c r="I49" t="s">
-        <v>359</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="N49" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="O49" s="13">
-        <v>320</v>
-      </c>
-      <c r="P49" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q49" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="R49" s="13" t="s">
-        <v>527</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N49" s="12"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
     </row>
     <row r="50" spans="2:18" ht="15.75" thickBot="1">
       <c r="B50" t="s">
-        <v>580</v>
-      </c>
-      <c r="D50" t="s">
-        <v>568</v>
-      </c>
-      <c r="E50" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="12"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+    </row>
+    <row r="51" spans="2:18" ht="90.75" thickBot="1">
+      <c r="B51" t="s">
+        <v>392</v>
+      </c>
+      <c r="D51" t="s">
+        <v>383</v>
+      </c>
+      <c r="E51" t="s">
+        <v>352</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G51" t="s">
+        <v>353</v>
+      </c>
+      <c r="H51" t="s">
         <v>355</v>
       </c>
-      <c r="G50" t="s">
+      <c r="I51" t="s">
         <v>356</v>
       </c>
-      <c r="H50" t="s">
-        <v>358</v>
-      </c>
-      <c r="I50" t="s">
-        <v>359</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="N50" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="O50" s="13">
-        <v>340</v>
-      </c>
-      <c r="P50" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="Q50" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="R50" s="13" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="51" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B51" t="s">
-        <v>553</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>562</v>
-      </c>
-      <c r="E51" t="s">
-        <v>355</v>
-      </c>
-      <c r="F51" t="s">
-        <v>535</v>
-      </c>
-      <c r="G51" t="s">
-        <v>356</v>
-      </c>
-      <c r="H51" t="s">
-        <v>358</v>
-      </c>
-      <c r="I51" t="s">
-        <v>359</v>
-      </c>
       <c r="J51" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="K51" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="N51" s="12"/>
       <c r="O51" s="13"/>
@@ -3968,34 +3328,25 @@
     </row>
     <row r="52" spans="2:18" ht="15.75" thickBot="1">
       <c r="B52" t="s">
-        <v>554</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
+        <v>393</v>
       </c>
       <c r="D52" t="s">
-        <v>562</v>
+        <v>383</v>
       </c>
       <c r="E52" t="s">
+        <v>352</v>
+      </c>
+      <c r="G52" t="s">
+        <v>353</v>
+      </c>
+      <c r="H52" t="s">
         <v>355</v>
       </c>
-      <c r="F52" t="s">
-        <v>535</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="I52" t="s">
         <v>356</v>
       </c>
-      <c r="H52" t="s">
-        <v>358</v>
-      </c>
-      <c r="I52" t="s">
-        <v>359</v>
-      </c>
       <c r="J52" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="K52" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="N52" s="12"/>
       <c r="O52" s="13"/>
@@ -4003,36 +3354,30 @@
       <c r="Q52" s="13"/>
       <c r="R52" s="13"/>
     </row>
-    <row r="53" spans="2:18" ht="15.75" thickBot="1">
+    <row r="53" spans="2:18" ht="90.75" thickBot="1">
       <c r="B53" t="s">
-        <v>555</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
+        <v>394</v>
       </c>
       <c r="D53" t="s">
-        <v>562</v>
+        <v>383</v>
       </c>
       <c r="E53" t="s">
+        <v>352</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G53" t="s">
+        <v>353</v>
+      </c>
+      <c r="H53" t="s">
         <v>355</v>
       </c>
-      <c r="F53" t="s">
-        <v>535</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="I53" t="s">
         <v>356</v>
       </c>
-      <c r="H53" t="s">
-        <v>358</v>
-      </c>
-      <c r="I53" t="s">
-        <v>359</v>
-      </c>
       <c r="J53" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="K53" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="N53" s="12"/>
       <c r="O53" s="13"/>
@@ -4042,34 +3387,25 @@
     </row>
     <row r="54" spans="2:18" ht="15.75" thickBot="1">
       <c r="B54" t="s">
-        <v>556</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
+        <v>395</v>
       </c>
       <c r="D54" t="s">
-        <v>562</v>
+        <v>383</v>
       </c>
       <c r="E54" t="s">
+        <v>352</v>
+      </c>
+      <c r="G54" t="s">
+        <v>353</v>
+      </c>
+      <c r="H54" t="s">
         <v>355</v>
       </c>
-      <c r="F54" t="s">
-        <v>535</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="I54" t="s">
         <v>356</v>
       </c>
-      <c r="H54" t="s">
-        <v>358</v>
-      </c>
-      <c r="I54" t="s">
-        <v>359</v>
-      </c>
       <c r="J54" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="K54" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="N54" s="12"/>
       <c r="O54" s="13"/>
@@ -4079,34 +3415,34 @@
     </row>
     <row r="55" spans="2:18" ht="15.75" thickBot="1">
       <c r="B55" t="s">
-        <v>557</v>
+        <v>369</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>562</v>
+        <v>378</v>
       </c>
       <c r="E55" t="s">
-        <v>355</v>
-      </c>
-      <c r="F55" t="s">
-        <v>535</v>
-      </c>
-      <c r="G55" t="s">
+        <v>352</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="I55" t="s">
         <v>356</v>
       </c>
-      <c r="H55" t="s">
+      <c r="J55" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K55" t="s">
         <v>358</v>
-      </c>
-      <c r="I55" t="s">
-        <v>359</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="K55" t="s">
-        <v>361</v>
       </c>
       <c r="N55" s="12"/>
       <c r="O55" s="13"/>
@@ -4116,333 +3452,314 @@
     </row>
     <row r="56" spans="2:18" ht="15.75" thickBot="1">
       <c r="B56" t="s">
-        <v>558</v>
+        <v>370</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>562</v>
+        <v>378</v>
       </c>
       <c r="E56" t="s">
-        <v>355</v>
-      </c>
-      <c r="F56" t="s">
-        <v>535</v>
-      </c>
-      <c r="G56" t="s">
+        <v>352</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" t="s">
         <v>356</v>
       </c>
-      <c r="H56" t="s">
-        <v>358</v>
-      </c>
-      <c r="I56" t="s">
-        <v>359</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="K56" t="s">
-        <v>361</v>
-      </c>
-      <c r="N56" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="O56" s="13">
-        <v>484</v>
-      </c>
-      <c r="P56" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q56" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="R56" s="13" t="s">
-        <v>534</v>
-      </c>
+      <c r="J56" s="3"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
     </row>
     <row r="57" spans="2:18" ht="15.75" thickBot="1">
       <c r="B57" t="s">
-        <v>559</v>
+        <v>371</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>562</v>
+        <v>378</v>
       </c>
       <c r="E57" t="s">
-        <v>355</v>
-      </c>
-      <c r="F57" t="s">
-        <v>535</v>
-      </c>
-      <c r="G57" t="s">
+        <v>352</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" t="s">
         <v>356</v>
       </c>
-      <c r="H57" t="s">
-        <v>358</v>
-      </c>
-      <c r="I57" t="s">
-        <v>359</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="K57" t="s">
-        <v>361</v>
-      </c>
-      <c r="N57" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="O57" s="13">
-        <v>558</v>
-      </c>
-      <c r="P57" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q57" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="R57" s="13" t="s">
-        <v>539</v>
-      </c>
+      <c r="J57" s="3"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
     </row>
     <row r="58" spans="2:18" ht="15.75" thickBot="1">
       <c r="B58" t="s">
-        <v>560</v>
+        <v>372</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>562</v>
+        <v>378</v>
       </c>
       <c r="E58" t="s">
-        <v>355</v>
-      </c>
-      <c r="F58" t="s">
-        <v>535</v>
-      </c>
-      <c r="G58" t="s">
+        <v>352</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="I58" t="s">
         <v>356</v>
       </c>
-      <c r="H58" t="s">
+      <c r="J58" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K58" t="s">
         <v>358</v>
       </c>
-      <c r="I58" t="s">
-        <v>359</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="K58" t="s">
-        <v>361</v>
-      </c>
-      <c r="N58" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="O58" s="13">
-        <v>591</v>
-      </c>
-      <c r="P58" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q58" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="R58" s="13" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="59" spans="2:18" ht="25.5">
+      <c r="N58" s="12"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+    </row>
+    <row r="59" spans="2:18" ht="15.75" thickBot="1">
       <c r="B59" t="s">
-        <v>25</v>
+        <v>373</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>562</v>
+        <v>378</v>
       </c>
       <c r="E59" t="s">
-        <v>355</v>
-      </c>
-      <c r="F59" t="s">
-        <v>535</v>
-      </c>
-      <c r="G59" t="s">
+        <v>352</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="I59" t="s">
         <v>356</v>
       </c>
-      <c r="H59" t="s">
+      <c r="J59" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K59" t="s">
         <v>358</v>
       </c>
-      <c r="I59" t="s">
-        <v>359</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="K59" t="s">
-        <v>361</v>
-      </c>
-      <c r="N59" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="O59" s="11">
-        <v>5</v>
-      </c>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
     </row>
     <row r="60" spans="2:18" ht="15.75" thickBot="1">
       <c r="B60" t="s">
-        <v>561</v>
+        <v>374</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>562</v>
+        <v>378</v>
       </c>
       <c r="E60" t="s">
-        <v>355</v>
-      </c>
-      <c r="F60" t="s">
-        <v>535</v>
-      </c>
-      <c r="G60" t="s">
+        <v>352</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" t="s">
         <v>356</v>
       </c>
-      <c r="H60" t="s">
+      <c r="J60" s="3"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+    </row>
+    <row r="61" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B61" t="s">
+        <v>375</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>378</v>
+      </c>
+      <c r="E61" t="s">
+        <v>352</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="I61" t="s">
+        <v>356</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K61" t="s">
         <v>358</v>
       </c>
-      <c r="I60" t="s">
-        <v>359</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="K60" t="s">
-        <v>361</v>
-      </c>
-      <c r="N60" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="O60" s="13">
-        <v>32</v>
-      </c>
-      <c r="P60" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q60" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="R60" s="13" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="61" spans="2:18" ht="51.75" thickBot="1">
-      <c r="N61" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="O61" s="13">
-        <v>68</v>
-      </c>
-      <c r="P61" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q61" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="R61" s="13" t="s">
-        <v>482</v>
-      </c>
+      <c r="N61" s="12"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
     </row>
     <row r="62" spans="2:18" ht="15.75" thickBot="1">
       <c r="B62" t="s">
-        <v>340</v>
-      </c>
-      <c r="N62" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="O62" s="13">
-        <v>76</v>
-      </c>
-      <c r="P62" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="Q62" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="R62" s="13" t="s">
-        <v>376</v>
-      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>378</v>
+      </c>
+      <c r="E62" t="s">
+        <v>352</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="I62" t="s">
+        <v>356</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K62" t="s">
+        <v>358</v>
+      </c>
+      <c r="N62" s="12"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
     </row>
     <row r="63" spans="2:18" ht="15.75" thickBot="1">
       <c r="B63" t="s">
-        <v>341</v>
-      </c>
-      <c r="N63" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
         <v>378</v>
       </c>
-      <c r="O63" s="13">
-        <v>152</v>
-      </c>
-      <c r="P63" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q63" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="R63" s="13" t="s">
-        <v>546</v>
-      </c>
+      <c r="E63" t="s">
+        <v>352</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="I63" t="s">
+        <v>356</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K63" t="s">
+        <v>358</v>
+      </c>
+      <c r="N63" s="10"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
     </row>
     <row r="64" spans="2:18" ht="15.75" thickBot="1">
       <c r="B64" t="s">
-        <v>342</v>
-      </c>
-      <c r="N64" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="O64" s="13">
-        <v>170</v>
-      </c>
-      <c r="P64" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q64" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="R64" s="13" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B65" t="s">
-        <v>343</v>
-      </c>
-      <c r="N65" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="O65" s="13">
-        <v>218</v>
-      </c>
-      <c r="P65" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q65" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="R65" s="13" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="15.75" thickBot="1">
+        <v>377</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>378</v>
+      </c>
+      <c r="E64" t="s">
+        <v>352</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="I64" t="s">
+        <v>356</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K64" t="s">
+        <v>358</v>
+      </c>
+      <c r="N64" s="12"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+    </row>
+    <row r="65" spans="2:18" ht="15.75" thickBot="1">
+      <c r="N65" s="12"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+    </row>
+    <row r="66" spans="2:18" ht="15.75" thickBot="1">
       <c r="B66" t="s">
-        <v>564</v>
+        <v>337</v>
       </c>
       <c r="N66" s="12"/>
       <c r="O66" s="13"/>
@@ -4450,9 +3767,9 @@
       <c r="Q66" s="13"/>
       <c r="R66" s="13"/>
     </row>
-    <row r="67" spans="1:18" ht="15.75" thickBot="1">
+    <row r="67" spans="2:18" ht="15.75" thickBot="1">
       <c r="B67" t="s">
-        <v>566</v>
+        <v>338</v>
       </c>
       <c r="N67" s="12"/>
       <c r="O67" s="13"/>
@@ -4460,9 +3777,9 @@
       <c r="Q67" s="13"/>
       <c r="R67" s="13"/>
     </row>
-    <row r="68" spans="1:18" ht="15.75" thickBot="1">
+    <row r="68" spans="2:18" ht="15.75" thickBot="1">
       <c r="B68" t="s">
-        <v>565</v>
+        <v>339</v>
       </c>
       <c r="N68" s="12"/>
       <c r="O68" s="13"/>
@@ -4470,9 +3787,9 @@
       <c r="Q68" s="13"/>
       <c r="R68" s="13"/>
     </row>
-    <row r="69" spans="1:18" ht="15.75" thickBot="1">
+    <row r="69" spans="2:18" ht="15.75" thickBot="1">
       <c r="B69" t="s">
-        <v>567</v>
+        <v>340</v>
       </c>
       <c r="N69" s="12"/>
       <c r="O69" s="13"/>
@@ -4480,593 +3797,725 @@
       <c r="Q69" s="13"/>
       <c r="R69" s="13"/>
     </row>
-    <row r="70" spans="1:18" ht="51.75" thickBot="1">
+    <row r="70" spans="2:18" ht="15.75" thickBot="1">
       <c r="B70" t="s">
+        <v>379</v>
+      </c>
+      <c r="N70" s="12"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+    </row>
+    <row r="71" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B71" t="s">
+        <v>381</v>
+      </c>
+      <c r="N71" s="12"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+    </row>
+    <row r="72" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B72" t="s">
+        <v>380</v>
+      </c>
+      <c r="N72" s="12"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+    </row>
+    <row r="73" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B73" t="s">
+        <v>382</v>
+      </c>
+      <c r="N73" s="12"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+    </row>
+    <row r="74" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B74" t="s">
+        <v>341</v>
+      </c>
+      <c r="N74" s="12"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
+    </row>
+    <row r="75" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="N75" s="12"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+    </row>
+    <row r="76" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B76" t="s">
+        <v>342</v>
+      </c>
+      <c r="N76" s="12"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+    </row>
+    <row r="77" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B77" t="s">
+        <v>343</v>
+      </c>
+      <c r="N77" s="12"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+    </row>
+    <row r="78" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B78" t="s">
         <v>344</v>
       </c>
-      <c r="N70" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="O70" s="13">
-        <v>238</v>
-      </c>
-      <c r="P70" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q70" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="R70" s="13" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" ht="26.25" thickBot="1">
-      <c r="B71" t="s">
-        <v>24</v>
-      </c>
-      <c r="N71" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="O71" s="13">
-        <v>254</v>
-      </c>
-      <c r="P71" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q71" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="R71" s="13" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B72" t="s">
-        <v>345</v>
-      </c>
-      <c r="N72" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="O72" s="13">
-        <v>328</v>
-      </c>
-      <c r="P72" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q72" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="R72" s="13" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B73" t="s">
-        <v>346</v>
-      </c>
-      <c r="N73" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="O73" s="13">
-        <v>600</v>
-      </c>
-      <c r="P73" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q73" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="R73" s="13" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B74" t="s">
-        <v>347</v>
-      </c>
-      <c r="N74" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="O74" s="13">
-        <v>604</v>
-      </c>
-      <c r="P74" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q74" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="R74" s="13" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" ht="15.75" thickBot="1">
-      <c r="N75" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="O75" s="13">
-        <v>740</v>
-      </c>
-      <c r="P75" s="13" t="s">
+      <c r="N78" s="12"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13"/>
+    </row>
+    <row r="79" spans="2:18" ht="15.75" thickBot="1">
+      <c r="N79" s="12"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+    </row>
+    <row r="80" spans="2:18" ht="75.75" thickBot="1">
+      <c r="B80" t="s">
+        <v>429</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>405</v>
+      </c>
+      <c r="E80" t="s">
+        <v>352</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G80" t="s">
+        <v>353</v>
+      </c>
+      <c r="H80" t="s">
+        <v>403</v>
+      </c>
+      <c r="I80" t="s">
+        <v>356</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N80" s="12"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="13"/>
+    </row>
+    <row r="81" spans="1:18" ht="75.75" thickBot="1">
+      <c r="B81" t="s">
+        <v>430</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>405</v>
+      </c>
+      <c r="E81" t="s">
+        <v>352</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G81" t="s">
+        <v>353</v>
+      </c>
+      <c r="H81" t="s">
+        <v>403</v>
+      </c>
+      <c r="I81" t="s">
+        <v>356</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N81" s="12"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+    </row>
+    <row r="82" spans="1:18" ht="75.75" thickBot="1">
+      <c r="B82" t="s">
+        <v>431</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>405</v>
+      </c>
+      <c r="E82" t="s">
+        <v>352</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G82" t="s">
+        <v>353</v>
+      </c>
+      <c r="H82" t="s">
+        <v>403</v>
+      </c>
+      <c r="I82" t="s">
+        <v>356</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N82" s="12"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13"/>
+    </row>
+    <row r="83" spans="1:18" ht="15.75" thickBot="1">
+      <c r="N83" s="12"/>
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13"/>
+    </row>
+    <row r="84" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A84" t="s">
+        <v>31</v>
+      </c>
+      <c r="N84" s="12"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+    </row>
+    <row r="85" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B85" t="s">
+        <v>34</v>
+      </c>
+      <c r="N85" s="12"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="B86" t="s">
+        <v>35</v>
+      </c>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="B87" t="s">
+        <v>32</v>
+      </c>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B88" t="s">
+        <v>33</v>
+      </c>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="17">
+        <v>1</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="G89" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="Q75" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="R75" s="13" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A76" t="s">
-        <v>31</v>
-      </c>
-      <c r="N76" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="O76" s="13">
-        <v>858</v>
-      </c>
-      <c r="P76" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q76" s="13" t="s">
+      <c r="H89" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="J89" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="B90" t="s">
+        <v>37</v>
+      </c>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="B91" t="s">
+        <v>38</v>
+      </c>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="B92" t="s">
+        <v>58</v>
+      </c>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="B93" t="s">
+        <v>59</v>
+      </c>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="B94" t="s">
+        <v>39</v>
+      </c>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="B95" t="s">
+        <v>40</v>
+      </c>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="1:18" ht="30">
+      <c r="B96" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>420</v>
+      </c>
+      <c r="E96" t="s">
         <v>406</v>
       </c>
-      <c r="R76" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" ht="64.5" thickBot="1">
-      <c r="B77" t="s">
-        <v>34</v>
-      </c>
-      <c r="N77" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="O77" s="13">
-        <v>862</v>
-      </c>
-      <c r="P77" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q77" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="R77" s="13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
-      <c r="B78" t="s">
-        <v>35</v>
-      </c>
-      <c r="N78" s="1"/>
-    </row>
-    <row r="79" spans="1:18">
-      <c r="B79" t="s">
-        <v>32</v>
-      </c>
-      <c r="N79" s="1"/>
-    </row>
-    <row r="80" spans="1:18">
-      <c r="B80" t="s">
-        <v>33</v>
-      </c>
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="B81" t="s">
-        <v>36</v>
-      </c>
-      <c r="N81" s="1"/>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="B82" t="s">
-        <v>37</v>
-      </c>
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="B83" t="s">
-        <v>38</v>
-      </c>
-      <c r="N83" s="1"/>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="B84" t="s">
-        <v>58</v>
-      </c>
-      <c r="N84" s="1"/>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="B85" t="s">
-        <v>59</v>
-      </c>
-      <c r="N85" s="1"/>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="B86" t="s">
-        <v>39</v>
-      </c>
-      <c r="N86" s="1"/>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="B87" t="s">
-        <v>40</v>
-      </c>
-      <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="B88" t="s">
-        <v>41</v>
-      </c>
-      <c r="N88" s="1"/>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="B89" t="s">
-        <v>42</v>
-      </c>
-      <c r="N89" s="1"/>
-    </row>
-    <row r="90" spans="1:14">
-      <c r="N90" s="1"/>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="A91" t="s">
-        <v>43</v>
-      </c>
-      <c r="N91" s="1"/>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="B92" t="s">
-        <v>44</v>
-      </c>
-      <c r="N92" s="1"/>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="B93" t="s">
-        <v>45</v>
-      </c>
-      <c r="N93" s="1"/>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="B94" t="s">
-        <v>46</v>
-      </c>
-      <c r="N94" s="1"/>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="B95" t="s">
-        <v>47</v>
-      </c>
-      <c r="N95" s="1"/>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="B96" t="s">
-        <v>48</v>
+      <c r="F96" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="N96" s="1"/>
     </row>
     <row r="97" spans="1:14">
       <c r="B97" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N97" s="1"/>
     </row>
     <row r="98" spans="1:14">
-      <c r="B98" t="s">
-        <v>50</v>
-      </c>
       <c r="N98" s="1"/>
     </row>
     <row r="99" spans="1:14">
-      <c r="B99" t="s">
-        <v>51</v>
+      <c r="A99" t="s">
+        <v>43</v>
       </c>
       <c r="N99" s="1"/>
     </row>
     <row r="100" spans="1:14">
       <c r="B100" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N100" s="1"/>
     </row>
     <row r="101" spans="1:14">
       <c r="B101" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N101" s="1"/>
     </row>
     <row r="102" spans="1:14">
       <c r="B102" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N102" s="1"/>
     </row>
     <row r="103" spans="1:14">
       <c r="B103" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="N103" s="1"/>
     </row>
     <row r="104" spans="1:14">
       <c r="B104" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="N104" s="1"/>
     </row>
     <row r="105" spans="1:14">
       <c r="B105" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="N105" s="1"/>
     </row>
     <row r="106" spans="1:14">
       <c r="B106" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="N106" s="1"/>
     </row>
     <row r="107" spans="1:14">
       <c r="B107" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="N107" s="1"/>
     </row>
     <row r="108" spans="1:14">
+      <c r="B108" t="s">
+        <v>52</v>
+      </c>
       <c r="N108" s="1"/>
     </row>
     <row r="109" spans="1:14">
-      <c r="A109" t="s">
-        <v>56</v>
+      <c r="B109" t="s">
+        <v>53</v>
       </c>
       <c r="N109" s="1"/>
     </row>
     <row r="110" spans="1:14">
       <c r="B110" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="N110" s="1"/>
     </row>
     <row r="111" spans="1:14">
       <c r="B111" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N111" s="1"/>
     </row>
     <row r="112" spans="1:14">
       <c r="B112" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N112" s="1"/>
     </row>
     <row r="113" spans="1:14">
       <c r="B113" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N113" s="1"/>
     </row>
     <row r="114" spans="1:14">
       <c r="B114" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N114" s="1"/>
     </row>
     <row r="115" spans="1:14">
       <c r="B115" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N115" s="1"/>
     </row>
     <row r="116" spans="1:14">
-      <c r="B116" t="s">
-        <v>69</v>
-      </c>
       <c r="N116" s="1"/>
     </row>
     <row r="117" spans="1:14">
-      <c r="B117" t="s">
-        <v>70</v>
+      <c r="A117" t="s">
+        <v>56</v>
       </c>
       <c r="N117" s="1"/>
     </row>
     <row r="118" spans="1:14">
       <c r="B118" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="N118" s="1"/>
     </row>
     <row r="119" spans="1:14">
       <c r="B119" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="N119" s="1"/>
     </row>
     <row r="120" spans="1:14">
       <c r="B120" t="s">
-        <v>73</v>
+        <v>415</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>413</v>
+      </c>
+      <c r="F120" t="s">
+        <v>417</v>
+      </c>
+      <c r="J120" s="18" t="s">
+        <v>419</v>
       </c>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" ht="90">
       <c r="B121" t="s">
-        <v>74</v>
+        <v>416</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>413</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G121" t="s">
+        <v>402</v>
+      </c>
+      <c r="H121" t="s">
+        <v>408</v>
+      </c>
+      <c r="I121" t="s">
+        <v>418</v>
+      </c>
+      <c r="J121" s="18" t="s">
+        <v>419</v>
       </c>
       <c r="N121" s="1"/>
     </row>
     <row r="122" spans="1:14">
       <c r="B122" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="N122" s="1"/>
     </row>
     <row r="123" spans="1:14">
       <c r="B123" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="N123" s="1"/>
     </row>
     <row r="124" spans="1:14">
       <c r="B124" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="N124" s="1"/>
     </row>
     <row r="125" spans="1:14">
       <c r="B125" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="N125" s="1"/>
     </row>
     <row r="126" spans="1:14">
       <c r="B126" t="s">
+        <v>69</v>
+      </c>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="1:14" ht="195">
+      <c r="B127" t="s">
+        <v>409</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>410</v>
+      </c>
+      <c r="E127" t="s">
+        <v>411</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G127" t="s">
+        <v>402</v>
+      </c>
+      <c r="H127" t="s">
+        <v>408</v>
+      </c>
+      <c r="N127" s="1"/>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="B128" t="s">
+        <v>70</v>
+      </c>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="B129" t="s">
+        <v>71</v>
+      </c>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="B130" t="s">
+        <v>72</v>
+      </c>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="B131" t="s">
+        <v>73</v>
+      </c>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="B132" t="s">
+        <v>74</v>
+      </c>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="B133" t="s">
+        <v>75</v>
+      </c>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="B134" t="s">
+        <v>76</v>
+      </c>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="N135" s="1"/>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" t="s">
+        <v>77</v>
+      </c>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="B137" t="s">
+        <v>53</v>
+      </c>
+      <c r="N137" s="1"/>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="B138" t="s">
+        <v>78</v>
+      </c>
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="B139" t="s">
         <v>79</v>
       </c>
-      <c r="N126" s="1"/>
-    </row>
-    <row r="127" spans="1:14">
-      <c r="N127" s="1"/>
-    </row>
-    <row r="128" spans="1:14">
-      <c r="A128" t="s">
+      <c r="N139" s="1"/>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="B140" t="s">
         <v>80</v>
       </c>
-      <c r="N128" s="1"/>
-    </row>
-    <row r="129" spans="2:14">
-      <c r="B129" t="s">
-        <v>53</v>
-      </c>
-      <c r="N129" s="1"/>
-    </row>
-    <row r="130" spans="2:14">
-      <c r="B130" t="s">
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="B141" t="s">
         <v>81</v>
       </c>
-      <c r="N130" s="1"/>
-    </row>
-    <row r="131" spans="2:14">
-      <c r="B131" t="s">
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="B142" t="s">
         <v>82</v>
       </c>
-      <c r="N131" s="1"/>
-    </row>
-    <row r="132" spans="2:14">
-      <c r="B132" t="s">
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="B143" t="s">
         <v>83</v>
       </c>
-      <c r="N132" s="1"/>
-    </row>
-    <row r="133" spans="2:14">
-      <c r="B133" t="s">
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="B144" t="s">
         <v>84</v>
       </c>
-      <c r="N133" s="1"/>
-    </row>
-    <row r="134" spans="2:14">
-      <c r="B134" t="s">
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14">
+      <c r="B145" t="s">
         <v>85</v>
       </c>
-      <c r="N134" s="1"/>
-    </row>
-    <row r="135" spans="2:14">
-      <c r="B135" t="s">
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="2:14">
+      <c r="B146" t="s">
         <v>86</v>
       </c>
-      <c r="N135" s="1"/>
-    </row>
-    <row r="136" spans="2:14">
-      <c r="B136" t="s">
+      <c r="N146" s="1"/>
+    </row>
+    <row r="147" spans="2:14">
+      <c r="B147" t="s">
         <v>87</v>
       </c>
-      <c r="N136" s="1"/>
-    </row>
-    <row r="137" spans="2:14">
-      <c r="B137" t="s">
+      <c r="N147" s="1"/>
+    </row>
+    <row r="148" spans="2:14">
+      <c r="B148" t="s">
         <v>88</v>
       </c>
-      <c r="N137" s="1"/>
-    </row>
-    <row r="138" spans="2:14">
-      <c r="B138" t="s">
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="2:14">
+      <c r="B149" t="s">
         <v>89</v>
       </c>
-      <c r="N138" s="1"/>
-    </row>
-    <row r="139" spans="2:14">
-      <c r="B139" t="s">
-        <v>90</v>
-      </c>
-      <c r="N139" s="1"/>
-    </row>
-    <row r="140" spans="2:14">
-      <c r="B140" t="s">
-        <v>91</v>
-      </c>
-      <c r="N140" s="1"/>
-    </row>
-    <row r="141" spans="2:14">
-      <c r="B141" t="s">
-        <v>92</v>
-      </c>
-      <c r="N141" s="1"/>
-    </row>
-    <row r="142" spans="2:14">
-      <c r="N142" s="1"/>
-    </row>
-    <row r="143" spans="2:14">
-      <c r="N143" s="1"/>
-    </row>
-    <row r="144" spans="2:14">
-      <c r="N144" s="1"/>
-    </row>
-    <row r="145" spans="14:14">
-      <c r="N145" s="1"/>
-    </row>
-    <row r="146" spans="14:14">
-      <c r="N146" s="1"/>
-    </row>
-    <row r="147" spans="14:14">
-      <c r="N147" s="1"/>
-    </row>
-    <row r="148" spans="14:14">
-      <c r="N148" s="1"/>
-    </row>
-    <row r="149" spans="14:14">
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="14:14">
+    <row r="150" spans="2:14">
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="14:14">
+    <row r="151" spans="2:14">
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="14:14">
+    <row r="152" spans="2:14">
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="14:14">
+    <row r="153" spans="2:14">
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="14:14">
+    <row r="154" spans="2:14">
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="14:14">
+    <row r="155" spans="2:14">
       <c r="N155" s="1"/>
     </row>
-    <row r="156" spans="14:14">
+    <row r="156" spans="2:14">
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="14:14">
+    <row r="157" spans="2:14">
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="14:14">
+    <row r="158" spans="2:14">
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="14:14">
+    <row r="159" spans="2:14">
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="14:14">
+    <row r="160" spans="2:14">
       <c r="N160" s="1"/>
     </row>
     <row r="161" spans="14:14">
@@ -5447,42 +4896,69 @@
     <row r="286" spans="14:14">
       <c r="N286" s="1"/>
     </row>
+    <row r="287" spans="14:14">
+      <c r="N287" s="1"/>
+    </row>
+    <row r="288" spans="14:14">
+      <c r="N288" s="1"/>
+    </row>
+    <row r="289" spans="14:14">
+      <c r="N289" s="1"/>
+    </row>
+    <row r="290" spans="14:14">
+      <c r="N290" s="1"/>
+    </row>
+    <row r="291" spans="14:14">
+      <c r="N291" s="1"/>
+    </row>
+    <row r="292" spans="14:14">
+      <c r="N292" s="1"/>
+    </row>
+    <row r="293" spans="14:14">
+      <c r="N293" s="1"/>
+    </row>
+    <row r="294" spans="14:14">
+      <c r="N294" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J13" r:id="rId1"/>
-    <hyperlink ref="J14:J21" r:id="rId2" display="operaciones_gobierno_central_all_years_all_countries_cepalstat.xlsx"/>
-    <hyperlink ref="J22" r:id="rId3"/>
-    <hyperlink ref="J32" r:id="rId4"/>
-    <hyperlink ref="J33" r:id="rId5"/>
-    <hyperlink ref="J34" r:id="rId6"/>
-    <hyperlink ref="J35" r:id="rId7"/>
-    <hyperlink ref="J36" r:id="rId8"/>
-    <hyperlink ref="J37" r:id="rId9"/>
-    <hyperlink ref="J38" r:id="rId10"/>
-    <hyperlink ref="J39" r:id="rId11"/>
-    <hyperlink ref="J40" r:id="rId12"/>
-    <hyperlink ref="J41" r:id="rId13"/>
+    <hyperlink ref="J15" r:id="rId1"/>
+    <hyperlink ref="J16:J23" r:id="rId2" display="operaciones_gobierno_central_all_years_all_countries_cepalstat.xlsx"/>
+    <hyperlink ref="J24" r:id="rId3"/>
+    <hyperlink ref="J34" r:id="rId4"/>
+    <hyperlink ref="J35" r:id="rId5"/>
+    <hyperlink ref="J36" r:id="rId6"/>
+    <hyperlink ref="J37" r:id="rId7"/>
+    <hyperlink ref="J38" r:id="rId8"/>
+    <hyperlink ref="J39" r:id="rId9"/>
+    <hyperlink ref="J40" r:id="rId10"/>
+    <hyperlink ref="J41" r:id="rId11"/>
+    <hyperlink ref="J42" r:id="rId12"/>
+    <hyperlink ref="J43" r:id="rId13"/>
     <hyperlink ref="J51" r:id="rId14"/>
-    <hyperlink ref="J52" r:id="rId15"/>
-    <hyperlink ref="J53" r:id="rId16"/>
-    <hyperlink ref="J54" r:id="rId17"/>
-    <hyperlink ref="J55" r:id="rId18"/>
-    <hyperlink ref="J56" r:id="rId19"/>
-    <hyperlink ref="J57" r:id="rId20"/>
-    <hyperlink ref="J58" r:id="rId21"/>
-    <hyperlink ref="J59" r:id="rId22"/>
-    <hyperlink ref="J60" r:id="rId23"/>
-    <hyperlink ref="J47" r:id="rId24"/>
-    <hyperlink ref="J48:J50" r:id="rId25" display="financiamiento_spnf_central_all_years_all_alc_cepalstat.xlsx"/>
-    <hyperlink ref="J28" r:id="rId26"/>
-    <hyperlink ref="J29" r:id="rId27"/>
-    <hyperlink ref="J30" r:id="rId28"/>
-    <hyperlink ref="J31" r:id="rId29"/>
-    <hyperlink ref="J9" r:id="rId30"/>
-    <hyperlink ref="J10:J12" r:id="rId31" display="financiamiento_gobierno_central_all_years_all_alc_cepalstat.xlsx"/>
+    <hyperlink ref="J52:J54" r:id="rId15" display="financiamiento_spnf_central_all_years_all_alc_cepalstat.xlsx"/>
+    <hyperlink ref="J30" r:id="rId16"/>
+    <hyperlink ref="J31" r:id="rId17"/>
+    <hyperlink ref="J32" r:id="rId18"/>
+    <hyperlink ref="J33" r:id="rId19"/>
+    <hyperlink ref="J11" r:id="rId20"/>
+    <hyperlink ref="J12:J14" r:id="rId21" display="financiamiento_gobierno_central_all_years_all_alc_cepalstat.xlsx"/>
+    <hyperlink ref="J55" r:id="rId22"/>
+    <hyperlink ref="J89" r:id="rId23"/>
+    <hyperlink ref="J120" r:id="rId24"/>
+    <hyperlink ref="J121" r:id="rId25"/>
+    <hyperlink ref="J5" r:id="rId26"/>
+    <hyperlink ref="J6" r:id="rId27"/>
+    <hyperlink ref="J7" r:id="rId28"/>
+    <hyperlink ref="J47" r:id="rId29"/>
+    <hyperlink ref="J45" r:id="rId30"/>
+    <hyperlink ref="J46" r:id="rId31"/>
+    <hyperlink ref="J82" r:id="rId32"/>
+    <hyperlink ref="J80" r:id="rId33"/>
+    <hyperlink ref="J81" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
 
@@ -5498,1232 +4974,1232 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_availability.xlsx
+++ b/data/data_availability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6360" windowWidth="28860" windowHeight="6420"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="18405" windowHeight="12120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="datos_disp_features" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="538">
   <si>
     <t>Fiscal</t>
   </si>
@@ -252,40 +252,13 @@
     <t>Sector Externo</t>
   </si>
   <si>
-    <t>IED M and A</t>
-  </si>
-  <si>
-    <t>IED green or semi</t>
-  </si>
-  <si>
-    <t>cuenta corriente</t>
-  </si>
-  <si>
-    <t>cuenta financiera</t>
-  </si>
-  <si>
-    <t>transferencias</t>
-  </si>
-  <si>
-    <t>exportaciones</t>
-  </si>
-  <si>
-    <t>importaciones</t>
-  </si>
-  <si>
     <t>exportaciones por producto</t>
   </si>
   <si>
     <t>importaciones por producto</t>
   </si>
   <si>
-    <t>concentracion de exportaciones productos</t>
-  </si>
-  <si>
     <t>exportaciones por destino</t>
-  </si>
-  <si>
-    <t>concentracion de exportaciones destinos</t>
   </si>
   <si>
     <t>ABW Aruba </t>
@@ -1387,12 +1360,343 @@
 2000: CRI, PER
 2002: HND, NIC</t>
   </si>
+  <si>
+    <t>Reservas internacionales brutas</t>
+  </si>
+  <si>
+    <t>1960-2016</t>
+  </si>
+  <si>
+    <t>2000-2016: ARG, BOL, BRA, CHL, COL, CRI, SLV, GTM, MEX, NIC, PRY, PER, DOM, VEN
+2003: HND, PAN, URY</t>
+  </si>
+  <si>
+    <t>aklein</t>
+  </si>
+  <si>
+    <t>Reservas_Internacionales.xlsx</t>
+  </si>
+  <si>
+    <t>Reservas internacionales netas</t>
+  </si>
+  <si>
+    <t>importaciones por origen</t>
+  </si>
+  <si>
+    <t>1996-2006</t>
+  </si>
+  <si>
+    <t>ARG, BOL, BRA, CHL, COL, CRI, ECU, SLV, GTM,  HND, MEX, NIC, PER, PRY, URY, VEN</t>
+  </si>
+  <si>
+    <t>scastresana</t>
+  </si>
+  <si>
+    <t>expo_e_impo_por_destino_y_origen.xlsx</t>
+  </si>
+  <si>
+    <t>expo_e_impo_por_grupo_de_productos.xlsx</t>
+  </si>
+  <si>
+    <t>ARG, BOL, BRA, CHL, COL, CRI, ECU, SLV, GTM,  HND, MEX, NIC, PER, PRY, URY, DOM</t>
+  </si>
+  <si>
+    <t>Balanza de pagos, standard</t>
+  </si>
+  <si>
+    <t>1980-2016</t>
+  </si>
+  <si>
+    <t>ATG, ARG, BRB, BLZ, BOL, BRA, CHL, COL, CRI, DMA, ECU, SLV, GRD, GTM, GUY, HTI, HND, JAM, MEX, NIC, PAR, PRY, PER, DOM, KNA, LCA, TTO, URY, VEN</t>
+  </si>
+  <si>
+    <t>Antigua y Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belice</t>
+  </si>
+  <si>
+    <t>Bolivia (Estado Plurinacional de)</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haití</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Panamá</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Perú</t>
+  </si>
+  <si>
+    <t>República Dominicana</t>
+  </si>
+  <si>
+    <t>Saint Kitts y Nevis</t>
+  </si>
+  <si>
+    <t>San Vicente y las Granadinas</t>
+  </si>
+  <si>
+    <t>Santa Lucía</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Trinidad y Tabago</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Venezuela (República Bolivariana de)</t>
+  </si>
+  <si>
+    <t>ATG</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>BHS</t>
+  </si>
+  <si>
+    <t>BRB</t>
+  </si>
+  <si>
+    <t>BLZ</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>DMA</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>GRD</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>GUY</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>PRY</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>KNA</t>
+  </si>
+  <si>
+    <t>VCT</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>TTO</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>St. Lucia</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>St. Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>Venezuela, RB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1440,8 +1744,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF555555"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1472,8 +1789,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F8F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDFDFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1531,6 +1860,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCFD4D8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCFD4D8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1539,7 +1879,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1585,6 +1925,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1880,11 +2230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R294"/>
+  <dimension ref="A1:R293"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1935,13 +2284,13 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="K3" t="s">
         <v>30</v>
@@ -1970,25 +2319,25 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E5" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G5" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H5" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I5" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="11"/>
@@ -1998,31 +2347,31 @@
     </row>
     <row r="6" spans="1:18" ht="45">
       <c r="B6" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E6" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G6" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H6" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I6" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="11"/>
@@ -2032,31 +2381,31 @@
     </row>
     <row r="7" spans="1:18" ht="45">
       <c r="B7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="11"/>
@@ -2096,34 +2445,34 @@
     </row>
     <row r="11" spans="1:18" ht="60.75" thickBot="1">
       <c r="B11" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E11" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G11" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H11" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I11" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="K11" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="13"/>
@@ -2133,28 +2482,28 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
       <c r="B12" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D12" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E12" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G12" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H12" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I12" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="K12" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="13"/>
@@ -2164,31 +2513,31 @@
     </row>
     <row r="13" spans="1:18" ht="75.75" thickBot="1">
       <c r="B13" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D13" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E13" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G13" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H13" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I13" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="K13" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="13"/>
@@ -2198,28 +2547,28 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1">
       <c r="B14" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D14" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E14" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G14" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H14" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I14" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="K14" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="13"/>
@@ -2235,28 +2584,28 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E15" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F15" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G15" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H15" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I15" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="K15" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="13"/>
@@ -2266,34 +2615,34 @@
     </row>
     <row r="16" spans="1:18" ht="30.75" thickBot="1">
       <c r="B16" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E16" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F16" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G16" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H16" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I16" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="K16" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="13"/>
@@ -2303,34 +2652,34 @@
     </row>
     <row r="17" spans="2:18" ht="30.75" thickBot="1">
       <c r="B17" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E17" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F17" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G17" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H17" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I17" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="K17" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="13"/>
@@ -2346,28 +2695,28 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E18" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F18" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G18" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H18" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I18" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="K18" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="13"/>
@@ -2377,34 +2726,34 @@
     </row>
     <row r="19" spans="2:18" ht="30.75" thickBot="1">
       <c r="B19" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E19" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F19" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G19" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H19" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I19" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="K19" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="13"/>
@@ -2414,34 +2763,34 @@
     </row>
     <row r="20" spans="2:18" ht="30.75" thickBot="1">
       <c r="B20" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E20" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F20" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G20" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H20" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I20" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="K20" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N20" s="12"/>
       <c r="O20" s="13"/>
@@ -2451,34 +2800,34 @@
     </row>
     <row r="21" spans="2:18" ht="30.75" thickBot="1">
       <c r="B21" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E21" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F21" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G21" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H21" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I21" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="K21" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N21" s="12"/>
       <c r="O21" s="13"/>
@@ -2488,34 +2837,34 @@
     </row>
     <row r="22" spans="2:18" ht="30.75" thickBot="1">
       <c r="B22" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E22" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F22" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G22" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H22" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I22" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="K22" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N22" s="12"/>
       <c r="O22" s="13"/>
@@ -2531,28 +2880,28 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E23" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F23" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G23" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H23" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I23" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="K23" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N23" s="12"/>
       <c r="O23" s="13"/>
@@ -2568,28 +2917,28 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E24" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F24" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G24" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H24" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I24" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="K24" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N24" s="12"/>
       <c r="O24" s="13"/>
@@ -2658,31 +3007,31 @@
     </row>
     <row r="30" spans="2:18" ht="30.75" thickBot="1">
       <c r="B30" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E30" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G30" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H30" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I30" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="N30" s="12"/>
       <c r="O30" s="13"/>
@@ -2692,28 +3041,28 @@
     </row>
     <row r="31" spans="2:18" ht="15.75" thickBot="1">
       <c r="B31" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E31" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G31" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H31" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I31" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="N31" s="12"/>
       <c r="O31" s="13"/>
@@ -2723,31 +3072,31 @@
     </row>
     <row r="32" spans="2:18" ht="30.75" thickBot="1">
       <c r="B32" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E32" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G32" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H32" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I32" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="N32" s="12"/>
       <c r="O32" s="13"/>
@@ -2757,28 +3106,28 @@
     </row>
     <row r="33" spans="2:18" ht="15.75" thickBot="1">
       <c r="B33" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E33" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G33" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H33" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I33" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="N33" s="12"/>
       <c r="O33" s="13"/>
@@ -2794,28 +3143,28 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E34" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F34" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G34" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H34" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I34" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K34" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N34" s="12"/>
       <c r="O34" s="13"/>
@@ -2825,34 +3174,34 @@
     </row>
     <row r="35" spans="2:18" ht="15.75" thickBot="1">
       <c r="B35" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E35" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F35" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G35" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H35" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I35" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K35" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N35" s="12"/>
       <c r="O35" s="13"/>
@@ -2862,34 +3211,34 @@
     </row>
     <row r="36" spans="2:18" ht="15.75" thickBot="1">
       <c r="B36" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E36" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F36" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G36" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H36" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I36" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K36" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N36" s="12"/>
       <c r="O36" s="13"/>
@@ -2905,28 +3254,28 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E37" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F37" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G37" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H37" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I37" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K37" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="13"/>
@@ -2936,34 +3285,34 @@
     </row>
     <row r="38" spans="2:18" ht="15.75" thickBot="1">
       <c r="B38" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E38" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F38" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G38" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H38" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I38" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K38" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N38" s="12"/>
       <c r="O38" s="13"/>
@@ -2973,34 +3322,34 @@
     </row>
     <row r="39" spans="2:18" ht="15.75" thickBot="1">
       <c r="B39" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E39" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F39" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G39" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H39" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I39" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K39" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N39" s="12"/>
       <c r="O39" s="13"/>
@@ -3010,34 +3359,34 @@
     </row>
     <row r="40" spans="2:18" ht="15.75" thickBot="1">
       <c r="B40" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E40" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F40" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G40" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H40" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I40" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K40" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="13"/>
@@ -3047,34 +3396,34 @@
     </row>
     <row r="41" spans="2:18" ht="15.75" thickBot="1">
       <c r="B41" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E41" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F41" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G41" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H41" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I41" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K41" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N41" s="12"/>
       <c r="O41" s="13"/>
@@ -3090,28 +3439,28 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E42" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F42" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G42" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H42" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I42" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K42" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N42" s="12"/>
       <c r="O42" s="13"/>
@@ -3127,28 +3476,28 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E43" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F43" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G43" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H43" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I43" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K43" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N43" s="12"/>
       <c r="O43" s="13"/>
@@ -3171,25 +3520,25 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E45" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G45" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H45" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I45" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="N45" s="12"/>
       <c r="O45" s="13"/>
@@ -3199,31 +3548,31 @@
     </row>
     <row r="46" spans="2:18" ht="60.75" thickBot="1">
       <c r="B46" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E46" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="G46" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H46" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I46" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="N46" s="12"/>
       <c r="O46" s="13"/>
@@ -3233,31 +3582,31 @@
     </row>
     <row r="47" spans="2:18" ht="60.75" thickBot="1">
       <c r="B47" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E47" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="G47" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H47" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I47" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="N47" s="12"/>
       <c r="O47" s="13"/>
@@ -3297,28 +3646,28 @@
     </row>
     <row r="51" spans="2:18" ht="90.75" thickBot="1">
       <c r="B51" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D51" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E51" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G51" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H51" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I51" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="N51" s="12"/>
       <c r="O51" s="13"/>
@@ -3328,25 +3677,25 @@
     </row>
     <row r="52" spans="2:18" ht="15.75" thickBot="1">
       <c r="B52" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D52" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E52" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G52" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H52" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I52" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="N52" s="12"/>
       <c r="O52" s="13"/>
@@ -3356,28 +3705,28 @@
     </row>
     <row r="53" spans="2:18" ht="90.75" thickBot="1">
       <c r="B53" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D53" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E53" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="G53" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H53" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I53" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="N53" s="12"/>
       <c r="O53" s="13"/>
@@ -3387,25 +3736,25 @@
     </row>
     <row r="54" spans="2:18" ht="15.75" thickBot="1">
       <c r="B54" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D54" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E54" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G54" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H54" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I54" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="N54" s="12"/>
       <c r="O54" s="13"/>
@@ -3415,34 +3764,34 @@
     </row>
     <row r="55" spans="2:18" ht="15.75" thickBot="1">
       <c r="B55" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E55" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I55" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K55" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N55" s="12"/>
       <c r="O55" s="13"/>
@@ -3452,22 +3801,22 @@
     </row>
     <row r="56" spans="2:18" ht="15.75" thickBot="1">
       <c r="B56" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E56" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
       <c r="I56" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J56" s="3"/>
       <c r="N56" s="12"/>
@@ -3478,22 +3827,22 @@
     </row>
     <row r="57" spans="2:18" ht="15.75" thickBot="1">
       <c r="B57" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E57" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
       <c r="I57" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J57" s="3"/>
       <c r="N57" s="12"/>
@@ -3504,34 +3853,34 @@
     </row>
     <row r="58" spans="2:18" ht="15.75" thickBot="1">
       <c r="B58" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E58" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I58" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K58" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N58" s="12"/>
       <c r="O58" s="13"/>
@@ -3541,34 +3890,34 @@
     </row>
     <row r="59" spans="2:18" ht="15.75" thickBot="1">
       <c r="B59" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E59" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I59" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K59" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N59" s="12"/>
       <c r="O59" s="13"/>
@@ -3578,22 +3927,22 @@
     </row>
     <row r="60" spans="2:18" ht="15.75" thickBot="1">
       <c r="B60" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E60" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
       <c r="I60" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J60" s="3"/>
       <c r="N60" s="12"/>
@@ -3604,34 +3953,34 @@
     </row>
     <row r="61" spans="2:18" ht="15.75" thickBot="1">
       <c r="B61" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E61" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I61" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K61" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N61" s="12"/>
       <c r="O61" s="13"/>
@@ -3641,34 +3990,34 @@
     </row>
     <row r="62" spans="2:18" ht="15.75" thickBot="1">
       <c r="B62" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E62" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I62" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K62" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N62" s="12"/>
       <c r="O62" s="13"/>
@@ -3684,28 +4033,28 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E63" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I63" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K63" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N63" s="10"/>
       <c r="O63" s="11"/>
@@ -3715,34 +4064,34 @@
     </row>
     <row r="64" spans="2:18" ht="15.75" thickBot="1">
       <c r="B64" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E64" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I64" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K64" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N64" s="12"/>
       <c r="O64" s="13"/>
@@ -3759,7 +4108,7 @@
     </row>
     <row r="66" spans="2:18" ht="15.75" thickBot="1">
       <c r="B66" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="N66" s="12"/>
       <c r="O66" s="13"/>
@@ -3769,7 +4118,7 @@
     </row>
     <row r="67" spans="2:18" ht="15.75" thickBot="1">
       <c r="B67" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="N67" s="12"/>
       <c r="O67" s="13"/>
@@ -3779,7 +4128,7 @@
     </row>
     <row r="68" spans="2:18" ht="15.75" thickBot="1">
       <c r="B68" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="N68" s="12"/>
       <c r="O68" s="13"/>
@@ -3789,7 +4138,7 @@
     </row>
     <row r="69" spans="2:18" ht="15.75" thickBot="1">
       <c r="B69" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="N69" s="12"/>
       <c r="O69" s="13"/>
@@ -3799,7 +4148,7 @@
     </row>
     <row r="70" spans="2:18" ht="15.75" thickBot="1">
       <c r="B70" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="N70" s="12"/>
       <c r="O70" s="13"/>
@@ -3809,7 +4158,7 @@
     </row>
     <row r="71" spans="2:18" ht="15.75" thickBot="1">
       <c r="B71" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="N71" s="12"/>
       <c r="O71" s="13"/>
@@ -3819,7 +4168,7 @@
     </row>
     <row r="72" spans="2:18" ht="15.75" thickBot="1">
       <c r="B72" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="N72" s="12"/>
       <c r="O72" s="13"/>
@@ -3829,7 +4178,7 @@
     </row>
     <row r="73" spans="2:18" ht="15.75" thickBot="1">
       <c r="B73" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="N73" s="12"/>
       <c r="O73" s="13"/>
@@ -3839,7 +4188,7 @@
     </row>
     <row r="74" spans="2:18" ht="15.75" thickBot="1">
       <c r="B74" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="N74" s="12"/>
       <c r="O74" s="13"/>
@@ -3859,7 +4208,7 @@
     </row>
     <row r="76" spans="2:18" ht="15.75" thickBot="1">
       <c r="B76" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="N76" s="12"/>
       <c r="O76" s="13"/>
@@ -3869,7 +4218,7 @@
     </row>
     <row r="77" spans="2:18" ht="15.75" thickBot="1">
       <c r="B77" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="N77" s="12"/>
       <c r="O77" s="13"/>
@@ -3879,7 +4228,7 @@
     </row>
     <row r="78" spans="2:18" ht="15.75" thickBot="1">
       <c r="B78" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="N78" s="12"/>
       <c r="O78" s="13"/>
@@ -3896,31 +4245,31 @@
     </row>
     <row r="80" spans="2:18" ht="75.75" thickBot="1">
       <c r="B80" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E80" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G80" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H80" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I80" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="N80" s="12"/>
       <c r="O80" s="13"/>
@@ -3930,31 +4279,31 @@
     </row>
     <row r="81" spans="1:18" ht="75.75" thickBot="1">
       <c r="B81" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E81" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G81" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H81" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I81" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="N81" s="12"/>
       <c r="O81" s="13"/>
@@ -3964,31 +4313,31 @@
     </row>
     <row r="82" spans="1:18" ht="75.75" thickBot="1">
       <c r="B82" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E82" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G82" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H82" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I82" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="N82" s="12"/>
       <c r="O82" s="13"/>
@@ -4049,25 +4398,25 @@
         <v>1</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="I89" s="15" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J89" s="18" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="N89" s="1"/>
     </row>
@@ -4115,13 +4464,13 @@
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E96" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="N96" s="1"/>
     </row>
@@ -4259,46 +4608,46 @@
     </row>
     <row r="120" spans="1:14">
       <c r="B120" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F120" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="J120" s="18" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="N120" s="1"/>
     </row>
     <row r="121" spans="1:14" ht="90">
       <c r="B121" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G121" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="H121" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="I121" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="J121" s="18" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="N121" s="1"/>
     </row>
@@ -4332,27 +4681,27 @@
       </c>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="1:14" ht="195">
+    <row r="127" spans="1:14" ht="180">
       <c r="B127" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="E127" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G127" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="H127" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="N127" s="1"/>
     </row>
@@ -4402,90 +4751,210 @@
       <c r="N135" s="1"/>
     </row>
     <row r="136" spans="1:14">
-      <c r="A136" t="s">
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="N137" s="1"/>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="N139" s="1"/>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143" t="s">
         <v>77</v>
-      </c>
-      <c r="N136" s="1"/>
-    </row>
-    <row r="137" spans="1:14">
-      <c r="B137" t="s">
-        <v>53</v>
-      </c>
-      <c r="N137" s="1"/>
-    </row>
-    <row r="138" spans="1:14">
-      <c r="B138" t="s">
-        <v>78</v>
-      </c>
-      <c r="N138" s="1"/>
-    </row>
-    <row r="139" spans="1:14">
-      <c r="B139" t="s">
-        <v>79</v>
-      </c>
-      <c r="N139" s="1"/>
-    </row>
-    <row r="140" spans="1:14">
-      <c r="B140" t="s">
-        <v>80</v>
-      </c>
-      <c r="N140" s="1"/>
-    </row>
-    <row r="141" spans="1:14">
-      <c r="B141" t="s">
-        <v>81</v>
-      </c>
-      <c r="N141" s="1"/>
-    </row>
-    <row r="142" spans="1:14">
-      <c r="B142" t="s">
-        <v>82</v>
-      </c>
-      <c r="N142" s="1"/>
-    </row>
-    <row r="143" spans="1:14">
-      <c r="B143" t="s">
-        <v>83</v>
       </c>
       <c r="N143" s="1"/>
     </row>
     <row r="144" spans="1:14">
       <c r="B144" t="s">
-        <v>84</v>
+        <v>441</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144" t="s">
+        <v>442</v>
+      </c>
+      <c r="E144" t="s">
+        <v>343</v>
+      </c>
+      <c r="F144" t="s">
+        <v>443</v>
       </c>
       <c r="N144" s="1"/>
     </row>
     <row r="145" spans="2:14">
       <c r="B145" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145" t="s">
+        <v>435</v>
+      </c>
+      <c r="E145" t="s">
+        <v>397</v>
+      </c>
+      <c r="F145" t="s">
+        <v>440</v>
+      </c>
+      <c r="G145" t="s">
+        <v>437</v>
+      </c>
+      <c r="H145" t="s">
+        <v>409</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="N145" s="1"/>
     </row>
     <row r="146" spans="2:14">
       <c r="B146" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>435</v>
+      </c>
+      <c r="E146" t="s">
+        <v>397</v>
+      </c>
+      <c r="F146" t="s">
+        <v>440</v>
+      </c>
+      <c r="G146" t="s">
+        <v>437</v>
+      </c>
+      <c r="H146" t="s">
+        <v>409</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="N146" s="1"/>
     </row>
     <row r="147" spans="2:14">
       <c r="B147" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>435</v>
+      </c>
+      <c r="E147" t="s">
+        <v>397</v>
+      </c>
+      <c r="F147" t="s">
+        <v>436</v>
+      </c>
+      <c r="G147" t="s">
+        <v>437</v>
+      </c>
+      <c r="H147" t="s">
+        <v>409</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="N147" s="1"/>
     </row>
     <row r="148" spans="2:14">
       <c r="B148" t="s">
-        <v>88</v>
+        <v>434</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" t="s">
+        <v>435</v>
+      </c>
+      <c r="E148" t="s">
+        <v>397</v>
+      </c>
+      <c r="F148" t="s">
+        <v>436</v>
+      </c>
+      <c r="G148" t="s">
+        <v>437</v>
+      </c>
+      <c r="H148" t="s">
+        <v>409</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="2:14">
+    <row r="149" spans="2:14" ht="45">
       <c r="B149" t="s">
-        <v>89</v>
+        <v>428</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>429</v>
+      </c>
+      <c r="E149" t="s">
+        <v>397</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G149" t="s">
+        <v>431</v>
+      </c>
+      <c r="H149" t="s">
+        <v>409</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="2:14">
+    <row r="150" spans="2:14" ht="45">
+      <c r="B150" t="s">
+        <v>433</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>429</v>
+      </c>
+      <c r="E150" t="s">
+        <v>397</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G150" t="s">
+        <v>431</v>
+      </c>
+      <c r="H150" t="s">
+        <v>409</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="N150" s="1"/>
     </row>
     <row r="151" spans="2:14">
@@ -4916,9 +5385,6 @@
     </row>
     <row r="293" spans="14:14">
       <c r="N293" s="1"/>
-    </row>
-    <row r="294" spans="14:14">
-      <c r="N294" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4956,9 +5422,15 @@
     <hyperlink ref="J82" r:id="rId32"/>
     <hyperlink ref="J80" r:id="rId33"/>
     <hyperlink ref="J81" r:id="rId34"/>
+    <hyperlink ref="I149" r:id="rId35"/>
+    <hyperlink ref="I150" r:id="rId36"/>
+    <hyperlink ref="I147" r:id="rId37"/>
+    <hyperlink ref="I148" r:id="rId38"/>
+    <hyperlink ref="I145" r:id="rId39"/>
+    <hyperlink ref="I146" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
 
@@ -4974,1232 +5446,1232 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -6210,12 +6682,587 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A1" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A2" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A3" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A4" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A5" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A6" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A7" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="K7" s="22">
+        <v>24</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A8" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="K8" s="22">
+        <v>27</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A9" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="K9" s="22">
+        <v>25</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A10" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="K10" s="22">
+        <v>26</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A11" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="K11" s="22">
+        <v>20</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A12" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="K12" s="22">
+        <v>21</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A13" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="K13" s="22">
+        <v>32</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A14" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="K14" s="22">
+        <v>29</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A15" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="K15" s="22">
+        <v>30</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A16" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="K16" s="22">
+        <v>31</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A17" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="K17" s="22">
+        <v>33</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A18" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A19" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A20" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A21" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A23" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A24" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A25" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A26" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>476</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/data_availability.xlsx
+++ b/data/data_availability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="18405" windowHeight="12120" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28860" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="datos_disp_features" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="561">
   <si>
     <t>Fiscal</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>Indices de actividad industrial</t>
-  </si>
-  <si>
-    <t>Desempleo</t>
   </si>
   <si>
     <t>Subempleo</t>
@@ -1690,6 +1687,88 @@
   </si>
   <si>
     <t>Venezuela, RB</t>
+  </si>
+  <si>
+    <t>2000-2016</t>
+  </si>
+  <si>
+    <t>2000-2016: all but BHS and BLZ
+ARG, BRB, BOL, BRA, CHL, COL, CRI, DMA, ECU, SLV, GTM, HTI, HND, JAM, MEX, NIC, PAN, PRY, PER, DOM, URY, VEN, SUR, GUY</t>
+  </si>
+  <si>
+    <t>Tipos_de_cambio_Nominal_Dolar_mensual_y_diario.xlsx</t>
+  </si>
+  <si>
+    <t>deuda externa total</t>
+  </si>
+  <si>
+    <t>deuda externa total privada</t>
+  </si>
+  <si>
+    <t>deuda external total publica</t>
+  </si>
+  <si>
+    <t>2008-2015</t>
+  </si>
+  <si>
+    <t>jweller</t>
+  </si>
+  <si>
+    <t>anexos_EE16_espanol_v.2.xlsx</t>
+  </si>
+  <si>
+    <t>2011-2016</t>
+  </si>
+  <si>
+    <t>A and Q</t>
+  </si>
+  <si>
+    <t>2011-2016: BRB, BOL, BRA, CHL, COL, CRI, DMA, ECU, SLV, GTM, HND, JAM, MEX, NIC, PAN, PRY, PER, DOM, TTO, URY
+2011-2013: VEN</t>
+  </si>
+  <si>
+    <t>Tasa de Participacion (medias, anuales)</t>
+  </si>
+  <si>
+    <t>2009-2015</t>
+  </si>
+  <si>
+    <t>Tasa de Participacion Mujeres (medias, anuales)</t>
+  </si>
+  <si>
+    <t>Tasa de Participacion Hombres (medias, anuales)</t>
+  </si>
+  <si>
+    <t>2009-2015: ARG, BRB, CHL, COL, CRI, ECU, SLV,  HND, JAM, MEX, PAN, PRI, PER, DOM, TTO, URY, VEN
+2009, 2011-2015: BHS, BOL, BRA
+2010-2015: GTM
+2012-205: BLZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-2015: ARG, BRB, CHL, COL, CRI, ECU, SLV,  HND, JAM, MEX, PAN, PRI, PER, DOM, TTO, URY, VEN
+2009, 2011-2015: BOL, BRA
+2010-2015: GTM
+2012-205: BHS, BLZ </t>
+  </si>
+  <si>
+    <t>Desempleo urbano abierto</t>
+  </si>
+  <si>
+    <t>2008-2015: ARG, BHS, BRB, BLZ, BOL, BRA, CHL, COL, CRI, ECU,GTM, HND, JAM, MEX, PAN, PRY, PER, DOM, URY, VEN
+2008-2015: CUB, SLV, NIC</t>
+  </si>
+  <si>
+    <t>2008-2015: ARG, BRA, CHL, COL, CRI, ECU, SLV, HND, MEX, PAN, PRY, PER, URY</t>
+  </si>
+  <si>
+    <t>empleo registrado</t>
+  </si>
+  <si>
+    <t>2007-2015</t>
+  </si>
+  <si>
+    <t>2007-2015: ARG, BRA, CHL, CRI, SLV, GTM, MEX, NIC, PAN, PER, URY
+2007-2013: JAM</t>
   </si>
 </sst>
 </file>
@@ -2230,10 +2309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R293"/>
+  <dimension ref="A1:R301"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2284,13 +2363,13 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K3" t="s">
         <v>30</v>
@@ -2319,25 +2398,25 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E5" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G5" t="s">
         <v>343</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" t="s">
+        <v>393</v>
+      </c>
+      <c r="I5" t="s">
+        <v>346</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="G5" t="s">
-        <v>344</v>
-      </c>
-      <c r="H5" t="s">
-        <v>394</v>
-      </c>
-      <c r="I5" t="s">
-        <v>347</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="11"/>
@@ -2347,31 +2426,31 @@
     </row>
     <row r="6" spans="1:18" ht="45">
       <c r="B6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G6" t="s">
         <v>343</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="G6" t="s">
-        <v>344</v>
-      </c>
-      <c r="H6" t="s">
-        <v>394</v>
-      </c>
-      <c r="I6" t="s">
-        <v>347</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="11"/>
@@ -2381,31 +2460,31 @@
     </row>
     <row r="7" spans="1:18" ht="45">
       <c r="B7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G7" t="s">
         <v>343</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I7" t="s">
+        <v>346</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="G7" t="s">
-        <v>344</v>
-      </c>
-      <c r="H7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I7" t="s">
-        <v>347</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="11"/>
@@ -2445,34 +2524,34 @@
     </row>
     <row r="11" spans="1:18" ht="60.75" thickBot="1">
       <c r="B11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E11" t="s">
+        <v>342</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G11" t="s">
         <v>343</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="G11" t="s">
-        <v>344</v>
-      </c>
       <c r="H11" t="s">
+        <v>345</v>
+      </c>
+      <c r="I11" t="s">
         <v>346</v>
       </c>
-      <c r="I11" t="s">
-        <v>347</v>
-      </c>
       <c r="J11" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="13"/>
@@ -2482,28 +2561,28 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
       <c r="B12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E12" t="s">
+        <v>342</v>
+      </c>
+      <c r="G12" t="s">
         <v>343</v>
       </c>
-      <c r="G12" t="s">
-        <v>344</v>
-      </c>
       <c r="H12" t="s">
+        <v>345</v>
+      </c>
+      <c r="I12" t="s">
         <v>346</v>
       </c>
-      <c r="I12" t="s">
-        <v>347</v>
-      </c>
       <c r="J12" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="13"/>
@@ -2513,31 +2592,31 @@
     </row>
     <row r="13" spans="1:18" ht="75.75" thickBot="1">
       <c r="B13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D13" t="s">
+        <v>373</v>
+      </c>
+      <c r="E13" t="s">
+        <v>342</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>343</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G13" t="s">
-        <v>344</v>
-      </c>
       <c r="H13" t="s">
+        <v>345</v>
+      </c>
+      <c r="I13" t="s">
         <v>346</v>
       </c>
-      <c r="I13" t="s">
-        <v>347</v>
-      </c>
       <c r="J13" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="13"/>
@@ -2547,28 +2626,28 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1">
       <c r="B14" t="s">
+        <v>372</v>
+      </c>
+      <c r="D14" t="s">
         <v>373</v>
       </c>
-      <c r="D14" t="s">
-        <v>374</v>
-      </c>
       <c r="E14" t="s">
+        <v>342</v>
+      </c>
+      <c r="G14" t="s">
         <v>343</v>
       </c>
-      <c r="G14" t="s">
-        <v>344</v>
-      </c>
       <c r="H14" t="s">
+        <v>345</v>
+      </c>
+      <c r="I14" t="s">
         <v>346</v>
       </c>
-      <c r="I14" t="s">
-        <v>347</v>
-      </c>
       <c r="J14" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="13"/>
@@ -2584,28 +2663,28 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" t="s">
         <v>342</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>349</v>
+      </c>
+      <c r="G15" t="s">
         <v>343</v>
       </c>
-      <c r="F15" t="s">
-        <v>350</v>
-      </c>
-      <c r="G15" t="s">
-        <v>344</v>
-      </c>
       <c r="H15" t="s">
+        <v>345</v>
+      </c>
+      <c r="I15" t="s">
         <v>346</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" t="s">
         <v>348</v>
-      </c>
-      <c r="K15" t="s">
-        <v>349</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="13"/>
@@ -2615,34 +2694,34 @@
     </row>
     <row r="16" spans="1:18" ht="30.75" thickBot="1">
       <c r="B16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E16" t="s">
         <v>342</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G16" t="s">
         <v>343</v>
       </c>
-      <c r="F16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G16" t="s">
-        <v>344</v>
-      </c>
       <c r="H16" t="s">
+        <v>345</v>
+      </c>
+      <c r="I16" t="s">
         <v>346</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" t="s">
         <v>348</v>
-      </c>
-      <c r="K16" t="s">
-        <v>349</v>
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="13"/>
@@ -2652,34 +2731,34 @@
     </row>
     <row r="17" spans="2:18" ht="30.75" thickBot="1">
       <c r="B17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E17" t="s">
         <v>342</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>349</v>
+      </c>
+      <c r="G17" t="s">
         <v>343</v>
       </c>
-      <c r="F17" t="s">
-        <v>350</v>
-      </c>
-      <c r="G17" t="s">
-        <v>344</v>
-      </c>
       <c r="H17" t="s">
+        <v>345</v>
+      </c>
+      <c r="I17" t="s">
         <v>346</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" t="s">
         <v>348</v>
-      </c>
-      <c r="K17" t="s">
-        <v>349</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="13"/>
@@ -2695,28 +2774,28 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E18" t="s">
         <v>342</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>349</v>
+      </c>
+      <c r="G18" t="s">
         <v>343</v>
       </c>
-      <c r="F18" t="s">
-        <v>350</v>
-      </c>
-      <c r="G18" t="s">
-        <v>344</v>
-      </c>
       <c r="H18" t="s">
+        <v>345</v>
+      </c>
+      <c r="I18" t="s">
         <v>346</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" t="s">
         <v>348</v>
-      </c>
-      <c r="K18" t="s">
-        <v>349</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="13"/>
@@ -2726,34 +2805,34 @@
     </row>
     <row r="19" spans="2:18" ht="30.75" thickBot="1">
       <c r="B19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E19" t="s">
         <v>342</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
+        <v>349</v>
+      </c>
+      <c r="G19" t="s">
         <v>343</v>
       </c>
-      <c r="F19" t="s">
-        <v>350</v>
-      </c>
-      <c r="G19" t="s">
-        <v>344</v>
-      </c>
       <c r="H19" t="s">
+        <v>345</v>
+      </c>
+      <c r="I19" t="s">
         <v>346</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" t="s">
         <v>348</v>
-      </c>
-      <c r="K19" t="s">
-        <v>349</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="13"/>
@@ -2763,34 +2842,34 @@
     </row>
     <row r="20" spans="2:18" ht="30.75" thickBot="1">
       <c r="B20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E20" t="s">
         <v>342</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>349</v>
+      </c>
+      <c r="G20" t="s">
         <v>343</v>
       </c>
-      <c r="F20" t="s">
-        <v>350</v>
-      </c>
-      <c r="G20" t="s">
-        <v>344</v>
-      </c>
       <c r="H20" t="s">
+        <v>345</v>
+      </c>
+      <c r="I20" t="s">
         <v>346</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" t="s">
         <v>348</v>
-      </c>
-      <c r="K20" t="s">
-        <v>349</v>
       </c>
       <c r="N20" s="12"/>
       <c r="O20" s="13"/>
@@ -2800,34 +2879,34 @@
     </row>
     <row r="21" spans="2:18" ht="30.75" thickBot="1">
       <c r="B21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E21" t="s">
         <v>342</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>349</v>
+      </c>
+      <c r="G21" t="s">
         <v>343</v>
       </c>
-      <c r="F21" t="s">
-        <v>350</v>
-      </c>
-      <c r="G21" t="s">
-        <v>344</v>
-      </c>
       <c r="H21" t="s">
+        <v>345</v>
+      </c>
+      <c r="I21" t="s">
         <v>346</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" t="s">
         <v>348</v>
-      </c>
-      <c r="K21" t="s">
-        <v>349</v>
       </c>
       <c r="N21" s="12"/>
       <c r="O21" s="13"/>
@@ -2837,34 +2916,34 @@
     </row>
     <row r="22" spans="2:18" ht="30.75" thickBot="1">
       <c r="B22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E22" t="s">
         <v>342</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>349</v>
+      </c>
+      <c r="G22" t="s">
         <v>343</v>
       </c>
-      <c r="F22" t="s">
-        <v>350</v>
-      </c>
-      <c r="G22" t="s">
-        <v>344</v>
-      </c>
       <c r="H22" t="s">
+        <v>345</v>
+      </c>
+      <c r="I22" t="s">
         <v>346</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" t="s">
         <v>348</v>
-      </c>
-      <c r="K22" t="s">
-        <v>349</v>
       </c>
       <c r="N22" s="12"/>
       <c r="O22" s="13"/>
@@ -2880,28 +2959,28 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E23" t="s">
         <v>342</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>349</v>
+      </c>
+      <c r="G23" t="s">
         <v>343</v>
       </c>
-      <c r="F23" t="s">
-        <v>350</v>
-      </c>
-      <c r="G23" t="s">
-        <v>344</v>
-      </c>
       <c r="H23" t="s">
+        <v>345</v>
+      </c>
+      <c r="I23" t="s">
         <v>346</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" t="s">
         <v>348</v>
-      </c>
-      <c r="K23" t="s">
-        <v>349</v>
       </c>
       <c r="N23" s="12"/>
       <c r="O23" s="13"/>
@@ -2917,28 +2996,28 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E24" t="s">
         <v>342</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>349</v>
+      </c>
+      <c r="G24" t="s">
         <v>343</v>
       </c>
-      <c r="F24" t="s">
-        <v>350</v>
-      </c>
-      <c r="G24" t="s">
-        <v>344</v>
-      </c>
       <c r="H24" t="s">
+        <v>345</v>
+      </c>
+      <c r="I24" t="s">
         <v>346</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" t="s">
         <v>348</v>
-      </c>
-      <c r="K24" t="s">
-        <v>349</v>
       </c>
       <c r="N24" s="12"/>
       <c r="O24" s="13"/>
@@ -3007,31 +3086,31 @@
     </row>
     <row r="30" spans="2:18" ht="30.75" thickBot="1">
       <c r="B30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E30" t="s">
+        <v>342</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G30" t="s">
         <v>343</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G30" t="s">
-        <v>344</v>
-      </c>
       <c r="H30" t="s">
+        <v>345</v>
+      </c>
+      <c r="I30" t="s">
         <v>346</v>
       </c>
-      <c r="I30" t="s">
-        <v>347</v>
-      </c>
       <c r="J30" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N30" s="12"/>
       <c r="O30" s="13"/>
@@ -3041,28 +3120,28 @@
     </row>
     <row r="31" spans="2:18" ht="15.75" thickBot="1">
       <c r="B31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E31" t="s">
+        <v>342</v>
+      </c>
+      <c r="G31" t="s">
         <v>343</v>
       </c>
-      <c r="G31" t="s">
-        <v>344</v>
-      </c>
       <c r="H31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I31" t="s">
         <v>346</v>
       </c>
-      <c r="I31" t="s">
-        <v>347</v>
-      </c>
       <c r="J31" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N31" s="12"/>
       <c r="O31" s="13"/>
@@ -3072,31 +3151,31 @@
     </row>
     <row r="32" spans="2:18" ht="30.75" thickBot="1">
       <c r="B32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E32" t="s">
+        <v>342</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G32" t="s">
         <v>343</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G32" t="s">
-        <v>344</v>
-      </c>
       <c r="H32" t="s">
+        <v>345</v>
+      </c>
+      <c r="I32" t="s">
         <v>346</v>
       </c>
-      <c r="I32" t="s">
-        <v>347</v>
-      </c>
       <c r="J32" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N32" s="12"/>
       <c r="O32" s="13"/>
@@ -3106,28 +3185,28 @@
     </row>
     <row r="33" spans="2:18" ht="15.75" thickBot="1">
       <c r="B33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E33" t="s">
+        <v>342</v>
+      </c>
+      <c r="G33" t="s">
         <v>343</v>
       </c>
-      <c r="G33" t="s">
-        <v>344</v>
-      </c>
       <c r="H33" t="s">
+        <v>345</v>
+      </c>
+      <c r="I33" t="s">
         <v>346</v>
       </c>
-      <c r="I33" t="s">
-        <v>347</v>
-      </c>
       <c r="J33" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N33" s="12"/>
       <c r="O33" s="13"/>
@@ -3143,28 +3222,28 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
+        <v>356</v>
+      </c>
+      <c r="E34" t="s">
+        <v>342</v>
+      </c>
+      <c r="F34" t="s">
         <v>357</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>343</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
+        <v>345</v>
+      </c>
+      <c r="I34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="G34" t="s">
-        <v>344</v>
-      </c>
-      <c r="H34" t="s">
-        <v>346</v>
-      </c>
-      <c r="I34" t="s">
-        <v>347</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="K34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N34" s="12"/>
       <c r="O34" s="13"/>
@@ -3174,34 +3253,34 @@
     </row>
     <row r="35" spans="2:18" ht="15.75" thickBot="1">
       <c r="B35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
+        <v>356</v>
+      </c>
+      <c r="E35" t="s">
+        <v>342</v>
+      </c>
+      <c r="F35" t="s">
         <v>357</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>343</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
+        <v>345</v>
+      </c>
+      <c r="I35" t="s">
+        <v>346</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="G35" t="s">
-        <v>344</v>
-      </c>
-      <c r="H35" t="s">
-        <v>346</v>
-      </c>
-      <c r="I35" t="s">
-        <v>347</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="K35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N35" s="12"/>
       <c r="O35" s="13"/>
@@ -3211,34 +3290,34 @@
     </row>
     <row r="36" spans="2:18" ht="15.75" thickBot="1">
       <c r="B36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
+        <v>356</v>
+      </c>
+      <c r="E36" t="s">
+        <v>342</v>
+      </c>
+      <c r="F36" t="s">
         <v>357</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>343</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
+        <v>345</v>
+      </c>
+      <c r="I36" t="s">
+        <v>346</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="G36" t="s">
-        <v>344</v>
-      </c>
-      <c r="H36" t="s">
-        <v>346</v>
-      </c>
-      <c r="I36" t="s">
-        <v>347</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="K36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N36" s="12"/>
       <c r="O36" s="13"/>
@@ -3254,28 +3333,28 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
+        <v>356</v>
+      </c>
+      <c r="E37" t="s">
+        <v>342</v>
+      </c>
+      <c r="F37" t="s">
         <v>357</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>343</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37" t="s">
+        <v>345</v>
+      </c>
+      <c r="I37" t="s">
+        <v>346</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="G37" t="s">
-        <v>344</v>
-      </c>
-      <c r="H37" t="s">
-        <v>346</v>
-      </c>
-      <c r="I37" t="s">
-        <v>347</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="K37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="13"/>
@@ -3285,34 +3364,34 @@
     </row>
     <row r="38" spans="2:18" ht="15.75" thickBot="1">
       <c r="B38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
+        <v>356</v>
+      </c>
+      <c r="E38" t="s">
+        <v>342</v>
+      </c>
+      <c r="F38" t="s">
         <v>357</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>343</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
+        <v>345</v>
+      </c>
+      <c r="I38" t="s">
+        <v>346</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="G38" t="s">
-        <v>344</v>
-      </c>
-      <c r="H38" t="s">
-        <v>346</v>
-      </c>
-      <c r="I38" t="s">
-        <v>347</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="K38" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N38" s="12"/>
       <c r="O38" s="13"/>
@@ -3322,34 +3401,34 @@
     </row>
     <row r="39" spans="2:18" ht="15.75" thickBot="1">
       <c r="B39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
+        <v>356</v>
+      </c>
+      <c r="E39" t="s">
+        <v>342</v>
+      </c>
+      <c r="F39" t="s">
         <v>357</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>343</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
+        <v>345</v>
+      </c>
+      <c r="I39" t="s">
+        <v>346</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="G39" t="s">
-        <v>344</v>
-      </c>
-      <c r="H39" t="s">
-        <v>346</v>
-      </c>
-      <c r="I39" t="s">
-        <v>347</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="K39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N39" s="12"/>
       <c r="O39" s="13"/>
@@ -3359,34 +3438,34 @@
     </row>
     <row r="40" spans="2:18" ht="15.75" thickBot="1">
       <c r="B40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
+        <v>356</v>
+      </c>
+      <c r="E40" t="s">
+        <v>342</v>
+      </c>
+      <c r="F40" t="s">
         <v>357</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>343</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
+        <v>345</v>
+      </c>
+      <c r="I40" t="s">
+        <v>346</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="G40" t="s">
-        <v>344</v>
-      </c>
-      <c r="H40" t="s">
-        <v>346</v>
-      </c>
-      <c r="I40" t="s">
-        <v>347</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="K40" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="13"/>
@@ -3396,34 +3475,34 @@
     </row>
     <row r="41" spans="2:18" ht="15.75" thickBot="1">
       <c r="B41" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
+        <v>356</v>
+      </c>
+      <c r="E41" t="s">
+        <v>342</v>
+      </c>
+      <c r="F41" t="s">
         <v>357</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>343</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
+        <v>345</v>
+      </c>
+      <c r="I41" t="s">
+        <v>346</v>
+      </c>
+      <c r="J41" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="G41" t="s">
-        <v>344</v>
-      </c>
-      <c r="H41" t="s">
-        <v>346</v>
-      </c>
-      <c r="I41" t="s">
-        <v>347</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="K41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N41" s="12"/>
       <c r="O41" s="13"/>
@@ -3439,28 +3518,28 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
+        <v>356</v>
+      </c>
+      <c r="E42" t="s">
+        <v>342</v>
+      </c>
+      <c r="F42" t="s">
         <v>357</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>343</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
+        <v>345</v>
+      </c>
+      <c r="I42" t="s">
+        <v>346</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="G42" t="s">
-        <v>344</v>
-      </c>
-      <c r="H42" t="s">
-        <v>346</v>
-      </c>
-      <c r="I42" t="s">
-        <v>347</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="K42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N42" s="12"/>
       <c r="O42" s="13"/>
@@ -3476,28 +3555,28 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
+        <v>356</v>
+      </c>
+      <c r="E43" t="s">
+        <v>342</v>
+      </c>
+      <c r="F43" t="s">
         <v>357</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>343</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
+        <v>345</v>
+      </c>
+      <c r="I43" t="s">
+        <v>346</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="G43" t="s">
-        <v>344</v>
-      </c>
-      <c r="H43" t="s">
-        <v>346</v>
-      </c>
-      <c r="I43" t="s">
-        <v>347</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="K43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N43" s="12"/>
       <c r="O43" s="13"/>
@@ -3520,25 +3599,25 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E45" t="s">
+        <v>342</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G45" t="s">
         <v>343</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="G45" t="s">
-        <v>344</v>
-      </c>
       <c r="H45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N45" s="12"/>
       <c r="O45" s="13"/>
@@ -3548,31 +3627,31 @@
     </row>
     <row r="46" spans="2:18" ht="60.75" thickBot="1">
       <c r="B46" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E46" t="s">
+        <v>342</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G46" t="s">
         <v>343</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="G46" t="s">
-        <v>344</v>
-      </c>
       <c r="H46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N46" s="12"/>
       <c r="O46" s="13"/>
@@ -3582,31 +3661,31 @@
     </row>
     <row r="47" spans="2:18" ht="60.75" thickBot="1">
       <c r="B47" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E47" t="s">
+        <v>342</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G47" t="s">
         <v>343</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="G47" t="s">
-        <v>344</v>
-      </c>
       <c r="H47" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N47" s="12"/>
       <c r="O47" s="13"/>
@@ -3646,28 +3725,28 @@
     </row>
     <row r="51" spans="2:18" ht="90.75" thickBot="1">
       <c r="B51" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D51" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E51" t="s">
+        <v>342</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G51" t="s">
         <v>343</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="G51" t="s">
-        <v>344</v>
-      </c>
       <c r="H51" t="s">
+        <v>345</v>
+      </c>
+      <c r="I51" t="s">
         <v>346</v>
       </c>
-      <c r="I51" t="s">
-        <v>347</v>
-      </c>
       <c r="J51" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N51" s="12"/>
       <c r="O51" s="13"/>
@@ -3677,25 +3756,25 @@
     </row>
     <row r="52" spans="2:18" ht="15.75" thickBot="1">
       <c r="B52" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E52" t="s">
+        <v>342</v>
+      </c>
+      <c r="G52" t="s">
         <v>343</v>
       </c>
-      <c r="G52" t="s">
-        <v>344</v>
-      </c>
       <c r="H52" t="s">
+        <v>345</v>
+      </c>
+      <c r="I52" t="s">
         <v>346</v>
       </c>
-      <c r="I52" t="s">
-        <v>347</v>
-      </c>
       <c r="J52" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N52" s="12"/>
       <c r="O52" s="13"/>
@@ -3705,28 +3784,28 @@
     </row>
     <row r="53" spans="2:18" ht="90.75" thickBot="1">
       <c r="B53" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E53" t="s">
+        <v>342</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G53" t="s">
         <v>343</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="H53" t="s">
+        <v>345</v>
+      </c>
+      <c r="I53" t="s">
+        <v>346</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="G53" t="s">
-        <v>344</v>
-      </c>
-      <c r="H53" t="s">
-        <v>346</v>
-      </c>
-      <c r="I53" t="s">
-        <v>347</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="N53" s="12"/>
       <c r="O53" s="13"/>
@@ -3736,25 +3815,25 @@
     </row>
     <row r="54" spans="2:18" ht="15.75" thickBot="1">
       <c r="B54" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E54" t="s">
+        <v>342</v>
+      </c>
+      <c r="G54" t="s">
         <v>343</v>
       </c>
-      <c r="G54" t="s">
-        <v>344</v>
-      </c>
       <c r="H54" t="s">
+        <v>345</v>
+      </c>
+      <c r="I54" t="s">
         <v>346</v>
       </c>
-      <c r="I54" t="s">
-        <v>347</v>
-      </c>
       <c r="J54" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N54" s="12"/>
       <c r="O54" s="13"/>
@@ -3764,34 +3843,34 @@
     </row>
     <row r="55" spans="2:18" ht="15.75" thickBot="1">
       <c r="B55" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F55" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="G55" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="H55" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="I55" t="s">
+        <v>346</v>
+      </c>
+      <c r="J55" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="I55" t="s">
-        <v>347</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>395</v>
-      </c>
       <c r="K55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N55" s="12"/>
       <c r="O55" s="13"/>
@@ -3801,22 +3880,22 @@
     </row>
     <row r="56" spans="2:18" ht="15.75" thickBot="1">
       <c r="B56" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E56" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
       <c r="I56" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J56" s="3"/>
       <c r="N56" s="12"/>
@@ -3827,22 +3906,22 @@
     </row>
     <row r="57" spans="2:18" ht="15.75" thickBot="1">
       <c r="B57" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E57" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
       <c r="I57" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J57" s="3"/>
       <c r="N57" s="12"/>
@@ -3853,34 +3932,34 @@
     </row>
     <row r="58" spans="2:18" ht="15.75" thickBot="1">
       <c r="B58" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F58" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="G58" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="G58" s="15" t="s">
+      <c r="H58" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="I58" t="s">
+        <v>346</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="I58" t="s">
-        <v>347</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>395</v>
-      </c>
       <c r="K58" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N58" s="12"/>
       <c r="O58" s="13"/>
@@ -3890,34 +3969,34 @@
     </row>
     <row r="59" spans="2:18" ht="15.75" thickBot="1">
       <c r="B59" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E59" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F59" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="G59" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="G59" s="15" t="s">
+      <c r="H59" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="H59" s="15" t="s">
+      <c r="I59" t="s">
+        <v>346</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="I59" t="s">
-        <v>347</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>395</v>
-      </c>
       <c r="K59" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N59" s="12"/>
       <c r="O59" s="13"/>
@@ -3927,22 +4006,22 @@
     </row>
     <row r="60" spans="2:18" ht="15.75" thickBot="1">
       <c r="B60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
       <c r="I60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J60" s="3"/>
       <c r="N60" s="12"/>
@@ -3953,34 +4032,34 @@
     </row>
     <row r="61" spans="2:18" ht="15.75" thickBot="1">
       <c r="B61" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F61" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="G61" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="G61" s="15" t="s">
+      <c r="H61" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="H61" s="15" t="s">
+      <c r="I61" t="s">
+        <v>346</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="I61" t="s">
-        <v>347</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>395</v>
-      </c>
       <c r="K61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N61" s="12"/>
       <c r="O61" s="13"/>
@@ -3990,34 +4069,34 @@
     </row>
     <row r="62" spans="2:18" ht="15.75" thickBot="1">
       <c r="B62" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E62" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F62" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="G62" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="G62" s="15" t="s">
+      <c r="H62" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="I62" t="s">
+        <v>346</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="I62" t="s">
-        <v>347</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>395</v>
-      </c>
       <c r="K62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N62" s="12"/>
       <c r="O62" s="13"/>
@@ -4033,28 +4112,28 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F63" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="G63" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="G63" s="15" t="s">
+      <c r="H63" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="H63" s="15" t="s">
+      <c r="I63" t="s">
+        <v>346</v>
+      </c>
+      <c r="J63" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="I63" t="s">
-        <v>347</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>395</v>
-      </c>
       <c r="K63" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N63" s="10"/>
       <c r="O63" s="11"/>
@@ -4064,34 +4143,34 @@
     </row>
     <row r="64" spans="2:18" ht="15.75" thickBot="1">
       <c r="B64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F64" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="G64" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="G64" s="15" t="s">
+      <c r="H64" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="H64" s="15" t="s">
+      <c r="I64" t="s">
+        <v>346</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="I64" t="s">
-        <v>347</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>395</v>
-      </c>
       <c r="K64" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N64" s="12"/>
       <c r="O64" s="13"/>
@@ -4108,7 +4187,7 @@
     </row>
     <row r="66" spans="2:18" ht="15.75" thickBot="1">
       <c r="B66" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N66" s="12"/>
       <c r="O66" s="13"/>
@@ -4118,7 +4197,7 @@
     </row>
     <row r="67" spans="2:18" ht="15.75" thickBot="1">
       <c r="B67" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N67" s="12"/>
       <c r="O67" s="13"/>
@@ -4128,7 +4207,7 @@
     </row>
     <row r="68" spans="2:18" ht="15.75" thickBot="1">
       <c r="B68" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N68" s="12"/>
       <c r="O68" s="13"/>
@@ -4138,7 +4217,7 @@
     </row>
     <row r="69" spans="2:18" ht="15.75" thickBot="1">
       <c r="B69" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N69" s="12"/>
       <c r="O69" s="13"/>
@@ -4148,7 +4227,7 @@
     </row>
     <row r="70" spans="2:18" ht="15.75" thickBot="1">
       <c r="B70" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N70" s="12"/>
       <c r="O70" s="13"/>
@@ -4158,7 +4237,7 @@
     </row>
     <row r="71" spans="2:18" ht="15.75" thickBot="1">
       <c r="B71" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N71" s="12"/>
       <c r="O71" s="13"/>
@@ -4168,7 +4247,7 @@
     </row>
     <row r="72" spans="2:18" ht="15.75" thickBot="1">
       <c r="B72" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N72" s="12"/>
       <c r="O72" s="13"/>
@@ -4178,7 +4257,7 @@
     </row>
     <row r="73" spans="2:18" ht="15.75" thickBot="1">
       <c r="B73" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N73" s="12"/>
       <c r="O73" s="13"/>
@@ -4188,7 +4267,7 @@
     </row>
     <row r="74" spans="2:18" ht="15.75" thickBot="1">
       <c r="B74" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N74" s="12"/>
       <c r="O74" s="13"/>
@@ -4208,7 +4287,7 @@
     </row>
     <row r="76" spans="2:18" ht="15.75" thickBot="1">
       <c r="B76" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N76" s="12"/>
       <c r="O76" s="13"/>
@@ -4218,7 +4297,7 @@
     </row>
     <row r="77" spans="2:18" ht="15.75" thickBot="1">
       <c r="B77" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N77" s="12"/>
       <c r="O77" s="13"/>
@@ -4228,7 +4307,7 @@
     </row>
     <row r="78" spans="2:18" ht="15.75" thickBot="1">
       <c r="B78" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N78" s="12"/>
       <c r="O78" s="13"/>
@@ -4245,31 +4324,31 @@
     </row>
     <row r="80" spans="2:18" ht="75.75" thickBot="1">
       <c r="B80" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E80" t="s">
+        <v>342</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G80" t="s">
         <v>343</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="G80" t="s">
-        <v>344</v>
-      </c>
       <c r="H80" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I80" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N80" s="12"/>
       <c r="O80" s="13"/>
@@ -4279,31 +4358,31 @@
     </row>
     <row r="81" spans="1:18" ht="75.75" thickBot="1">
       <c r="B81" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E81" t="s">
+        <v>342</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G81" t="s">
         <v>343</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="G81" t="s">
-        <v>344</v>
-      </c>
       <c r="H81" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I81" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N81" s="12"/>
       <c r="O81" s="13"/>
@@ -4313,31 +4392,31 @@
     </row>
     <row r="82" spans="1:18" ht="75.75" thickBot="1">
       <c r="B82" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E82" t="s">
+        <v>342</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G82" t="s">
         <v>343</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="G82" t="s">
-        <v>344</v>
-      </c>
       <c r="H82" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I82" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N82" s="12"/>
       <c r="O82" s="13"/>
@@ -4346,6 +4425,8 @@
       <c r="R82" s="13"/>
     </row>
     <row r="83" spans="1:18" ht="15.75" thickBot="1">
+      <c r="F83" s="2"/>
+      <c r="J83" s="3"/>
       <c r="N83" s="12"/>
       <c r="O83" s="13"/>
       <c r="P83" s="13"/>
@@ -4353,8 +4434,32 @@
       <c r="R83" s="13"/>
     </row>
     <row r="84" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A84" t="s">
-        <v>31</v>
+      <c r="B84" t="s">
+        <v>540</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>543</v>
+      </c>
+      <c r="E84" t="s">
+        <v>342</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G84" t="s">
+        <v>392</v>
+      </c>
+      <c r="H84" t="s">
+        <v>544</v>
+      </c>
+      <c r="I84" t="s">
+        <v>346</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="N84" s="12"/>
       <c r="O84" s="13"/>
@@ -4364,7 +4469,31 @@
     </row>
     <row r="85" spans="1:18" ht="15.75" thickBot="1">
       <c r="B85" t="s">
-        <v>34</v>
+        <v>542</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>543</v>
+      </c>
+      <c r="E85" t="s">
+        <v>342</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G85" t="s">
+        <v>392</v>
+      </c>
+      <c r="H85" t="s">
+        <v>544</v>
+      </c>
+      <c r="I85" t="s">
+        <v>346</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="N85" s="12"/>
       <c r="O85" s="13"/>
@@ -4372,619 +4501,788 @@
       <c r="Q85" s="13"/>
       <c r="R85" s="13"/>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" ht="15.75" thickBot="1">
       <c r="B86" t="s">
-        <v>35</v>
-      </c>
-      <c r="N86" s="1"/>
-    </row>
-    <row r="87" spans="1:18">
-      <c r="B87" t="s">
-        <v>32</v>
-      </c>
-      <c r="N87" s="1"/>
+        <v>541</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>543</v>
+      </c>
+      <c r="E86" t="s">
+        <v>342</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G86" t="s">
+        <v>392</v>
+      </c>
+      <c r="H86" t="s">
+        <v>544</v>
+      </c>
+      <c r="I86" t="s">
+        <v>346</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="N86" s="12"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13"/>
+      <c r="R86" s="13"/>
+    </row>
+    <row r="87" spans="1:18" ht="15.75" thickBot="1">
+      <c r="N87" s="12"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13"/>
     </row>
     <row r="88" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B88" t="s">
-        <v>33</v>
-      </c>
-      <c r="N88" s="1"/>
+      <c r="A88" t="s">
+        <v>31</v>
+      </c>
+      <c r="N88" s="12"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13"/>
+      <c r="R88" s="13"/>
     </row>
     <row r="89" spans="1:18" ht="15.75" thickBot="1">
       <c r="B89" t="s">
-        <v>36</v>
-      </c>
-      <c r="C89" s="17">
-        <v>1</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="H89" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="I89" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="J89" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="N89" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="N89" s="12"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="13"/>
     </row>
     <row r="90" spans="1:18">
       <c r="B90" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N90" s="1"/>
     </row>
     <row r="91" spans="1:18">
       <c r="B91" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" ht="15.75" thickBot="1">
       <c r="B92" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" ht="15.75" thickBot="1">
       <c r="B93" t="s">
-        <v>59</v>
+        <v>36</v>
+      </c>
+      <c r="C93" s="17">
+        <v>1</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="I93" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="J93" s="18" t="s">
+        <v>409</v>
       </c>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" ht="60">
       <c r="B94" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>537</v>
+      </c>
+      <c r="E94" t="s">
+        <v>396</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G94" t="s">
+        <v>392</v>
+      </c>
+      <c r="H94" t="s">
+        <v>430</v>
+      </c>
+      <c r="I94" t="s">
+        <v>346</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>539</v>
       </c>
       <c r="N94" s="1"/>
     </row>
     <row r="95" spans="1:18">
       <c r="B95" t="s">
+        <v>38</v>
+      </c>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="B96" t="s">
+        <v>57</v>
+      </c>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="1:14" ht="60">
+      <c r="B97" t="s">
+        <v>58</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>546</v>
+      </c>
+      <c r="E97" t="s">
+        <v>547</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="B98" t="s">
+        <v>39</v>
+      </c>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="B99" t="s">
         <v>40</v>
       </c>
-      <c r="N95" s="1"/>
-    </row>
-    <row r="96" spans="1:18" ht="30">
-      <c r="B96" t="s">
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="1:14" ht="30">
+      <c r="B100" t="s">
         <v>41</v>
       </c>
-      <c r="C96">
+      <c r="C100">
         <v>1</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D100" t="s">
+        <v>410</v>
+      </c>
+      <c r="E100" t="s">
+        <v>396</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="E96" t="s">
-        <v>397</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="N96" s="1"/>
-    </row>
-    <row r="97" spans="1:14">
-      <c r="B97" t="s">
-        <v>42</v>
-      </c>
-      <c r="N97" s="1"/>
-    </row>
-    <row r="98" spans="1:14">
-      <c r="N98" s="1"/>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99" t="s">
-        <v>43</v>
-      </c>
-      <c r="N99" s="1"/>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="B100" t="s">
-        <v>44</v>
       </c>
       <c r="N100" s="1"/>
     </row>
     <row r="101" spans="1:14">
       <c r="B101" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N101" s="1"/>
     </row>
     <row r="102" spans="1:14">
-      <c r="B102" t="s">
-        <v>46</v>
-      </c>
       <c r="N102" s="1"/>
     </row>
     <row r="103" spans="1:14">
-      <c r="B103" t="s">
-        <v>47</v>
+      <c r="A103" t="s">
+        <v>43</v>
       </c>
       <c r="N103" s="1"/>
     </row>
     <row r="104" spans="1:14">
       <c r="B104" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N104" s="1"/>
     </row>
     <row r="105" spans="1:14">
       <c r="B105" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" ht="90">
       <c r="B106" t="s">
-        <v>50</v>
+        <v>549</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>550</v>
+      </c>
+      <c r="E106" t="s">
+        <v>342</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>553</v>
       </c>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" ht="90">
       <c r="B107" t="s">
-        <v>51</v>
+        <v>551</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>550</v>
+      </c>
+      <c r="E107" t="s">
+        <v>342</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>554</v>
       </c>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" ht="90">
       <c r="B108" t="s">
-        <v>52</v>
+        <v>552</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>550</v>
+      </c>
+      <c r="E108" t="s">
+        <v>342</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>554</v>
       </c>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" ht="60">
       <c r="B109" t="s">
-        <v>53</v>
+        <v>555</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>543</v>
+      </c>
+      <c r="E109" t="s">
+        <v>342</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" ht="45">
       <c r="B110" t="s">
-        <v>54</v>
+        <v>558</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>559</v>
+      </c>
+      <c r="E110" t="s">
+        <v>342</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" ht="30">
       <c r="B111" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>543</v>
+      </c>
+      <c r="E111" t="s">
+        <v>342</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="N111" s="1"/>
     </row>
     <row r="112" spans="1:14">
       <c r="B112" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="N112" s="1"/>
     </row>
     <row r="113" spans="1:14">
       <c r="B113" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="N113" s="1"/>
     </row>
     <row r="114" spans="1:14">
       <c r="B114" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="N114" s="1"/>
     </row>
     <row r="115" spans="1:14">
       <c r="B115" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N115" s="1"/>
     </row>
     <row r="116" spans="1:14">
+      <c r="B116" t="s">
+        <v>51</v>
+      </c>
       <c r="N116" s="1"/>
     </row>
     <row r="117" spans="1:14">
-      <c r="A117" t="s">
-        <v>56</v>
+      <c r="B117" t="s">
+        <v>52</v>
       </c>
       <c r="N117" s="1"/>
     </row>
     <row r="118" spans="1:14">
       <c r="B118" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N118" s="1"/>
     </row>
     <row r="119" spans="1:14">
       <c r="B119" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N119" s="1"/>
     </row>
     <row r="120" spans="1:14">
       <c r="B120" t="s">
-        <v>406</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="E120" t="s">
-        <v>404</v>
-      </c>
-      <c r="F120" t="s">
-        <v>408</v>
-      </c>
-      <c r="J120" s="18" t="s">
-        <v>410</v>
+        <v>61</v>
       </c>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="1:14" ht="90">
+    <row r="121" spans="1:14">
       <c r="B121" t="s">
-        <v>407</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="E121" t="s">
-        <v>404</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G121" t="s">
-        <v>393</v>
-      </c>
-      <c r="H121" t="s">
-        <v>399</v>
-      </c>
-      <c r="I121" t="s">
-        <v>409</v>
-      </c>
-      <c r="J121" s="18" t="s">
-        <v>410</v>
+        <v>62</v>
       </c>
       <c r="N121" s="1"/>
     </row>
     <row r="122" spans="1:14">
       <c r="B122" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N122" s="1"/>
     </row>
     <row r="123" spans="1:14">
       <c r="B123" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N123" s="1"/>
     </row>
     <row r="124" spans="1:14">
-      <c r="B124" t="s">
-        <v>67</v>
-      </c>
       <c r="N124" s="1"/>
     </row>
     <row r="125" spans="1:14">
-      <c r="B125" t="s">
-        <v>68</v>
+      <c r="A125" t="s">
+        <v>55</v>
       </c>
       <c r="N125" s="1"/>
     </row>
     <row r="126" spans="1:14">
       <c r="B126" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="1:14" ht="180">
+    <row r="127" spans="1:14">
       <c r="B127" t="s">
-        <v>400</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127" t="s">
-        <v>401</v>
-      </c>
-      <c r="E127" t="s">
-        <v>402</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="G127" t="s">
-        <v>393</v>
-      </c>
-      <c r="H127" t="s">
-        <v>399</v>
+        <v>56</v>
       </c>
       <c r="N127" s="1"/>
     </row>
     <row r="128" spans="1:14">
       <c r="B128" t="s">
+        <v>405</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>403</v>
+      </c>
+      <c r="F128" t="s">
+        <v>407</v>
+      </c>
+      <c r="J128" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" ht="90">
+      <c r="B129" t="s">
+        <v>406</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>403</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G129" t="s">
+        <v>392</v>
+      </c>
+      <c r="H129" t="s">
+        <v>398</v>
+      </c>
+      <c r="I129" t="s">
+        <v>408</v>
+      </c>
+      <c r="J129" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14">
+      <c r="B130" t="s">
+        <v>60</v>
+      </c>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14">
+      <c r="B131" t="s">
+        <v>65</v>
+      </c>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="2:14">
+      <c r="B132" t="s">
+        <v>66</v>
+      </c>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14">
+      <c r="B133" t="s">
+        <v>67</v>
+      </c>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14">
+      <c r="B134" t="s">
+        <v>68</v>
+      </c>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="2:14" ht="180">
+      <c r="B135" t="s">
+        <v>399</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>400</v>
+      </c>
+      <c r="E135" t="s">
+        <v>401</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G135" t="s">
+        <v>392</v>
+      </c>
+      <c r="H135" t="s">
+        <v>398</v>
+      </c>
+      <c r="N135" s="1"/>
+    </row>
+    <row r="136" spans="2:14">
+      <c r="B136" t="s">
+        <v>69</v>
+      </c>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14">
+      <c r="B137" t="s">
         <v>70</v>
       </c>
-      <c r="N128" s="1"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="B129" t="s">
+      <c r="N137" s="1"/>
+    </row>
+    <row r="138" spans="2:14">
+      <c r="B138" t="s">
         <v>71</v>
       </c>
-      <c r="N129" s="1"/>
-    </row>
-    <row r="130" spans="1:14">
-      <c r="B130" t="s">
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="2:14">
+      <c r="B139" t="s">
         <v>72</v>
       </c>
-      <c r="N130" s="1"/>
-    </row>
-    <row r="131" spans="1:14">
-      <c r="B131" t="s">
+      <c r="N139" s="1"/>
+    </row>
+    <row r="140" spans="2:14">
+      <c r="B140" t="s">
         <v>73</v>
       </c>
-      <c r="N131" s="1"/>
-    </row>
-    <row r="132" spans="1:14">
-      <c r="B132" t="s">
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14">
+      <c r="B141" t="s">
         <v>74</v>
       </c>
-      <c r="N132" s="1"/>
-    </row>
-    <row r="133" spans="1:14">
-      <c r="B133" t="s">
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="2:14">
+      <c r="B142" t="s">
         <v>75</v>
       </c>
-      <c r="N133" s="1"/>
-    </row>
-    <row r="134" spans="1:14">
-      <c r="B134" t="s">
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="2:14">
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="2:14">
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="N146" s="1"/>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="N147" s="1"/>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="N149" s="1"/>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="N150" s="1"/>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" t="s">
         <v>76</v>
       </c>
-      <c r="N134" s="1"/>
-    </row>
-    <row r="135" spans="1:14">
-      <c r="N135" s="1"/>
-    </row>
-    <row r="136" spans="1:14">
-      <c r="N136" s="1"/>
-    </row>
-    <row r="137" spans="1:14">
-      <c r="N137" s="1"/>
-    </row>
-    <row r="138" spans="1:14">
-      <c r="N138" s="1"/>
-    </row>
-    <row r="139" spans="1:14">
-      <c r="N139" s="1"/>
-    </row>
-    <row r="140" spans="1:14">
-      <c r="N140" s="1"/>
-    </row>
-    <row r="141" spans="1:14">
-      <c r="N141" s="1"/>
-    </row>
-    <row r="142" spans="1:14">
-      <c r="N142" s="1"/>
-    </row>
-    <row r="143" spans="1:14">
-      <c r="A143" t="s">
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="B152" t="s">
+        <v>440</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>441</v>
+      </c>
+      <c r="E152" t="s">
+        <v>342</v>
+      </c>
+      <c r="F152" t="s">
+        <v>442</v>
+      </c>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="B153" t="s">
         <v>77</v>
       </c>
-      <c r="N143" s="1"/>
-    </row>
-    <row r="144" spans="1:14">
-      <c r="B144" t="s">
-        <v>441</v>
-      </c>
-      <c r="C144">
+      <c r="C153">
         <v>1</v>
       </c>
-      <c r="D144" t="s">
-        <v>442</v>
-      </c>
-      <c r="E144" t="s">
-        <v>343</v>
-      </c>
-      <c r="F144" t="s">
-        <v>443</v>
-      </c>
-      <c r="N144" s="1"/>
-    </row>
-    <row r="145" spans="2:14">
-      <c r="B145" t="s">
+      <c r="D153" t="s">
+        <v>434</v>
+      </c>
+      <c r="E153" t="s">
+        <v>396</v>
+      </c>
+      <c r="F153" t="s">
+        <v>439</v>
+      </c>
+      <c r="G153" t="s">
+        <v>436</v>
+      </c>
+      <c r="H153" t="s">
+        <v>408</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="B154" t="s">
         <v>78</v>
       </c>
-      <c r="C145">
+      <c r="C154">
         <v>1</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D154" t="s">
+        <v>434</v>
+      </c>
+      <c r="E154" t="s">
+        <v>396</v>
+      </c>
+      <c r="F154" t="s">
+        <v>439</v>
+      </c>
+      <c r="G154" t="s">
+        <v>436</v>
+      </c>
+      <c r="H154" t="s">
+        <v>408</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="N154" s="1"/>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="B155" t="s">
+        <v>79</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>434</v>
+      </c>
+      <c r="E155" t="s">
+        <v>396</v>
+      </c>
+      <c r="F155" t="s">
         <v>435</v>
       </c>
-      <c r="E145" t="s">
-        <v>397</v>
-      </c>
-      <c r="F145" t="s">
-        <v>440</v>
-      </c>
-      <c r="G145" t="s">
+      <c r="G155" t="s">
+        <v>436</v>
+      </c>
+      <c r="H155" t="s">
+        <v>408</v>
+      </c>
+      <c r="I155" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="H145" t="s">
-        <v>409</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="N145" s="1"/>
-    </row>
-    <row r="146" spans="2:14">
-      <c r="B146" t="s">
-        <v>79</v>
-      </c>
-      <c r="C146">
+      <c r="N155" s="1"/>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="B156" t="s">
+        <v>433</v>
+      </c>
+      <c r="C156">
         <v>1</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D156" t="s">
+        <v>434</v>
+      </c>
+      <c r="E156" t="s">
+        <v>396</v>
+      </c>
+      <c r="F156" t="s">
         <v>435</v>
       </c>
-      <c r="E146" t="s">
-        <v>397</v>
-      </c>
-      <c r="F146" t="s">
-        <v>440</v>
-      </c>
-      <c r="G146" t="s">
+      <c r="G156" t="s">
+        <v>436</v>
+      </c>
+      <c r="H156" t="s">
+        <v>408</v>
+      </c>
+      <c r="I156" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="H146" t="s">
-        <v>409</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="N146" s="1"/>
-    </row>
-    <row r="147" spans="2:14">
-      <c r="B147" t="s">
-        <v>80</v>
-      </c>
-      <c r="C147">
+      <c r="N156" s="1"/>
+    </row>
+    <row r="157" spans="1:14" ht="45">
+      <c r="B157" t="s">
+        <v>427</v>
+      </c>
+      <c r="C157">
         <v>1</v>
       </c>
-      <c r="D147" t="s">
-        <v>435</v>
-      </c>
-      <c r="E147" t="s">
-        <v>397</v>
-      </c>
-      <c r="F147" t="s">
-        <v>436</v>
-      </c>
-      <c r="G147" t="s">
-        <v>437</v>
-      </c>
-      <c r="H147" t="s">
-        <v>409</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="N147" s="1"/>
-    </row>
-    <row r="148" spans="2:14">
-      <c r="B148" t="s">
-        <v>434</v>
-      </c>
-      <c r="C148">
+      <c r="D157" t="s">
+        <v>428</v>
+      </c>
+      <c r="E157" t="s">
+        <v>396</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G157" t="s">
+        <v>430</v>
+      </c>
+      <c r="H157" t="s">
+        <v>408</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="N157" s="1"/>
+    </row>
+    <row r="158" spans="1:14" ht="45">
+      <c r="B158" t="s">
+        <v>432</v>
+      </c>
+      <c r="C158">
         <v>1</v>
       </c>
-      <c r="D148" t="s">
-        <v>435</v>
-      </c>
-      <c r="E148" t="s">
-        <v>397</v>
-      </c>
-      <c r="F148" t="s">
-        <v>436</v>
-      </c>
-      <c r="G148" t="s">
-        <v>437</v>
-      </c>
-      <c r="H148" t="s">
-        <v>409</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="N148" s="1"/>
-    </row>
-    <row r="149" spans="2:14" ht="45">
-      <c r="B149" t="s">
+      <c r="D158" t="s">
         <v>428</v>
       </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-      <c r="D149" t="s">
+      <c r="E158" t="s">
+        <v>396</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E149" t="s">
-        <v>397</v>
-      </c>
-      <c r="F149" s="2" t="s">
+      <c r="G158" t="s">
         <v>430</v>
       </c>
-      <c r="G149" t="s">
+      <c r="H158" t="s">
+        <v>408</v>
+      </c>
+      <c r="I158" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="H149" t="s">
-        <v>409</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="N149" s="1"/>
-    </row>
-    <row r="150" spans="2:14" ht="45">
-      <c r="B150" t="s">
-        <v>433</v>
-      </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-      <c r="D150" t="s">
-        <v>429</v>
-      </c>
-      <c r="E150" t="s">
-        <v>397</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="G150" t="s">
-        <v>431</v>
-      </c>
-      <c r="H150" t="s">
-        <v>409</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="N150" s="1"/>
-    </row>
-    <row r="151" spans="2:14">
-      <c r="N151" s="1"/>
-    </row>
-    <row r="152" spans="2:14">
-      <c r="N152" s="1"/>
-    </row>
-    <row r="153" spans="2:14">
-      <c r="N153" s="1"/>
-    </row>
-    <row r="154" spans="2:14">
-      <c r="N154" s="1"/>
-    </row>
-    <row r="155" spans="2:14">
-      <c r="N155" s="1"/>
-    </row>
-    <row r="156" spans="2:14">
-      <c r="N156" s="1"/>
-    </row>
-    <row r="157" spans="2:14">
-      <c r="N157" s="1"/>
-    </row>
-    <row r="158" spans="2:14">
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="2:14">
+    <row r="159" spans="1:14">
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="2:14">
+    <row r="160" spans="1:14">
       <c r="N160" s="1"/>
     </row>
     <row r="161" spans="14:14">
@@ -5385,6 +5683,30 @@
     </row>
     <row r="293" spans="14:14">
       <c r="N293" s="1"/>
+    </row>
+    <row r="294" spans="14:14">
+      <c r="N294" s="1"/>
+    </row>
+    <row r="295" spans="14:14">
+      <c r="N295" s="1"/>
+    </row>
+    <row r="296" spans="14:14">
+      <c r="N296" s="1"/>
+    </row>
+    <row r="297" spans="14:14">
+      <c r="N297" s="1"/>
+    </row>
+    <row r="298" spans="14:14">
+      <c r="N298" s="1"/>
+    </row>
+    <row r="299" spans="14:14">
+      <c r="N299" s="1"/>
+    </row>
+    <row r="300" spans="14:14">
+      <c r="N300" s="1"/>
+    </row>
+    <row r="301" spans="14:14">
+      <c r="N301" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5410,9 +5732,9 @@
     <hyperlink ref="J11" r:id="rId20"/>
     <hyperlink ref="J12:J14" r:id="rId21" display="financiamiento_gobierno_central_all_years_all_alc_cepalstat.xlsx"/>
     <hyperlink ref="J55" r:id="rId22"/>
-    <hyperlink ref="J89" r:id="rId23"/>
-    <hyperlink ref="J120" r:id="rId24"/>
-    <hyperlink ref="J121" r:id="rId25"/>
+    <hyperlink ref="J93" r:id="rId23"/>
+    <hyperlink ref="J128" r:id="rId24"/>
+    <hyperlink ref="J129" r:id="rId25"/>
     <hyperlink ref="J5" r:id="rId26"/>
     <hyperlink ref="J6" r:id="rId27"/>
     <hyperlink ref="J7" r:id="rId28"/>
@@ -5422,15 +5744,19 @@
     <hyperlink ref="J82" r:id="rId32"/>
     <hyperlink ref="J80" r:id="rId33"/>
     <hyperlink ref="J81" r:id="rId34"/>
-    <hyperlink ref="I149" r:id="rId35"/>
-    <hyperlink ref="I150" r:id="rId36"/>
-    <hyperlink ref="I147" r:id="rId37"/>
-    <hyperlink ref="I148" r:id="rId38"/>
-    <hyperlink ref="I145" r:id="rId39"/>
-    <hyperlink ref="I146" r:id="rId40"/>
+    <hyperlink ref="I157" r:id="rId35"/>
+    <hyperlink ref="I158" r:id="rId36"/>
+    <hyperlink ref="I155" r:id="rId37"/>
+    <hyperlink ref="I156" r:id="rId38"/>
+    <hyperlink ref="I153" r:id="rId39"/>
+    <hyperlink ref="I154" r:id="rId40"/>
+    <hyperlink ref="J94" r:id="rId41"/>
+    <hyperlink ref="J85" r:id="rId42"/>
+    <hyperlink ref="J84" r:id="rId43"/>
+    <hyperlink ref="J86" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId41"/>
+  <pageSetup orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>
 
@@ -5446,1232 +5772,1232 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -6684,21 +7010,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
       <c r="A1" s="19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
@@ -6706,79 +7032,79 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1">
       <c r="A2" s="19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
       <c r="A3" s="19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="21"/>
       <c r="G5" s="23" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1">
       <c r="A6" s="19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="23"/>
       <c r="G6" s="21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
@@ -6786,479 +7112,479 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" s="19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="21"/>
       <c r="G7" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K7" s="22">
         <v>24</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="23"/>
       <c r="G8" s="21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K8" s="22">
         <v>27</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="21"/>
       <c r="G9" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K9" s="22">
         <v>25</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="23"/>
       <c r="G10" s="21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K10" s="22">
         <v>26</v>
       </c>
       <c r="L10" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="M10" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="N10" s="23" t="s">
         <v>524</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" s="19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="21"/>
       <c r="G11" s="23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K11" s="22">
         <v>20</v>
       </c>
       <c r="L11" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="N11" s="21" t="s">
         <v>526</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="N11" s="21" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="23"/>
       <c r="G12" s="21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K12" s="22">
         <v>21</v>
       </c>
       <c r="L12" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="N12" s="23" t="s">
         <v>528</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>505</v>
-      </c>
-      <c r="N12" s="23" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K13" s="22">
         <v>32</v>
       </c>
       <c r="L13" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="N13" s="21" t="s">
         <v>530</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K14" s="22">
         <v>29</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K15" s="22">
         <v>30</v>
       </c>
       <c r="L15" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="N15" s="21" t="s">
         <v>533</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K16" s="22">
         <v>31</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1">
       <c r="A17" s="19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K17" s="22">
         <v>33</v>
       </c>
       <c r="L17" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="N17" s="21" t="s">
         <v>536</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1">
       <c r="A18" s="19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1">
       <c r="A19" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1">
       <c r="A20" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1">
       <c r="A21" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1">
       <c r="A23" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1">
       <c r="A24" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1">
       <c r="A25" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1">
       <c r="A26" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
